--- a/ongoing/ref_based_name_history_version_control.xlsx
+++ b/ongoing/ref_based_name_history_version_control.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gsmai/Documents/GitHub/national-checklist/ongoing/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{05E782FD-F9B2-644C-8641-5535777DDB11}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="19416" windowHeight="11016" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScientificNames" sheetId="1" r:id="rId1"/>
@@ -14,10 +20,10 @@
     <sheet name="NamespaceReferenceMap" sheetId="7" r:id="rId5"/>
     <sheet name="References" sheetId="4" r:id="rId6"/>
     <sheet name="Authors" sheetId="5" r:id="rId7"/>
-    <sheet name="Genus" sheetId="8" r:id="rId8"/>
-    <sheet name="Family" sheetId="9" r:id="rId9"/>
+    <sheet name="GenusUsage" sheetId="8" r:id="rId8"/>
+    <sheet name="FamilyUsage" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Guan Shuo Mai</author>
   </authors>
   <commentList>
-    <comment ref="N17" authorId="0">
+    <comment ref="O17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,8 +46,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft JhengHei UI"/>
-            <family val="2"/>
-            <charset val="136"/>
           </rPr>
           <t>Guan Shuo Mai:</t>
         </r>
@@ -50,8 +54,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft JhengHei UI"/>
-            <family val="2"/>
-            <charset val="136"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -63,95 +65,8 @@
             <rFont val="新細明體"/>
             <family val="1"/>
             <charset val="136"/>
-            <scheme val="minor"/>
           </rPr>
           <t>程式要能自動發現缺失，指出缺少物種級的描述出處</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>Guan Shuo Mai:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>要用真</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t xml:space="preserve"> key </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>合併這兩位</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>差別在於有無亞屬</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft JhengHei UI"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>)</t>
         </r>
       </text>
     </comment>
@@ -160,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="537">
   <si>
     <t>latin_genus</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -202,10 +117,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>species_shell_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>s_level</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -318,10 +229,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>latin_subgenus</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>nomenclature_code</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -819,10 +726,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>拉丁亞屬名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>因應類ICBN的種小名作者年代</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -863,10 +766,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>物種殼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>lowest_rank_author_year</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -912,23 +811,12 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Étude Euphorb. 565. 1858. nom. nud</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Bedd., Fl. Sylv. t. 288. 1872 vol.2 cclxxxviii 1874</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Benth., Fl. Hongk. 316. 1861, pro parte</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>nom_nud</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum. pl. Zeyl. 290. 1864, "nilgherrense"</t>
   </si>
   <si>
     <t>original_full_latin_spelling</t>
@@ -1016,10 +904,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>is_inferred_name</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1080,10 +964,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>原文獻中引用的寫法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>reference_id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1105,10 +985,6 @@
   </si>
   <si>
     <t>書本集合發行日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者寫法要正規化, 原組合名/此組合名/各自的有效發表作者(A ex B)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1717,10 +1593,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>使用id串接，例如 aid1|aid2|aid3，或 Cassandra 的 list；如果此欄為空，從 this_comb 補過來</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>as_full_as_possible_name</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1741,10 +1613,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>solr index</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>in cassandra set (pid?)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1798,10 +1666,6 @@
   </si>
   <si>
     <t>如是因作者表示法的差異 (例如 L. 與 Linn., 或 Nakai 與 Nakai ex Honda) 而採用了不同sciname_id，但仍應被視為相同學名者，在此以另一id表示之</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不是雜交就別寫，注意那顆 multiple sign (乘號，不是 x)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2285,10 +2149,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>UUID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1:N的關係，如果相同的分類脈絡卻有不同的 reference id（例如文獻寫法或出處不同，但其實是同篇文章或同本書籍），可以給相同的 namespace 彰顯分類觀點的一致性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2305,15 +2165,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>之所以不等於 u0-3 是因為 u0-3 僅建議台灣應使用 F. limnocharis，而 u2267-1 直接建議 F. multistriata 為 F. limnocharis 的次同物異名，適用尺度可能有所不同</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>implied_or_digested_usage</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>右側的結構化資料都根據此欄 (this_col = implied_or_digested_usage || orig_verbatim_usage)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2843,10 +2695,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>stat. rev.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>stat_rev</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2855,10 +2703,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ref id of RefB (自我引用)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>u-test-b-04</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2960,14 +2804,256 @@
   </si>
   <si>
     <t>order</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>u-test-d-01</t>
+  </si>
+  <si>
+    <t>ref id of RefD</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>self_ref</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp_nov</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>種級學名殼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>species_sciname_shell_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>this_comb_apud_authors</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>this_comb_apud_year</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>assigned_subgenus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>latin subgenus name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disparia</t>
+  </si>
+  <si>
+    <t>作者寫法要正規化, 原組合名/此組合名/各自的有效發表作者(A ex B)或二次引用作者 NameAuthor abud SecondHandAuthor 參考 https://onlinelibrary.wiley.com/doi/pdf/10.1111/j.1438-8677.1953.tb00276.x</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體 (本文)"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>s1-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s1-2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>s-jusq-0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Juniperus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>squamata</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buch.-Ham. apud Lamb.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lamb., A Description of the Genus Pinus 2: 17. 1824.  (Descr. Pinus)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>s-jusq-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buch.-Ham. ex D.Don</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>s-prma-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>s-prma-0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protium</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>macgregorii</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(F. M. Bailey) Leenh. apud van Steenis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acta Botanica Neerlandica 2: 305. 1953</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>macgregori</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(F.M. Bailey) Leenh. &amp; Steenis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lamb.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>s-jusq-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pref_order</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同學名的使用優先序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是雜交就別寫，注意那顆 multiple sign (乘號，不是 x) 的位置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>之所以不等於 u0-3 是因為 u0-3 建議在台灣族群鑑定狀況仍有疑慮下先使用 F. limnocharis，而 u2267-1 直接建議 F. multistriata 為 F. limnocharis 的次同物異名，兩者可並存不衝突。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多值欄位，值為 author id，例如 aid1|aid2|aid3，或 Cassandra 的 list (有序)；如果此欄為空，從 this_comb 補過來</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean值，提出某學名A為有效使用的文獻（假設叫RefX），學名使用中除了引用過去同樣認為A是有效名的文獻，在本系統中也要將RefX列入視A為有效名的文獻，在此稱為學名使用的自我引用。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum. pl. Zeyl. 290. 1864</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Étude Euphorb. 565. 1858</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benth., Fl. Hongk. 316. 1861</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>學名使用中單篇文獻引用的寫法，排除其他有的沒的描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ic. pl. Ind. or. V. 2. 22. 1852</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUID，在脈絡夠清楚的情況下(有獨立作者與標題)，原則上以文章作為最基礎的 compilation 單元。如果是類似合歡山的蛾這類的編彙文章書籍，可以開一個書籍層級的 compilation reference map。如果整本書內容是前後鋪陳型，僅在特定章節列出分類相關資訊（如名錄），則還是以書本為 compilation 單元。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>solr index (這欄往右都是拉丁字母拼寫)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>母語原完整名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_native_language_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>spelling_candidations</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果一篇文章對一個學名寫出Ｎ種拼法(N&gt;1)，把候選都填這</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文獻中學名使用的原寫法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文獻中沒有明確的異名表，自行整理出。右側的結構化資料都根據此欄 (this_col = implied_or_digested_usage || orig_verbatim_usage)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此學名使用條目「使用」到的學名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fentonia variegata 家族</t>
+  </si>
+  <si>
+    <t>Fentonia variegata 家族</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3025,29 +3111,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft JhengHei UI"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft JhengHei UI"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="12"/>
@@ -3074,21 +3137,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei UI"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei UI"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體 (本文)"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3112,23 +3205,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -3149,7 +3273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3222,19 +3346,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
@@ -3258,67 +3376,52 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3637,46 +3740,46 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="66.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="49.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" style="1"/>
-    <col min="16" max="16" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.77734375" style="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="66.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="49.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -3684,1061 +3787,1250 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>220</v>
+        <v>359</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="B2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="W2" s="1" t="s">
-        <v>372</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C15" si="0">COUNTA(H3,J3,O3,R3)</f>
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E15" si="0">COUNTA(I3,K3,P3,S3)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="str">
-        <f>IF(S3="", IF(P3="", IF(K3="", I3, K3), P3), S3)</f>
+      <c r="G3" s="2" t="str">
+        <f>IF(T3="", IF(Q3="", IF(L3="", J3, L3), Q3), T3)</f>
         <v>Miq.</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>34</v>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="2">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="str">
-        <f t="shared" ref="E4:E27" si="1">IF(S4="", IF(P4="", IF(K4="", I4, K4), P4), S4)</f>
+      <c r="G4" s="2" t="str">
+        <f t="shared" ref="G4:G32" si="1">IF(T4="", IF(Q4="", IF(L4="", J4, L4), Q4), T4)</f>
         <v>Carriere</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>35</v>
+      <c r="O4" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="G5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Blume</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>24</v>
+      <c r="N5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="2">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="G6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Bean</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>34</v>
+      <c r="O6" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="2">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="G7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Nakai</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>34</v>
+      <c r="O7" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="2">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="G8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>(Carriere) Nakai</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>34</v>
+        <v>162</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="2">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="G9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>S.S. Chien</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>53</v>
+      <c r="O9" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="2">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="str">
+      <c r="G10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>(Gravenhorst, 1829)</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>69</v>
+      <c r="N10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="2">
+        <v>82</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="str">
+      <c r="G11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Gravenhorst, 1829</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>84</v>
+      <c r="N11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="2">
+        <v>83</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="str">
+      <c r="G12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Djong, Matsui, Kuramoto, Nishioka, and Sumida, 2011</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="2">
+        <v>84</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D13" s="2">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="2" t="str">
+      <c r="G13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>(Hallowell, 1861)</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="2">
+        <v>85</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D14" s="2">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="2" t="str">
+      <c r="G14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Matsui, Toda, and Ota, 2007</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="2">
+        <v>379</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D15" s="2">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="2" t="str">
+      <c r="G15" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Gravenhorst, 1829</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>392</v>
+        <v>74</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" ref="C16:C27" si="2">COUNTA(H16,J16,O16,R16)</f>
+        <v>139</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ref="E16:E32" si="2">COUNTA(I16,K16,P16,S16)</f>
         <v>1</v>
       </c>
-      <c r="D16" s="2">
+      <c r="F16" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="2" t="str">
+      <c r="G16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Wileman, 1910</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="O16" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="2">
+        <v>140</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="2" t="str">
+      <c r="G17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>(Wileman, 1910)</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="H17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N17" s="6" t="e">
+      <c r="O17" s="6" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="2">
+        <v>141</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D18" s="2">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
-      <c r="E18" s="2" t="str">
+      <c r="G18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>(Wileman, 1910)</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="2">
+        <v>123</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="43" customFormat="1">
+      <c r="A19" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="44">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D19" s="2">
+      <c r="F19" s="44">
         <v>0</v>
       </c>
-      <c r="E19" s="2" t="str">
+      <c r="G19" s="44" t="str">
         <f t="shared" si="1"/>
         <v>(Wileman, 1910)</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="H19" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="N19" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="O19" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="2">
+        <v>143</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D20" s="2">
+      <c r="F20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="2" t="str">
+      <c r="G20" s="2" t="str">
         <f t="shared" si="1"/>
         <v>(Wileman, 1910)</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N20" s="6" t="e">
+        <v>123</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O20" s="6" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="2">
+        <v>144</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D21" s="2">
+      <c r="F21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="2" t="str">
+      <c r="G21" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Wileman, 1910</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="H21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N21" s="6" t="e">
+      <c r="O21" s="6" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="2">
+        <v>145</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="D22" s="2">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
-      <c r="E22" s="2" t="str">
+      <c r="G22" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Wileman, 1910</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N22" s="6" t="e">
+      <c r="O22" s="6" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="P22" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>124</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="2">
+        <v>146</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D23" s="2">
+      <c r="F23" s="2">
         <v>1</v>
       </c>
-      <c r="E23" s="2" t="str">
+      <c r="G23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Wileman, 1910</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="H23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="N23" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="O23" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="2">
+        <v>218</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D24" s="2">
+      <c r="F24" s="2">
         <v>1</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>124</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="O24" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="2">
+        <v>152</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D25" s="2">
+      <c r="F25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="2" t="str">
+      <c r="G25" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Wileman, 1911</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="O25" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="N25" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="D26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D26" s="2">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="2" t="str">
+      <c r="G26" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Tams, 1927</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="N26" s="4" t="e">
+      <c r="O26" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="2">
+        <v>223</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D27" s="2">
+      <c r="F27" s="2">
         <v>0</v>
       </c>
-      <c r="E27" s="2" t="str">
+      <c r="G27" s="2" t="str">
         <f t="shared" si="1"/>
         <v>L.</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>222</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="1" t="s">
+        <v>494</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>219</v>
+        <v>511</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Buch.-Ham. apud Lamb.</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Buch.-Ham. ex D.Don</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" ref="E30" si="3">COUNTA(I30,K30,P30,S30)</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <f t="shared" ref="G30" si="4">IF(T30="", IF(Q30="", IF(L30="", J30, L30), Q30), T30)</f>
+        <v>Lamb.</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(F. M. Bailey) Leenh. apud van Steenis</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(F.M. Bailey) Leenh. &amp; Steenis</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -4750,68 +5042,75 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>289</v>
+      <c r="B1" s="27" t="s">
+        <v>279</v>
       </c>
       <c r="C1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K1" t="s">
+        <v>277</v>
+      </c>
+      <c r="L1" t="s">
+        <v>487</v>
+      </c>
+      <c r="M1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>284</v>
       </c>
-      <c r="D1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H1" t="s">
-        <v>285</v>
-      </c>
-      <c r="I1" t="s">
-        <v>293</v>
-      </c>
-      <c r="J1" t="s">
-        <v>292</v>
-      </c>
-      <c r="K1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>294</v>
-      </c>
       <c r="B2" t="s">
-        <v>352</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -4821,219 +5120,239 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="5"/>
-    <col min="3" max="3" width="32.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="5"/>
+    <col min="3" max="3" width="32.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="31" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="77.44140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.33203125" style="18" customWidth="1"/>
-    <col min="14" max="14" width="47" style="18" customWidth="1"/>
-    <col min="15" max="15" width="49.44140625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="29.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.109375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="33.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" style="5" customWidth="1"/>
-    <col min="22" max="22" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.77734375" style="8"/>
+    <col min="7" max="7" width="17.83203125" style="4" customWidth="1"/>
+    <col min="8" max="10" width="20.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="45" style="8" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.1640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="37.33203125" style="18" customWidth="1"/>
+    <col min="16" max="16" width="47" style="18" customWidth="1"/>
+    <col min="17" max="17" width="49.5" style="5" customWidth="1"/>
+    <col min="18" max="18" width="29.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.1640625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="33.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:25">
       <c r="A1" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>297</v>
+      <c r="P1" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="S1" t="s">
-        <v>302</v>
+        <v>287</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>325</v>
+        <v>289</v>
+      </c>
+      <c r="U1" t="s">
+        <v>292</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="W1" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="D2" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="D2" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>374</v>
+      <c r="O2" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>226</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="S2" t="s">
-        <v>378</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="V2" s="25" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="9" customFormat="1">
+        <v>308</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="U2" t="s">
+        <v>365</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="9" customFormat="1">
       <c r="A3" s="9" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="22"/>
-      <c r="E3" s="34"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
-      <c r="I3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="19" t="str">
-        <f t="shared" ref="M3:M45" si="0">CONCATENATE("namespace(", L3, ")")</f>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="19" t="str">
+        <f t="shared" ref="O3:O45" si="0">CONCATENATE("namespace(", N3, ")")</f>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="N3" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
+      <c r="P3" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="29"/>
+      <c r="S3" s="14"/>
       <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="U3" s="27"/>
       <c r="V3" s="14"/>
-      <c r="W3" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
@@ -5041,170 +5360,170 @@
       <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" s="18" t="str">
+      <c r="K4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="18" t="str">
+      <c r="K5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="N5" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="P5" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M6" s="18" t="str">
+      <c r="K6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="18" t="str">
+      <c r="K7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" s="18" t="str">
+      <c r="K8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
@@ -5212,326 +5531,336 @@
       <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M9" s="18" t="str">
+      <c r="K9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10" s="18" t="str">
+      <c r="K10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="N10" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="9" customFormat="1">
+      <c r="P10" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="9" customFormat="1">
       <c r="A11" s="9" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="22"/>
-      <c r="E11" s="34"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>69</v>
-      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="13"/>
       <c r="L11" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="M11" s="19" t="str">
+        <v>138</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" s="19" t="str">
         <f t="shared" si="0"/>
         <v>namespace(自然保育季刊 No.98 JUN. 2017)</v>
       </c>
-      <c r="N11" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="P11" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
-      <c r="S11" s="29"/>
+      <c r="S11" s="14"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
+      <c r="U11" s="27"/>
       <c r="V11" s="14"/>
-      <c r="W11" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="8" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="L12" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M12" s="18" t="str">
+        <v>137</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(自然保育季刊 No.98 JUN. 2017)</v>
       </c>
-      <c r="N12" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="W12" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="10" customFormat="1">
+      <c r="P12" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="10" customFormat="1">
       <c r="A13" s="10" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="23"/>
-      <c r="E13" s="35"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
-      <c r="J13" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
       <c r="L13" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" s="20" t="str">
+        <v>93</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>namespace(自然保育季刊 No.98 JUN. 2017)</v>
       </c>
-      <c r="N13" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="30"/>
+      <c r="S13" s="7"/>
       <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
+      <c r="U13" s="28"/>
       <c r="V13" s="7"/>
-      <c r="W13" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="10" customFormat="1">
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="10" customFormat="1">
       <c r="A14" s="10" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="23"/>
-      <c r="E14" s="35"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
-      <c r="J14" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
       <c r="L14" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="M14" s="20" t="str">
+        <v>97</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>namespace(自然保育季刊 No.98 JUN. 2017)</v>
       </c>
-      <c r="N14" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="20" t="s">
+        <v>390</v>
+      </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="30"/>
+      <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
+      <c r="U14" s="28"/>
       <c r="V14" s="7"/>
-      <c r="W14" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" s="10" customFormat="1">
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="10" customFormat="1">
       <c r="A15" s="10" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D15" s="23"/>
-      <c r="E15" s="35"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
-      <c r="J15" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
       <c r="L15" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="M15" s="20" t="str">
+        <v>334</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O15" s="20" t="str">
         <f t="shared" si="0"/>
         <v>namespace(自然保育季刊 No.98 JUN. 2017)</v>
       </c>
-      <c r="N15" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="20" t="s">
+        <v>335</v>
+      </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="30"/>
+      <c r="S15" s="7"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
+      <c r="U15" s="28"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" s="9" customFormat="1">
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="9" customFormat="1">
       <c r="A16" s="9" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="D16" s="22"/>
-      <c r="E16" s="34"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="22"/>
       <c r="G16" s="14"/>
       <c r="H16" s="22"/>
-      <c r="I16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>69</v>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="M16" s="19" t="str">
+        <v>392</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="O16" s="19" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Kotaki, Kurabayashi, Matsui, Kuramoto, Djong and Sumida, 2010.)</v>
       </c>
-      <c r="N16" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="P16" s="9" t="s">
+        <v>387</v>
+      </c>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
-      <c r="S16" s="29"/>
+      <c r="S16" s="14"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
+      <c r="U16" s="27"/>
       <c r="V16" s="14"/>
-    </row>
-    <row r="17" spans="1:22" s="10" customFormat="1">
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+    </row>
+    <row r="17" spans="1:25" s="10" customFormat="1">
       <c r="A17" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>426</v>
-      </c>
       <c r="D17" s="23"/>
-      <c r="E17" s="35"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23">
         <v>1</v>
@@ -5539,92 +5868,96 @@
       <c r="H17" s="23">
         <v>1</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>399</v>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="10" t="s">
+        <v>384</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="M17" s="20" t="str">
+        <v>385</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="O17" s="20" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Kotaki, Kurabayashi, Matsui, Kuramoto, Djong and Sumida, 2010.)</v>
       </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="20"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="30"/>
+      <c r="S17" s="7"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
+      <c r="U17" s="28"/>
       <c r="V17" s="7"/>
-    </row>
-    <row r="18" spans="1:22" s="9" customFormat="1">
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+    </row>
+    <row r="18" spans="1:25" s="9" customFormat="1">
       <c r="A18" s="9" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>428</v>
+        <v>88</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>412</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="14"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>69</v>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="M18" s="19" t="str">
+        <v>392</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="O18" s="19" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Kotaki, Kurabayashi, Matsui, Kuramoto, Djong and Sumida, 2010.)</v>
       </c>
-      <c r="N18" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
+      <c r="P18" s="9" t="s">
+        <v>387</v>
+      </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="29"/>
+      <c r="S18" s="14"/>
       <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
+      <c r="U18" s="27"/>
       <c r="V18" s="14"/>
-    </row>
-    <row r="19" spans="1:22" s="10" customFormat="1">
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+    </row>
+    <row r="19" spans="1:25" s="10" customFormat="1" ht="16" thickBot="1">
       <c r="A19" s="10" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="12" t="s">
-        <v>421</v>
+        <v>518</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="23">
@@ -5633,1133 +5966,1131 @@
       <c r="H19" s="23">
         <v>1</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>399</v>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="10" t="s">
+        <v>384</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="M19" s="20" t="str">
+        <v>385</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="O19" s="20" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Kotaki, Kurabayashi, Matsui, Kuramoto, Djong and Sumida, 2010.)</v>
       </c>
-      <c r="N19" s="20"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="P19" s="20"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="30"/>
+      <c r="S19" s="7"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
+      <c r="U19" s="28"/>
       <c r="V19" s="7"/>
-    </row>
-    <row r="20" spans="1:22" s="46" customFormat="1">
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+    </row>
+    <row r="20" spans="1:25" s="27" customFormat="1" ht="16" thickTop="1">
       <c r="A20" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="B20" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="L20" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="M20" s="50" t="str">
+      <c r="M20" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="O20" s="27" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Wu, 2015...)</v>
       </c>
-      <c r="N20" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="P20" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y20" s="27" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" customFormat="1">
+      <c r="A21" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M21" s="18" t="str">
+      <c r="I21" t="s">
+        <v>491</v>
+      </c>
+      <c r="K21" t="s">
+        <v>105</v>
+      </c>
+      <c r="M21" t="s">
+        <v>163</v>
+      </c>
+      <c r="N21" t="s">
+        <v>112</v>
+      </c>
+      <c r="O21" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Wu, 2015...)</v>
       </c>
-      <c r="N21" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="P21" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" customFormat="1">
+      <c r="A22" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M22" s="18" t="str">
+      <c r="I22" t="s">
+        <v>491</v>
+      </c>
+      <c r="K22" t="s">
+        <v>106</v>
+      </c>
+      <c r="M22" t="s">
+        <v>159</v>
+      </c>
+      <c r="N22" t="s">
+        <v>112</v>
+      </c>
+      <c r="O22" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Wu, 2015...)</v>
       </c>
-      <c r="N22" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="P22" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" customFormat="1">
+      <c r="A23" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23" t="s">
+        <v>493</v>
+      </c>
+      <c r="N23" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M23" s="18" t="str">
+      <c r="O23" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Wu, 2015...)</v>
       </c>
-      <c r="N23" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-    </row>
-    <row r="24" spans="1:22" s="39" customFormat="1">
-      <c r="A24" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41">
+      <c r="P23" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" customFormat="1">
+      <c r="A24" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J24" s="43"/>
-      <c r="K24" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="M24" s="44" t="str">
+      <c r="K24" t="s">
+        <v>103</v>
+      </c>
+      <c r="M24" t="s">
+        <v>164</v>
+      </c>
+      <c r="N24" t="s">
+        <v>112</v>
+      </c>
+      <c r="O24" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Wu, 2015...)</v>
       </c>
-      <c r="N24" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="P24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" customFormat="1">
+      <c r="A25" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M25" s="18" t="str">
+      <c r="K25" t="s">
+        <v>113</v>
+      </c>
+      <c r="M25" t="s">
+        <v>165</v>
+      </c>
+      <c r="N25" t="s">
+        <v>112</v>
+      </c>
+      <c r="O25" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Wu, 2015...)</v>
       </c>
-      <c r="N25" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="P25" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" customFormat="1">
+      <c r="A26" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26">
         <v>1</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" s="8" t="s">
+      <c r="K26" t="s">
         <v>114</v>
       </c>
-      <c r="M26" s="18" t="str">
+      <c r="M26" t="s">
+        <v>166</v>
+      </c>
+      <c r="N26" t="s">
+        <v>112</v>
+      </c>
+      <c r="O26" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Wu, 2015...)</v>
       </c>
-      <c r="N26" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-    </row>
-    <row r="27" spans="1:22" s="16" customFormat="1">
-      <c r="A27" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24">
+      <c r="P26" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" s="17" customFormat="1">
+      <c r="A27" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="17">
         <v>1</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="M27" s="21" t="str">
+      <c r="K27" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O27" s="17" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Wu, 2015...)</v>
       </c>
-      <c r="N27" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="O27" s="15"/>
-      <c r="Q27" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="R27" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="S27" s="17"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="P27" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="S27" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="T27" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y27" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" customFormat="1" ht="16" thickBot="1">
+      <c r="A28" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28">
         <v>1</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M28" s="18" t="str">
+      <c r="K28" t="s">
+        <v>119</v>
+      </c>
+      <c r="M28" t="s">
+        <v>153</v>
+      </c>
+      <c r="N28" t="s">
+        <v>112</v>
+      </c>
+      <c r="O28" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Wu, 2015...)</v>
       </c>
-      <c r="N28" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-    </row>
-    <row r="29" spans="1:22" s="46" customFormat="1">
-      <c r="A29" s="46" t="s">
-        <v>408</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>429</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="K29" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="L29" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="M29" s="50" t="str">
+      <c r="P28" t="s">
+        <v>156</v>
+      </c>
+      <c r="S28" t="s">
+        <v>121</v>
+      </c>
+      <c r="T28" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" s="36" customFormat="1" ht="16" thickTop="1">
+      <c r="A29" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="M29" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="O29" s="40" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="N29" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="P29" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M30" s="18" t="str">
+      <c r="K30" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="N30" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="P30" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M31" s="18" t="str">
+        <v>413</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O31" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="N31" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="P31" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M32" s="18" t="str">
+        <v>413</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="N32" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P32"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="P32" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M33" s="18" t="str">
+      <c r="K33" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O33" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="N33" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="P33"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="P33" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="R33"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
       </c>
-      <c r="I34" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M34" s="18" t="str">
+      <c r="K34" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O34" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="N34" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="P34"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="P34" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="R34"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M35" s="18" t="str">
+        <v>413</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O35" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="N35" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P35"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="P35" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M36" s="18" t="str">
+      <c r="K36" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O36" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="N36" s="18" t="e">
+      <c r="P36" s="18" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="9" customFormat="1">
+    <row r="37" spans="1:25" s="9" customFormat="1">
       <c r="A37" s="9" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="D37" s="22"/>
-      <c r="E37" s="34"/>
+      <c r="E37" s="32"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
-      <c r="I37" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="K37" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M37" s="19" t="str">
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O37" s="19" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="N37" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
+      <c r="P37" s="19" t="s">
+        <v>208</v>
+      </c>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
-      <c r="S37" s="29"/>
+      <c r="S37" s="14"/>
       <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
+      <c r="U37" s="27"/>
       <c r="V37" s="14"/>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M38" s="18" t="str">
+        <v>421</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O38" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="N38" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="P38" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M39" s="18" t="str">
+        <v>421</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O39" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="O39" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="Q39" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
       </c>
-      <c r="I40" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M40" s="18" t="str">
+      <c r="K40" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O40" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:25">
       <c r="A41" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M41" s="18" t="str">
+        <v>421</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O41" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="N41" s="18" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="P41" s="18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M42" s="18" t="str">
+        <v>421</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O42" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="N42" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" s="9" customFormat="1">
+      <c r="P42" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" s="9" customFormat="1">
       <c r="A43" s="9" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="D43" s="22"/>
-      <c r="E43" s="34"/>
+      <c r="E43" s="32"/>
       <c r="F43" s="22"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
-      <c r="I43" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="K43" s="14" t="s">
-        <v>382</v>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="9" t="s">
+        <v>367</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="M43" s="19" t="str">
+        <v>368</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="O43" s="19" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Djong, Matsui, Kuramoto, Nishioka, and Sumida, Zool. Sci. 28:922-929)</v>
       </c>
-      <c r="N43" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
+      <c r="P43" s="9" t="s">
+        <v>376</v>
+      </c>
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
-      <c r="S43" s="29"/>
+      <c r="S43" s="14"/>
       <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
+      <c r="U43" s="27"/>
       <c r="V43" s="14"/>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="M44" s="18" t="str">
+        <v>377</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="O44" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Djong, Matsui, Kuramoto, Nishioka, and Sumida, Zool. Sci. 28:922-929)</v>
       </c>
-      <c r="N44" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" s="9" customFormat="1">
+      <c r="P44" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" s="9" customFormat="1">
       <c r="A45" s="9" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D45" s="22"/>
-      <c r="E45" s="34"/>
+      <c r="E45" s="32"/>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
-      <c r="J45" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>399</v>
-      </c>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
       <c r="L45" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="M45" s="19" t="str">
+        <v>385</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="O45" s="19" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Dubois and Ohler, 2000)</v>
       </c>
-      <c r="N45" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
+      <c r="P45" s="19" t="s">
+        <v>401</v>
+      </c>
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
-      <c r="S45" s="29"/>
+      <c r="S45" s="14"/>
       <c r="T45" s="14"/>
-      <c r="U45" s="14"/>
+      <c r="U45" s="27"/>
       <c r="V45" s="14"/>
-      <c r="W45" s="9" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" s="16" customFormat="1">
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" s="16" customFormat="1">
       <c r="A46" s="16" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D46" s="15"/>
-      <c r="E46" s="37"/>
+      <c r="E46" s="34"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
-      <c r="I46" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="L46" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="M46" s="21" t="str">
-        <f>CONCATENATE("namespace(", L46, ")")</f>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="N46" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="O46" s="21" t="str">
+        <f>CONCATENATE("namespace(", N46, ")")</f>
         <v>namespace(ICBN-1997-09-25)</v>
       </c>
-      <c r="N46" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
+      <c r="P46" s="16" t="s">
+        <v>250</v>
+      </c>
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
-      <c r="S46" s="17"/>
+      <c r="S46" s="15"/>
       <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
+      <c r="U46" s="17"/>
       <c r="V46" s="15"/>
-    </row>
-    <row r="47" spans="1:23" s="9" customFormat="1">
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+    </row>
+    <row r="47" spans="1:25" s="9" customFormat="1">
       <c r="A47" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D47" s="22"/>
-      <c r="E47" s="34"/>
+      <c r="E47" s="32"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
-      <c r="I47" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="M47" s="19" t="str">
-        <f>CONCATENATE("namespace(", L47, ")")</f>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="O47" s="19" t="str">
+        <f>CONCATENATE("namespace(", N47, ")")</f>
         <v>namespace(國立台灣大學植物標本館 (2012)，台灣植物資訊整合查詢系統，http://tai2.ntu.edu.tw。)</v>
       </c>
-      <c r="N47" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
+      <c r="P47" s="19" t="s">
+        <v>317</v>
+      </c>
       <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
-      <c r="S47" s="29"/>
+      <c r="S47" s="14"/>
       <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
+      <c r="U47" s="27"/>
       <c r="V47" s="14"/>
-      <c r="W47" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="K48" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="M48" s="18" t="str">
-        <f>CONCATENATE("namespace(", L48, ")")</f>
+        <v>318</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="M48" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="O48" s="18" t="str">
+        <f>CONCATENATE("namespace(", N48, ")")</f>
         <v>namespace(國立台灣大學植物標本館 (2012)，台灣植物資訊整合查詢系統，http://tai2.ntu.edu.tw。)</v>
       </c>
-      <c r="N48" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="O48" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="P48" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" s="8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" s="9" customFormat="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" s="9" customFormat="1">
       <c r="A53" s="9" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D53" s="22"/>
-      <c r="E53" s="34"/>
+      <c r="E53" s="32"/>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
-      <c r="I53" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="K53" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="L53" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="M53" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="N53" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="O53" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="P53" s="19" t="s">
+        <v>433</v>
+      </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="14"/>
-      <c r="S53" s="29"/>
+      <c r="S53" s="14"/>
       <c r="T53" s="14"/>
-      <c r="U53" s="14"/>
+      <c r="U53" s="27"/>
       <c r="V53" s="14"/>
-    </row>
-    <row r="54" spans="1:22" s="9" customFormat="1">
+      <c r="W53" s="14"/>
+      <c r="X53" s="14"/>
+    </row>
+    <row r="54" spans="1:24" s="9" customFormat="1">
       <c r="A54" s="9" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="D54" s="22"/>
-      <c r="E54" s="34"/>
+      <c r="E54" s="32"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
-      <c r="I54" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="K54" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="M54" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="N54" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="O54" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="P54" s="19" t="s">
+        <v>438</v>
+      </c>
       <c r="Q54" s="14"/>
       <c r="R54" s="14"/>
-      <c r="S54" s="29"/>
+      <c r="S54" s="14"/>
       <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
+      <c r="U54" s="27"/>
       <c r="V54" s="14"/>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" s="8" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="G55" s="4">
         <v>1</v>
@@ -6767,67 +7098,69 @@
       <c r="H55" s="4">
         <v>1</v>
       </c>
-      <c r="I55" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="M55" s="18" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" s="9" customFormat="1">
+      <c r="K55" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="O55" s="18" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" s="9" customFormat="1">
       <c r="A56" s="9" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="D56" s="22"/>
-      <c r="E56" s="34"/>
+      <c r="E56" s="32"/>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
-      <c r="I56" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="K56" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="M56" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="N56" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="M56" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="O56" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="P56" s="19" t="s">
+        <v>438</v>
+      </c>
       <c r="Q56" s="14"/>
       <c r="R56" s="14"/>
-      <c r="S56" s="29"/>
+      <c r="S56" s="14"/>
       <c r="T56" s="14"/>
-      <c r="U56" s="14"/>
+      <c r="U56" s="27"/>
       <c r="V56" s="14"/>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="W56" s="14"/>
+      <c r="X56" s="14"/>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" s="8" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="G57" s="4">
         <v>1</v>
@@ -6835,70 +7168,72 @@
       <c r="H57" s="4">
         <v>1</v>
       </c>
-      <c r="I57" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="K57" s="5" t="s">
+      <c r="K57" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="O57" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="P57" s="18" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" s="9" customFormat="1">
+      <c r="A58" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="L57" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="M57" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="N57" s="18" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" s="9" customFormat="1">
-      <c r="A58" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>464</v>
-      </c>
       <c r="C58" s="14" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="D58" s="22"/>
-      <c r="E58" s="34"/>
+      <c r="E58" s="32"/>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
       <c r="H58" s="22"/>
-      <c r="I58" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="K58" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="L58" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="M58" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="N58" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="M58" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="O58" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="P58" s="19" t="s">
+        <v>449</v>
+      </c>
       <c r="Q58" s="14"/>
       <c r="R58" s="14"/>
-      <c r="S58" s="29"/>
+      <c r="S58" s="14"/>
       <c r="T58" s="14"/>
-      <c r="U58" s="14"/>
+      <c r="U58" s="27"/>
       <c r="V58" s="14"/>
-    </row>
-    <row r="59" spans="1:22">
+      <c r="W58" s="14"/>
+      <c r="X58" s="14"/>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" s="8" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="G59" s="4">
         <v>1</v>
@@ -6906,250 +7241,258 @@
       <c r="H59" s="4">
         <v>1</v>
       </c>
-      <c r="I59" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="L59" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="M59" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="N59" s="18" t="s">
+      <c r="K59" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="N59" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" s="9" customFormat="1">
+      <c r="O59" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="P59" s="18" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" s="9" customFormat="1">
       <c r="A60" s="9" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="D60" s="22"/>
-      <c r="E60" s="34"/>
+      <c r="E60" s="32"/>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
-      <c r="I60" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="K60" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="M60" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="N60" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="M60" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="O60" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="P60" s="19" t="s">
+        <v>449</v>
+      </c>
       <c r="Q60" s="14"/>
       <c r="R60" s="14"/>
-      <c r="S60" s="29"/>
+      <c r="S60" s="14"/>
       <c r="T60" s="14"/>
-      <c r="U60" s="14"/>
+      <c r="U60" s="27"/>
       <c r="V60" s="14"/>
-    </row>
-    <row r="61" spans="1:22" s="9" customFormat="1">
+      <c r="W60" s="14"/>
+      <c r="X60" s="14"/>
+    </row>
+    <row r="61" spans="1:24" s="9" customFormat="1">
       <c r="A61" s="9" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="D61" s="22"/>
-      <c r="E61" s="34"/>
+      <c r="E61" s="32"/>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
-      <c r="I61" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="K61" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="L61" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="M61" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="N61" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="M61" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="O61" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="P61" s="19" t="s">
+        <v>449</v>
+      </c>
       <c r="Q61" s="14"/>
       <c r="R61" s="14"/>
-      <c r="S61" s="29"/>
+      <c r="S61" s="14"/>
       <c r="T61" s="14"/>
-      <c r="U61" s="14"/>
+      <c r="U61" s="27"/>
       <c r="V61" s="14"/>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="W61" s="14"/>
+      <c r="X61" s="14"/>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" s="8" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="G62" s="4">
         <v>1</v>
       </c>
-      <c r="I62" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="K62" s="5" t="s">
+      <c r="K62" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="O62" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="P62" s="18" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" s="9" customFormat="1">
+      <c r="A63" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="L62" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="M62" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="N62" s="18" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" s="9" customFormat="1">
-      <c r="A63" s="9" t="s">
-        <v>478</v>
-      </c>
       <c r="B63" s="14" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="D63" s="22"/>
-      <c r="E63" s="34"/>
+      <c r="E63" s="32"/>
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
-      <c r="J63" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="K63" s="14" t="s">
-        <v>453</v>
-      </c>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
       <c r="L63" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="M63" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="N63" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
+        <v>436</v>
+      </c>
+      <c r="M63" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="O63" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="P63" s="19" t="s">
+        <v>463</v>
+      </c>
       <c r="Q63" s="14"/>
       <c r="R63" s="14"/>
-      <c r="S63" s="29"/>
+      <c r="S63" s="14"/>
       <c r="T63" s="14"/>
-      <c r="U63" s="14"/>
+      <c r="U63" s="27"/>
       <c r="V63" s="14"/>
-    </row>
-    <row r="64" spans="1:22">
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" s="8" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="M64" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="N64" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="O64" s="5" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22">
+        <v>465</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="O64" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="P64" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="8" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" s="9" customFormat="1">
-      <c r="A66" s="8" t="s">
-        <v>269</v>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" s="9" customFormat="1">
+      <c r="A66" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="D66" s="22"/>
-      <c r="E66" s="34"/>
+      <c r="E66" s="32"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
       <c r="H66" s="22"/>
-      <c r="I66" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="K66" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="L66" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="M66" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="N66" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="O66" s="14"/>
-      <c r="P66" s="14"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="M66" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="O66" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="P66" s="19" t="s">
+        <v>438</v>
+      </c>
       <c r="Q66" s="14"/>
       <c r="R66" s="14"/>
-      <c r="S66" s="29"/>
+      <c r="S66" s="14"/>
       <c r="T66" s="14"/>
-      <c r="U66" s="14"/>
+      <c r="U66" s="27"/>
       <c r="V66" s="14"/>
-    </row>
-    <row r="67" spans="1:22">
+      <c r="W66" s="14"/>
+      <c r="X66" s="14"/>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" s="8" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C67" s="38" t="s">
-        <v>491</v>
+        <v>445</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>473</v>
       </c>
       <c r="G67" s="4">
         <v>1</v>
@@ -7157,199 +7500,205 @@
       <c r="H67" s="4">
         <v>1</v>
       </c>
-      <c r="I67" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="K67" s="5" t="s">
+      <c r="K67" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="O67" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="P67" s="18" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" s="9" customFormat="1">
+      <c r="A68" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B68" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="L67" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="M67" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="N67" s="18" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" s="9" customFormat="1">
-      <c r="A68" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>464</v>
-      </c>
       <c r="C68" s="14" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="E68" s="34"/>
+        <v>448</v>
+      </c>
+      <c r="E68" s="32"/>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
       <c r="H68" s="22"/>
-      <c r="I68" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="K68" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="M68" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="N68" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="O68" s="14"/>
-      <c r="P68" s="14"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="M68" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="O68" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="P68" s="19" t="s">
+        <v>449</v>
+      </c>
       <c r="Q68" s="14"/>
       <c r="R68" s="14"/>
-      <c r="S68" s="29"/>
+      <c r="S68" s="14"/>
       <c r="T68" s="14"/>
-      <c r="U68" s="14"/>
+      <c r="U68" s="27"/>
       <c r="V68" s="14"/>
-    </row>
-    <row r="69" spans="1:22" s="9" customFormat="1">
-      <c r="A69" s="8" t="s">
-        <v>269</v>
+      <c r="W68" s="14"/>
+      <c r="X68" s="14"/>
+    </row>
+    <row r="69" spans="1:24" s="9" customFormat="1">
+      <c r="A69" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="D69" s="22"/>
-      <c r="E69" s="34"/>
+      <c r="E69" s="32"/>
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
-      <c r="I69" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="K69" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="M69" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="N69" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="M69" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="O69" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="P69" s="19" t="s">
+        <v>449</v>
+      </c>
       <c r="Q69" s="14"/>
       <c r="R69" s="14"/>
-      <c r="S69" s="29"/>
+      <c r="S69" s="14"/>
       <c r="T69" s="14"/>
-      <c r="U69" s="14"/>
+      <c r="U69" s="27"/>
       <c r="V69" s="14"/>
-    </row>
-    <row r="70" spans="1:22">
+      <c r="W69" s="14"/>
+      <c r="X69" s="14"/>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" s="8" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="G70" s="4">
         <v>1</v>
       </c>
-      <c r="I70" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="L70" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="M70" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="N70" s="18" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" s="9" customFormat="1">
-      <c r="A71" s="8" t="s">
-        <v>269</v>
+      <c r="K70" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="N70" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="O70" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="P70" s="18" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" s="9" customFormat="1">
+      <c r="A71" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="E71" s="34"/>
+        <v>448</v>
+      </c>
+      <c r="E71" s="32"/>
       <c r="F71" s="22"/>
       <c r="G71" s="22"/>
       <c r="H71" s="22"/>
-      <c r="J71" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="K71" s="14" t="s">
-        <v>453</v>
-      </c>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
       <c r="L71" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="M71" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="N71" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="O71" s="14"/>
-      <c r="P71" s="14"/>
+        <v>436</v>
+      </c>
+      <c r="M71" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="O71" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="P71" s="19" t="s">
+        <v>463</v>
+      </c>
       <c r="Q71" s="14"/>
       <c r="R71" s="14"/>
-      <c r="S71" s="29"/>
+      <c r="S71" s="14"/>
       <c r="T71" s="14"/>
-      <c r="U71" s="14"/>
+      <c r="U71" s="27"/>
       <c r="V71" s="14"/>
-    </row>
-    <row r="72" spans="1:22">
+      <c r="W71" s="14"/>
+      <c r="X71" s="14"/>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" s="8" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="M72" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="N72" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="O72" s="5" t="s">
-        <v>484</v>
+        <v>465</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="O72" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="P72" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q72" s="5" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -7360,226 +7709,246 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" customWidth="1"/>
-    <col min="5" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.33203125" customWidth="1"/>
+    <col min="6" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="65.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D3" t="s">
+        <v>521</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="L3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" t="s">
+        <v>522</v>
+      </c>
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+      <c r="L4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L5" t="s">
         <v>303</v>
       </c>
-      <c r="H1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="E2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G2" t="s">
-        <v>304</v>
-      </c>
-      <c r="H2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I2" t="s">
-        <v>237</v>
-      </c>
-      <c r="J2" t="s">
-        <v>238</v>
-      </c>
-      <c r="K2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>443</v>
-      </c>
-      <c r="C4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" t="s">
-        <v>199</v>
-      </c>
-      <c r="K4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>443</v>
-      </c>
-      <c r="C5" t="s">
-        <v>197</v>
-      </c>
-      <c r="K5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>443</v>
-      </c>
-      <c r="C6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" t="s">
-        <v>232</v>
-      </c>
-      <c r="K6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>427</v>
+      </c>
+      <c r="D6" t="s">
+        <v>523</v>
+      </c>
+      <c r="H6" t="s">
+        <v>224</v>
+      </c>
+      <c r="L6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>438</v>
-      </c>
-      <c r="C7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="17" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="D7" t="s">
+        <v>525</v>
+      </c>
+      <c r="H7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="17" customFormat="1">
       <c r="A8" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8" s="17" t="s">
-        <v>278</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8"/>
       <c r="F8" s="17" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="J8" s="17" t="e">
+        <v>300</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="K8" s="17" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>328</v>
-      </c>
-      <c r="C9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>318</v>
+      </c>
+      <c r="D9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B10" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D11" t="s">
+        <v>449</v>
+      </c>
+      <c r="H11" t="s">
         <v>467</v>
       </c>
-      <c r="B10" t="s">
-        <v>472</v>
-      </c>
-      <c r="C10" t="s">
-        <v>469</v>
-      </c>
-      <c r="D10" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B11" t="s">
-        <v>471</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B12" t="s">
         <v>482</v>
       </c>
-      <c r="G11" t="s">
-        <v>485</v>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -7589,33 +7958,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>416</v>
+        <v>526</v>
       </c>
       <c r="B2" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -7625,288 +7994,295 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.44140625" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="33.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.77734375" style="32"/>
+    <col min="23" max="23" width="33.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="29" t="s">
-        <v>236</v>
+      <c r="A1" s="27" t="s">
+        <v>227</v>
       </c>
       <c r="B1" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C1" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="D1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="H1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>243</v>
+      </c>
+      <c r="R1" t="s">
+        <v>253</v>
+      </c>
+      <c r="S1" t="s">
         <v>254</v>
       </c>
-      <c r="I1" t="s">
-        <v>255</v>
-      </c>
-      <c r="J1" t="s">
-        <v>385</v>
-      </c>
-      <c r="K1" t="s">
-        <v>249</v>
-      </c>
-      <c r="L1" t="s">
-        <v>250</v>
-      </c>
-      <c r="M1" t="s">
-        <v>274</v>
-      </c>
-      <c r="N1" t="s">
-        <v>251</v>
-      </c>
-      <c r="O1" t="s">
-        <v>252</v>
-      </c>
-      <c r="P1" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>253</v>
-      </c>
-      <c r="R1" t="s">
-        <v>263</v>
-      </c>
-      <c r="S1" t="s">
-        <v>264</v>
-      </c>
       <c r="T1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="U1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="V1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="X1" s="32" t="s">
-        <v>334</v>
+        <v>328</v>
+      </c>
+      <c r="X1" s="30" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="D2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="F2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="H2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="I2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="J2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="K2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="L2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="M2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="N2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="O2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="P2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="Q2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="R2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="S2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="T2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="U2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="V2" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>339</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>336</v>
+        <v>329</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>326</v>
       </c>
       <c r="T4" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="V4" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="W4" s="11">
         <v>2012</v>
       </c>
-      <c r="X4" s="32" t="s">
-        <v>335</v>
+      <c r="X4" s="30" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="C5" s="31" t="s">
-        <v>388</v>
+      <c r="C5" s="29" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="R4" r:id="rId1"/>
-    <hyperlink ref="S4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="R4" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="S4" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="29" t="s">
-        <v>244</v>
+    <row r="1" spans="1:7">
+      <c r="A1" s="27" t="s">
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="D1" t="s">
-        <v>246</v>
+        <v>529</v>
+      </c>
+      <c r="C1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>235</v>
       </c>
       <c r="E1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>236</v>
+      </c>
+      <c r="F1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>528</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>527</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F2" t="s">
-        <v>359</v>
+        <v>344</v>
+      </c>
+      <c r="E2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G2" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -7917,29 +8293,41 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>493</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>494</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>492</v>
+        <v>185</v>
+      </c>
+      <c r="D1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F1" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -7949,44 +8337,45 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>496</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>497</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>498</v>
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/ongoing/ref_based_name_history_version_control.xlsx
+++ b/ongoing/ref_based_name_history_version_control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gsmai/Documents/GitHub/national-checklist/ongoing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{05E782FD-F9B2-644C-8641-5535777DDB11}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{390B60FC-077F-704B-B979-F5B8D8B96061}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,6 +46,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft JhengHei UI"/>
+            <charset val="136"/>
           </rPr>
           <t>Guan Shuo Mai:</t>
         </r>
@@ -54,6 +55,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft JhengHei UI"/>
+            <charset val="136"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="544">
   <si>
     <t>latin_genus</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -579,9 +581,6 @@
   </si>
   <si>
     <t>Kobayashi &amp; Chen, 2010: 180, pl. 45: 4</t>
-  </si>
-  <si>
-    <t>Kobayashi &amp; Chen, 2010: 180, pl. 45: 4</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -649,9 +648,6 @@
   </si>
   <si>
     <t>Trans. Ent. Soc. London, 1911: 286, pl. 30: 8</t>
-  </si>
-  <si>
-    <t>Trans. Ent. Soc. London, 1911: 286, pl. 30: 8</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -672,9 +668,6 @@
   </si>
   <si>
     <t>Entomol., 60: 53</t>
-  </si>
-  <si>
-    <t>Entomol., 60: 53</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -774,13 +767,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Schintlmeister and Fang, 2001: 18; Wu and Fang, 2003: 520</t>
-  </si>
-  <si>
     <t>Schintlmeister, 1992: 127; Schintlmeister, 1997: 113</t>
-  </si>
-  <si>
-    <t>Schintlmeister &amp; Pinratana, 2007: 176; Schintlmeister, 2008: 253, 254, fig. 1187, pl. 26: 431; Kobayashi, 2011: 2-007-21-24</t>
   </si>
   <si>
     <t>compilation_scoped_accepted_usage</t>
@@ -3048,6 +3035,50 @@
     <t>Fentonia variegata 家族</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>u1-8</t>
+  </si>
+  <si>
+    <t>Wu, 2015</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schintlmeister and Fang, 2001: 18; Wu and Fang, 2003: 520</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wu and Fang, 2003: 520</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>u1-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schintlmeister, 1997: 113</t>
+  </si>
+  <si>
+    <t>Schintlmeister &amp; Pinratana, 2007: 176; Schintlmeister, 2008: 253, 254, fig. 1187, pl. 26: 431; Kobayashi, 2011: 2-007-21-24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schintlmeister, 2008: 253, 254, fig. 1187, pl. 26: 431</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kobayashi, 2011: 2-007-21-24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig. 1187, pl. 26: 431?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pl. 45: 4</t>
+  </si>
+  <si>
+    <t>pl. 30: 8</t>
+  </si>
 </sst>
 </file>
 
@@ -3137,15 +3168,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft JhengHei UI"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft JhengHei UI"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3180,6 +3206,13 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei UI"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3210,7 +3243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3255,6 +3288,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3273,7 +3343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3403,13 +3473,13 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
@@ -3422,6 +3492,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3751,7 +3845,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -3787,10 +3881,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>38</v>
@@ -3799,10 +3893,10 @@
         <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -3826,7 +3920,7 @@
         <v>86</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>6</v>
@@ -3847,78 +3941,78 @@
         <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="B2" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="W2" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -4060,7 +4154,7 @@
         <v>42</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>43</v>
@@ -4103,7 +4197,7 @@
         <v>46</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>47</v>
@@ -4146,7 +4240,7 @@
         <v>49</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>50</v>
@@ -4350,18 +4444,18 @@
         <v>81</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" ht="16" thickBot="1">
       <c r="A15" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>68</v>
@@ -4381,21 +4475,21 @@
         <v>74</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="1" t="s">
-        <v>139</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="16" thickTop="1">
+      <c r="A16" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>68</v>
@@ -4424,12 +4518,12 @@
         <v>125</v>
       </c>
       <c r="O16" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="52" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>68</v>
@@ -4455,7 +4549,7 @@
         <v>123</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>128</v>
@@ -4466,8 +4560,8 @@
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="1" t="s">
-        <v>141</v>
+      <c r="A18" s="52" t="s">
+        <v>140</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>68</v>
@@ -4490,18 +4584,18 @@
         <v>123</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>129</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="43" customFormat="1">
-      <c r="A19" s="43" t="s">
-        <v>142</v>
+      <c r="A19" s="53" t="s">
+        <v>141</v>
       </c>
       <c r="D19" s="43" t="s">
         <v>68</v>
@@ -4524,18 +4618,18 @@
         <v>123</v>
       </c>
       <c r="J19" s="43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N19" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O19" s="45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="1" t="s">
-        <v>143</v>
+      <c r="A20" s="52" t="s">
+        <v>142</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>68</v>
@@ -4552,7 +4646,7 @@
         <v>(Wileman, 1910)</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>127</v>
@@ -4561,10 +4655,10 @@
         <v>123</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O20" s="6" t="e">
         <f>NA()</f>
@@ -4572,8 +4666,8 @@
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="1" t="s">
-        <v>144</v>
+      <c r="A21" s="52" t="s">
+        <v>143</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>68</v>
@@ -4596,13 +4690,13 @@
         <v>123</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>124</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O21" s="6" t="e">
         <f>NA()</f>
@@ -4610,8 +4704,8 @@
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="1" t="s">
-        <v>145</v>
+      <c r="A22" s="52" t="s">
+        <v>144</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>68</v>
@@ -4634,28 +4728,28 @@
         <v>123</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O22" s="6" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>124</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="1" t="s">
-        <v>146</v>
+      <c r="A23" s="52" t="s">
+        <v>145</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>68</v>
@@ -4675,21 +4769,21 @@
         <v>122</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>124</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="1" t="s">
-        <v>218</v>
+      <c r="A24" s="52" t="s">
+        <v>213</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>68</v>
@@ -4708,28 +4802,28 @@
         <v>122</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>124</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="1" t="s">
-        <v>152</v>
+      <c r="A25" s="52" t="s">
+        <v>150</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>68</v>
@@ -4749,21 +4843,21 @@
         <v>122</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="16" thickBot="1">
+      <c r="A26" s="54" t="s">
         <v>151</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>68</v>
@@ -4786,22 +4880,22 @@
         <v>123</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="O26" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" ht="16" thickTop="1">
       <c r="A27" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>69</v>
@@ -4818,30 +4912,30 @@
         <v>L.</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>87</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>69</v>
@@ -4858,30 +4952,30 @@
         <v>Buch.-Ham. apud Lamb.</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>69</v>
@@ -4898,30 +4992,30 @@
         <v>Buch.-Ham. ex D.Don</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="N29" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>69</v>
@@ -4938,30 +5032,30 @@
         <v>Lamb.</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>69</v>
@@ -4978,30 +5072,30 @@
         <v>(F. M. Bailey) Leenh. apud van Steenis</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>69</v>
@@ -5018,19 +5112,19 @@
         <v>(F.M. Bailey) Leenh. &amp; Steenis</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="N32" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -5069,48 +5163,48 @@
         <v>1</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" t="s">
         <v>276</v>
       </c>
-      <c r="G1" t="s">
-        <v>281</v>
-      </c>
       <c r="H1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="M1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -5124,8 +5218,10 @@
   <dimension ref="A1:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -5164,34 +5260,34 @@
         <v>24</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>25</v>
@@ -5203,31 +5299,31 @@
         <v>29</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="U1" t="s">
         <v>287</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="U1" t="s">
-        <v>292</v>
-      </c>
       <c r="V1" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="Y1" s="8" t="s">
         <v>99</v>
@@ -5235,72 +5331,72 @@
     </row>
     <row r="2" spans="1:25">
       <c r="D2" s="31" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>101</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="U2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="V2" s="24" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="W2" s="24" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="9" customFormat="1">
       <c r="A3" s="9" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>36</v>
@@ -5346,7 +5442,7 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>37</v>
@@ -5382,7 +5478,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>35</v>
@@ -5418,7 +5514,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>55</v>
@@ -5451,7 +5547,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>57</v>
@@ -5484,7 +5580,7 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>59</v>
@@ -5517,7 +5613,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>61</v>
@@ -5553,7 +5649,7 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>63</v>
@@ -5592,7 +5688,7 @@
     </row>
     <row r="11" spans="1:25" s="9" customFormat="1">
       <c r="A11" s="9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>88</v>
@@ -5609,7 +5705,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="13"/>
       <c r="L11" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>67</v>
@@ -5638,7 +5734,7 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>89</v>
@@ -5650,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>82</v>
@@ -5671,7 +5767,7 @@
     </row>
     <row r="13" spans="1:25" s="10" customFormat="1">
       <c r="A13" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>90</v>
@@ -5716,7 +5812,7 @@
     </row>
     <row r="14" spans="1:25" s="10" customFormat="1">
       <c r="A14" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>91</v>
@@ -5745,7 +5841,7 @@
         <v>namespace(自然保育季刊 No.98 JUN. 2017)</v>
       </c>
       <c r="P14" s="20" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -5761,7 +5857,7 @@
     </row>
     <row r="15" spans="1:25" s="10" customFormat="1">
       <c r="A15" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>92</v>
@@ -5777,7 +5873,7 @@
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
       <c r="L15" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>85</v>
@@ -5790,7 +5886,7 @@
         <v>namespace(自然保育季刊 No.98 JUN. 2017)</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -5806,13 +5902,13 @@
     </row>
     <row r="16" spans="1:25" s="9" customFormat="1">
       <c r="A16" s="9" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="32"/>
@@ -5825,20 +5921,20 @@
         <v>70</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="M16" s="14" t="s">
         <v>67</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="O16" s="19" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Kotaki, Kurabayashi, Matsui, Kuramoto, Djong and Sumida, 2010.)</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -5851,13 +5947,13 @@
     </row>
     <row r="17" spans="1:25" s="10" customFormat="1">
       <c r="A17" s="10" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="33"/>
@@ -5871,16 +5967,16 @@
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="K17" s="10" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="O17" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5898,10 +5994,10 @@
     </row>
     <row r="18" spans="1:25" s="9" customFormat="1">
       <c r="A18" s="9" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>88</v>
@@ -5910,7 +6006,7 @@
         <v>88</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="14"/>
@@ -5921,20 +6017,20 @@
         <v>70</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="M18" s="14" t="s">
         <v>67</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="O18" s="19" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Kotaki, Kurabayashi, Matsui, Kuramoto, Djong and Sumida, 2010.)</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
@@ -5947,17 +6043,17 @@
     </row>
     <row r="19" spans="1:25" s="10" customFormat="1" ht="16" thickBot="1">
       <c r="A19" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>88</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="12" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="23">
@@ -5969,16 +6065,16 @@
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="K19" s="10" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="O19" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5996,7 +6092,7 @@
     </row>
     <row r="20" spans="1:25" s="27" customFormat="1" ht="16" thickTop="1">
       <c r="A20" s="46" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>102</v>
@@ -6008,7 +6104,7 @@
         <v>104</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N20" s="27" t="s">
         <v>112</v>
@@ -6018,15 +6114,15 @@
         <v>namespace(Wu, 2015...)</v>
       </c>
       <c r="P20" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y20" s="27" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:25" customFormat="1">
       <c r="A21" s="47" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s">
         <v>108</v>
@@ -6034,17 +6130,17 @@
       <c r="C21" t="s">
         <v>102</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="25">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K21" t="s">
         <v>105</v>
       </c>
       <c r="M21" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N21" t="s">
         <v>112</v>
@@ -6054,15 +6150,15 @@
         <v>namespace(Wu, 2015...)</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>534</v>
       </c>
       <c r="Y21" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:25" customFormat="1">
       <c r="A22" s="47" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s">
         <v>109</v>
@@ -6070,17 +6166,17 @@
       <c r="C22" t="s">
         <v>102</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="25">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K22" t="s">
         <v>106</v>
       </c>
       <c r="M22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N22" t="s">
         <v>112</v>
@@ -6090,15 +6186,15 @@
         <v>namespace(Wu, 2015...)</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Y22" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:25" customFormat="1">
       <c r="A23" s="47" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B23" t="s">
         <v>110</v>
@@ -6106,14 +6202,14 @@
       <c r="C23" t="s">
         <v>102</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="25">
         <v>1</v>
       </c>
       <c r="K23" t="s">
         <v>107</v>
       </c>
       <c r="M23" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="N23" t="s">
         <v>112</v>
@@ -6126,12 +6222,12 @@
         <v>130</v>
       </c>
       <c r="Y23" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:25" customFormat="1">
       <c r="A24" s="47" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s">
         <v>111</v>
@@ -6139,14 +6235,14 @@
       <c r="C24" t="s">
         <v>102</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="25">
         <v>1</v>
       </c>
       <c r="K24" t="s">
         <v>103</v>
       </c>
       <c r="M24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N24" t="s">
         <v>112</v>
@@ -6156,15 +6252,15 @@
         <v>namespace(Wu, 2015...)</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>538</v>
       </c>
       <c r="Y24" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:25" customFormat="1">
       <c r="A25" s="47" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s">
         <v>116</v>
@@ -6172,14 +6268,14 @@
       <c r="C25" t="s">
         <v>102</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
         <v>113</v>
       </c>
       <c r="M25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N25" t="s">
         <v>112</v>
@@ -6192,12 +6288,12 @@
         <v>135</v>
       </c>
       <c r="Y25" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:25" customFormat="1">
       <c r="A26" s="47" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s">
         <v>117</v>
@@ -6205,14 +6301,14 @@
       <c r="C26" t="s">
         <v>102</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="25">
         <v>1</v>
       </c>
       <c r="K26" t="s">
         <v>114</v>
       </c>
       <c r="M26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N26" t="s">
         <v>112</v>
@@ -6222,15 +6318,15 @@
         <v>namespace(Wu, 2015...)</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y26" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:25" s="17" customFormat="1">
       <c r="A27" s="48" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>118</v>
@@ -6238,17 +6334,17 @@
       <c r="C27" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="50">
         <v>1</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>115</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N27" s="17" t="s">
         <v>112</v>
@@ -6258,21 +6354,21 @@
         <v>namespace(Wu, 2015...)</v>
       </c>
       <c r="P27" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S27" s="17" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="T27" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Y27" s="17" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:25" customFormat="1" ht="16" thickBot="1">
       <c r="A28" s="49" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s">
         <v>120</v>
@@ -6280,14 +6376,14 @@
       <c r="C28" t="s">
         <v>102</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="25">
         <v>1</v>
       </c>
       <c r="K28" t="s">
         <v>119</v>
       </c>
       <c r="M28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N28" t="s">
         <v>112</v>
@@ -6297,27 +6393,27 @@
         <v>namespace(Wu, 2015...)</v>
       </c>
       <c r="P28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S28" t="s">
         <v>121</v>
       </c>
       <c r="T28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y28" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:25" s="36" customFormat="1" ht="16" thickTop="1">
       <c r="A29" s="36" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
@@ -6327,10 +6423,10 @@
       <c r="I29" s="38"/>
       <c r="J29" s="38"/>
       <c r="K29" s="36" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M29" s="37" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N29" s="36" t="s">
         <v>65</v>
@@ -6340,7 +6436,7 @@
         <v>namespace(Tang, 2013...)</v>
       </c>
       <c r="P29" s="40" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="37"/>
       <c r="R29" s="37"/>
@@ -6353,22 +6449,22 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N30" s="8" t="s">
         <v>65</v>
@@ -6378,7 +6474,7 @@
         <v>namespace(Tang, 2013...)</v>
       </c>
       <c r="P30" s="18" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="V30" s="25"/>
       <c r="W30" s="25"/>
@@ -6386,19 +6482,19 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N31" s="8" t="s">
         <v>65</v>
@@ -6408,7 +6504,7 @@
         <v>namespace(Tang, 2013...)</v>
       </c>
       <c r="P31" s="18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="V31" s="25"/>
       <c r="W31" s="25"/>
@@ -6416,19 +6512,19 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>65</v>
@@ -6438,7 +6534,7 @@
         <v>namespace(Tang, 2013...)</v>
       </c>
       <c r="P32" s="18" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q32" s="5" t="s">
         <v>31</v>
@@ -6450,22 +6546,22 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N33" s="8" t="s">
         <v>65</v>
@@ -6475,7 +6571,7 @@
         <v>namespace(Tang, 2013...)</v>
       </c>
       <c r="P33" s="18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="R33"/>
       <c r="V33" s="25"/>
@@ -6484,22 +6580,22 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>65</v>
@@ -6509,7 +6605,7 @@
         <v>namespace(Tang, 2013...)</v>
       </c>
       <c r="P34" s="18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R34"/>
       <c r="V34" s="25"/>
@@ -6518,19 +6614,19 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N35" s="8" t="s">
         <v>65</v>
@@ -6540,7 +6636,7 @@
         <v>namespace(Tang, 2013...)</v>
       </c>
       <c r="P35" s="18" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Q35" s="5" t="s">
         <v>31</v>
@@ -6552,22 +6648,22 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N36" s="8" t="s">
         <v>65</v>
@@ -6583,13 +6679,13 @@
     </row>
     <row r="37" spans="1:25" s="9" customFormat="1">
       <c r="A37" s="9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="32"/>
@@ -6599,10 +6695,10 @@
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N37" s="9" t="s">
         <v>65</v>
@@ -6612,7 +6708,7 @@
         <v>namespace(Tang, 2013...)</v>
       </c>
       <c r="P37" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
@@ -6625,19 +6721,19 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N38" s="8" t="s">
         <v>65</v>
@@ -6647,24 +6743,24 @@
         <v>namespace(Tang, 2013...)</v>
       </c>
       <c r="P38" s="18" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N39" s="8" t="s">
         <v>65</v>
@@ -6679,22 +6775,22 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N40" s="8" t="s">
         <v>65</v>
@@ -6706,19 +6802,19 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N41" s="8" t="s">
         <v>65</v>
@@ -6728,24 +6824,24 @@
         <v>namespace(Tang, 2013...)</v>
       </c>
       <c r="P41" s="18" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N42" s="8" t="s">
         <v>65</v>
@@ -6755,7 +6851,7 @@
         <v>namespace(Tang, 2013...)</v>
       </c>
       <c r="P42" s="18" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q42" s="5" t="s">
         <v>31</v>
@@ -6763,13 +6859,13 @@
     </row>
     <row r="43" spans="1:25" s="9" customFormat="1">
       <c r="A43" s="9" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="32"/>
@@ -6779,23 +6875,23 @@
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="9" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M43" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="N43" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="N43" s="9" t="s">
-        <v>374</v>
       </c>
       <c r="O43" s="19" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Djong, Matsui, Kuramoto, Nishioka, and Sumida, Zool. Sci. 28:922-929)</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
@@ -6808,40 +6904,40 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="O44" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Djong, Matsui, Kuramoto, Nishioka, and Sumida, Zool. Sci. 28:922-929)</v>
       </c>
       <c r="P44" s="18" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:25" s="9" customFormat="1">
       <c r="A45" s="9" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="32"/>
@@ -6851,20 +6947,20 @@
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="L45" s="9" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="O45" s="19" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Dubois and Ohler, 2000)</v>
       </c>
       <c r="P45" s="19" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
@@ -6875,18 +6971,18 @@
       <c r="W45" s="14"/>
       <c r="X45" s="14"/>
       <c r="Y45" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:25" s="16" customFormat="1">
       <c r="A46" s="16" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="34"/>
@@ -6896,20 +6992,20 @@
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
       <c r="K46" s="16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M46" s="15" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="N46" s="16" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="O46" s="21" t="str">
         <f>CONCATENATE("namespace(", N46, ")")</f>
         <v>namespace(ICBN-1997-09-25)</v>
       </c>
       <c r="P46" s="16" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
@@ -6922,13 +7018,13 @@
     </row>
     <row r="47" spans="1:25" s="9" customFormat="1">
       <c r="A47" s="9" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="32"/>
@@ -6938,20 +7034,20 @@
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" s="9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O47" s="19" t="str">
         <f>CONCATENATE("namespace(", N47, ")")</f>
         <v>namespace(國立台灣大學植物標本館 (2012)，台灣植物資訊整合查詢系統，http://tai2.ntu.edu.tw。)</v>
       </c>
       <c r="P47" s="19" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
@@ -6962,34 +7058,34 @@
       <c r="W47" s="14"/>
       <c r="X47" s="14"/>
       <c r="Y47" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M48" s="25" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O48" s="18" t="str">
         <f>CONCATENATE("namespace(", N48, ")")</f>
         <v>namespace(國立台灣大學植物標本館 (2012)，台灣植物資訊整合查詢系統，http://tai2.ntu.edu.tw。)</v>
       </c>
       <c r="P48" s="18" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="Q48" s="5" t="s">
         <v>31</v>
@@ -6997,18 +7093,18 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:24" s="9" customFormat="1">
       <c r="A53" s="9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="32"/>
@@ -7018,19 +7114,19 @@
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
       <c r="K53" s="9" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O53" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="P53" s="19" t="s">
         <v>428</v>
-      </c>
-      <c r="P53" s="19" t="s">
-        <v>433</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="14"/>
@@ -7043,13 +7139,13 @@
     </row>
     <row r="54" spans="1:24" s="9" customFormat="1">
       <c r="A54" s="9" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="32"/>
@@ -7059,19 +7155,19 @@
       <c r="I54" s="22"/>
       <c r="J54" s="22"/>
       <c r="K54" s="9" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="O54" s="19" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="P54" s="19" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="Q54" s="14"/>
       <c r="R54" s="14"/>
@@ -7084,13 +7180,13 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>439</v>
-      </c>
       <c r="C55" s="4" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G55" s="4">
         <v>1</v>
@@ -7099,27 +7195,27 @@
         <v>1</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="O55" s="18" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="56" spans="1:24" s="9" customFormat="1">
       <c r="A56" s="9" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D56" s="22"/>
       <c r="E56" s="32"/>
@@ -7129,19 +7225,19 @@
       <c r="I56" s="22"/>
       <c r="J56" s="22"/>
       <c r="K56" s="9" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="N56" s="9" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="O56" s="19" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="P56" s="19" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="Q56" s="14"/>
       <c r="R56" s="14"/>
@@ -7154,13 +7250,13 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G57" s="4">
         <v>1</v>
@@ -7169,30 +7265,30 @@
         <v>1</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="O57" s="18" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="P57" s="18" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="58" spans="1:24" s="9" customFormat="1">
       <c r="A58" s="9" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="32"/>
@@ -7202,19 +7298,19 @@
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
       <c r="K58" s="9" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="O58" s="19" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="P58" s="19" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q58" s="14"/>
       <c r="R58" s="14"/>
@@ -7227,13 +7323,13 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="8" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G59" s="4">
         <v>1</v>
@@ -7242,30 +7338,30 @@
         <v>1</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="O59" s="18" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="P59" s="18" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" spans="1:24" s="9" customFormat="1">
       <c r="A60" s="9" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D60" s="22"/>
       <c r="E60" s="32"/>
@@ -7275,19 +7371,19 @@
       <c r="I60" s="22"/>
       <c r="J60" s="22"/>
       <c r="K60" s="9" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="O60" s="19" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="P60" s="19" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q60" s="14"/>
       <c r="R60" s="14"/>
@@ -7300,13 +7396,13 @@
     </row>
     <row r="61" spans="1:24" s="9" customFormat="1">
       <c r="A61" s="9" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D61" s="22"/>
       <c r="E61" s="32"/>
@@ -7316,19 +7412,19 @@
       <c r="I61" s="22"/>
       <c r="J61" s="22"/>
       <c r="K61" s="9" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="O61" s="19" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="P61" s="19" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q61" s="14"/>
       <c r="R61" s="14"/>
@@ -7341,42 +7437,42 @@
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="8" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G62" s="4">
         <v>1</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="M62" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="N62" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="N62" s="8" t="s">
-        <v>449</v>
-      </c>
       <c r="O62" s="18" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="P62" s="18" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63" spans="1:24" s="9" customFormat="1">
       <c r="A63" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D63" s="22"/>
       <c r="E63" s="32"/>
@@ -7386,19 +7482,19 @@
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
       <c r="L63" s="9" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="N63" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O63" s="19" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="P63" s="19" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="Q63" s="14"/>
       <c r="R63" s="14"/>
@@ -7411,47 +7507,47 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="L64" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="M64" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="O64" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="P64" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q64" s="5" t="s">
         <v>461</v>
-      </c>
-      <c r="L64" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="M64" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="N64" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="O64" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="P64" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q64" s="5" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:24">
       <c r="A65" s="8" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66" spans="1:24" s="9" customFormat="1">
       <c r="A66" s="9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D66" s="22"/>
       <c r="E66" s="32"/>
@@ -7461,19 +7557,19 @@
       <c r="I66" s="22"/>
       <c r="J66" s="22"/>
       <c r="K66" s="9" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="O66" s="19" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="P66" s="19" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="Q66" s="14"/>
       <c r="R66" s="14"/>
@@ -7486,13 +7582,13 @@
     </row>
     <row r="67" spans="1:24">
       <c r="A67" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G67" s="4">
         <v>1</v>
@@ -7501,33 +7597,33 @@
         <v>1</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="O67" s="18" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="P67" s="18" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="68" spans="1:24" s="9" customFormat="1">
       <c r="A68" s="9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E68" s="32"/>
       <c r="F68" s="22"/>
@@ -7536,19 +7632,19 @@
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
       <c r="K68" s="9" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="O68" s="19" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="P68" s="19" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q68" s="14"/>
       <c r="R68" s="14"/>
@@ -7561,13 +7657,13 @@
     </row>
     <row r="69" spans="1:24" s="9" customFormat="1">
       <c r="A69" s="9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="32"/>
@@ -7577,19 +7673,19 @@
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
       <c r="K69" s="9" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M69" s="14" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="N69" s="9" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="O69" s="19" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="P69" s="19" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q69" s="14"/>
       <c r="R69" s="14"/>
@@ -7602,45 +7698,45 @@
     </row>
     <row r="70" spans="1:24">
       <c r="A70" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G70" s="4">
         <v>1</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="M70" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="N70" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="N70" s="8" t="s">
-        <v>449</v>
-      </c>
       <c r="O70" s="18" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="P70" s="18" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="71" spans="1:24" s="9" customFormat="1">
       <c r="A71" s="9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E71" s="32"/>
       <c r="F71" s="22"/>
@@ -7649,19 +7745,19 @@
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
       <c r="L71" s="9" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M71" s="14" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O71" s="19" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="P71" s="19" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="Q71" s="14"/>
       <c r="R71" s="14"/>
@@ -7674,31 +7770,31 @@
     </row>
     <row r="72" spans="1:24">
       <c r="A72" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C72" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="O72" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="P72" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q72" s="5" t="s">
         <v>461</v>
-      </c>
-      <c r="L72" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="M72" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="N72" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="O72" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="P72" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q72" s="5" t="s">
-        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -7710,10 +7806,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -7732,224 +7828,537 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="27" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" t="s">
         <v>293</v>
-      </c>
-      <c r="I1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L2" t="s">
         <v>294</v>
-      </c>
-      <c r="I2" t="s">
-        <v>307</v>
-      </c>
-      <c r="J2" t="s">
-        <v>228</v>
-      </c>
-      <c r="K2" t="s">
-        <v>229</v>
-      </c>
-      <c r="L2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>413</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="C3" s="25"/>
       <c r="D3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>427</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="C4" s="25"/>
       <c r="D4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>427</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="C5" s="25"/>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>427</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="C6" s="25"/>
       <c r="D6" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="H6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>422</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C7" s="25"/>
       <c r="D7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="17" customFormat="1">
       <c r="A8" s="17" t="s">
-        <v>255</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C8" s="50"/>
       <c r="D8" s="16" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E8"/>
       <c r="F8" s="17" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K8" s="17" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>318</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C9" s="25"/>
       <c r="D9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="11" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B10" t="s">
-        <v>454</v>
-      </c>
-      <c r="C10">
+        <v>449</v>
+      </c>
+      <c r="C10" s="25">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" t="s">
+        <v>444</v>
+      </c>
+      <c r="H11" t="s">
         <v>462</v>
-      </c>
-      <c r="B11" t="s">
-        <v>454</v>
-      </c>
-      <c r="D11" t="s">
-        <v>449</v>
-      </c>
-      <c r="H11" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B12" t="s">
-        <v>482</v>
-      </c>
-      <c r="C12">
+        <v>477</v>
+      </c>
+      <c r="C12" s="25">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>484</v>
-      </c>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="25">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="56" t="s">
+        <v>536</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" t="s">
+        <v>539</v>
+      </c>
+      <c r="H21" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="57" t="s">
+        <v>532</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="C27" s="25"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="C28" s="25"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="C30" s="25"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="C32" s="25"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="25"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="25"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="25"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="25"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="25"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="25"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="25"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="25"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="25"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="25"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="25"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="25"/>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="25"/>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="25"/>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="25"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="25"/>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="25"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="25"/>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="25"/>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="25"/>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="25"/>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="25"/>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="25"/>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="25"/>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="25"/>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="25"/>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="25"/>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="25"/>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="25"/>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="25"/>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="25"/>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="25"/>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="25"/>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="25"/>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="25"/>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="25"/>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="25"/>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="25"/>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="25"/>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="25"/>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="25"/>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -7976,15 +8385,15 @@
         <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -8031,152 +8440,152 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="27" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" t="s">
+        <v>367</v>
+      </c>
+      <c r="K1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O1" t="s">
         <v>237</v>
       </c>
-      <c r="E1" t="s">
+      <c r="P1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q1" t="s">
         <v>238</v>
       </c>
-      <c r="F1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I1" t="s">
-        <v>245</v>
-      </c>
-      <c r="J1" t="s">
-        <v>372</v>
-      </c>
-      <c r="K1" t="s">
-        <v>239</v>
-      </c>
-      <c r="L1" t="s">
-        <v>240</v>
-      </c>
-      <c r="M1" t="s">
-        <v>264</v>
-      </c>
-      <c r="N1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O1" t="s">
-        <v>242</v>
-      </c>
-      <c r="P1" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>243</v>
-      </c>
       <c r="R1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="T1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="U1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="V1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="X1" s="30" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J2" t="s">
+        <v>368</v>
+      </c>
+      <c r="K2" t="s">
+        <v>346</v>
+      </c>
+      <c r="L2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M2" t="s">
+        <v>260</v>
+      </c>
+      <c r="N2" t="s">
+        <v>228</v>
+      </c>
+      <c r="O2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>347</v>
+      </c>
+      <c r="R2" t="s">
+        <v>247</v>
+      </c>
+      <c r="S2" t="s">
+        <v>246</v>
+      </c>
+      <c r="T2" t="s">
         <v>348</v>
       </c>
-      <c r="B2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="U2" t="s">
+        <v>258</v>
+      </c>
+      <c r="V2" t="s">
         <v>349</v>
       </c>
-      <c r="E2" t="s">
+      <c r="W2" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="F2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I2" t="s">
-        <v>249</v>
-      </c>
-      <c r="J2" t="s">
-        <v>373</v>
-      </c>
-      <c r="K2" t="s">
-        <v>351</v>
-      </c>
-      <c r="L2" t="s">
-        <v>231</v>
-      </c>
-      <c r="M2" t="s">
-        <v>265</v>
-      </c>
-      <c r="N2" t="s">
-        <v>233</v>
-      </c>
-      <c r="O2" t="s">
-        <v>230</v>
-      </c>
-      <c r="P2" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>352</v>
-      </c>
-      <c r="R2" t="s">
-        <v>252</v>
-      </c>
-      <c r="S2" t="s">
-        <v>251</v>
-      </c>
-      <c r="T2" t="s">
-        <v>353</v>
-      </c>
-      <c r="U2" t="s">
-        <v>263</v>
-      </c>
-      <c r="V2" t="s">
-        <v>354</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K3" t="s">
         <v>69</v>
@@ -8184,33 +8593,33 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="R4" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="S4" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="S4" s="29" t="s">
-        <v>326</v>
-      </c>
       <c r="T4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="V4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="W4" s="11">
         <v>2012</v>
       </c>
       <c r="X4" s="30" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="C5" s="29" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -8244,45 +8653,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="27" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -8318,16 +8727,16 @@
         <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -8363,19 +8772,19 @@
         <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/ongoing/ref_based_name_history_version_control.xlsx
+++ b/ongoing/ref_based_name_history_version_control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gsmai/Documents/GitHub/national-checklist/ongoing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B18A3D38-F43F-4E4A-982C-18291420F092}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AD563BA2-C8E9-5349-ADBC-7F7BE6895D27}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33580" windowHeight="19640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33580" windowHeight="19500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SciNameAuthors" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft JhengHei UI"/>
-            <charset val="136"/>
           </rPr>
           <t>Guan Shuo Mai:</t>
         </r>
@@ -56,7 +55,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft JhengHei UI"/>
-            <charset val="136"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -78,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="1002">
   <si>
     <t>latin_genus</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1212,14 +1210,6 @@
   </si>
   <si>
     <t>as_complex_or_agg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>usage_coverage_description_or_nature_of_the_alternation</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>alternation 參考 ICBN Recommendation 47A, usage coverage 則外加 quoad 之類的東西</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1654,324 +1644,6 @@
   </si>
   <si>
     <t>如是因作者表示法的差異 (例如 L. 與 Linn., 或 Nakai 與 Nakai ex Honda) 而採用了不同sciname_id，但仍應被視為相同學名者，在此以另一id表示之</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">e.g. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>confer (cf.);</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">affinis </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>aff.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ex aff</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">); </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>proxima;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sp </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>incerta;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>indet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ex grege </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gr.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ex gr. or of group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">); </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stetit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sp. inq.; sp dob.; incertae sedis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>...etc.</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3828,6 +3500,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="新細明體 (本文)"/>
+        <charset val="136"/>
       </rPr>
       <t>ü</t>
     </r>
@@ -4510,12 +4183,759 @@
     <t>Daphniphyllum nilgherrense (Wight) Rosenth.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>namespace(Wu et al., 2014)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monema</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rubriceps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Matsumura, 1931)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flavescens</t>
+  </si>
+  <si>
+    <t>flavescens</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walker, 1855</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>namespace(dearlep, 2018)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>udearlep01_0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dearlep01_0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dearlep02_0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wu et al., 2014</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monema rubriceps (Matsumura, 1931), stat. rev. (Figs 5-10, 15-17)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>a bona species endemic to Taiwan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>udearlep01_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dearlep01_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cnidocampa</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matsumura, 1931</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insecta Matsum.: 105</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dearlep01_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hering, 1931: 691</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pan et al., 2013: 29</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dearlep01_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cnidocampa rubriceps Matsumura, 1931, Insecta Matsum.: 105.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insecta Matsum.: 105.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>udearlep01_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monema rubriceps: Hering, 1931: 691; Inoue, 1992: 101; Slovyev &amp; Witt, 2009: 108.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hering, 1931: 691; Inoue, 1992: 101; Slovyev &amp; Witt, 2009: 108.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>udearlep01_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monema flavescens: Chang, 1989: 155, nec Walker, 1855</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>nec</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chang, 1989: 155</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>udearlep01_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monema flavescens rubriceps: Pan et al., 2013: 29, fig. 10.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pan et al., 2013: 29, fig. 10.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>udearlep02_0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monema flavescens Walker, 1855</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig. 10.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>upan01_0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monema flavescens Walker, 1855: 1112, fig. 1c. Type locality: North China.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pan et al., 2013</t>
+  </si>
+  <si>
+    <t>Pan et al., 2013</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>namespace(Pan et al., 2013)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walker, 1855: 1112, fig. 1c.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>North China</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig. 1c.</t>
+  </si>
+  <si>
+    <t>nature_of_the_alternation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">參考 ICBN Recommendation 47A, </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考 ICBN Recommendation 47A, 外加 quoad 之類的東西</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>usage_coverage_description</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan01_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan02_0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miresa</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seitz, 1913: 344</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan01_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cai, 1981: 99</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan01_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>johanibergmani</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bryk, 1948</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bryk, 1948: 219.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>melli</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hering, 1931</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan01_4</t>
+  </si>
+  <si>
+    <t>pan01_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan01_5</t>
+  </si>
+  <si>
+    <t>pan01_5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan01_6</t>
+  </si>
+  <si>
+    <t>pan01_6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>nigrans</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>de Joannis, 1901</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>de Joannis, 1901: 251.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solovyev and Witt 2009: 108.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Walker, 1855)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>upan01_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miresa flavescens (Walker): Seitz, 1913: 344, fig. 50c.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seitz, 1913: 344, fig. 50c.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig. 50c.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cnidocampa flavescens (Walker): Cai, 1981: 99.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cnidocampa johanibergmani Bryk, 1948: 219.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bryk, 1948: 219</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>upan01_2</t>
+  </si>
+  <si>
+    <t>upan01_3</t>
+  </si>
+  <si>
+    <t>upan01_4</t>
+  </si>
+  <si>
+    <t>upan01_5</t>
+  </si>
+  <si>
+    <t>upan01_6</t>
+  </si>
+  <si>
+    <t>Monema melli Hering, 1931: 691, fig. 87i. Type locality: Guangdong, China. syn. n.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hering, 1931: 691, fig. 87i.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guangdong, China</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>upan01_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>syn_nov</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig. 87i.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monema flavescens var. nigrans de Joannis, 1901: 251.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monema nigrans de Joannis: Solovyev and Witt 2009: 108.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>upan02_0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monema flavescens flavescens Walker, 1855</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>upan02_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monema flavescens Walker, 1855: 1112, fig. 1c</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>upan03_0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monema flavescens rubriceps (Matsumura, 1931) stat. n.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>upan03_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cnidocampa rubriceps Matsumura, 1931: 105. Type locality: Taiwan, China.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matsumura, 1931: 105.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taiwan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>upan03_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monema rubriceps (Matsumura): Hering, 1931: 691.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mf</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>upan01_01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>confer (cf.);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">near; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">affinis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aff.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ex aff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proxima;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sp </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>incerta;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ex grege </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gr.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ex gr. or of group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stetit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp. inq.; sp dob.; incertae sedis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>...etc.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4632,17 +5052,10 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft JhengHei UI"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft JhengHei UI"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4655,6 +5068,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體 (本文)"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei UI"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -5341,10 +5769,10 @@
         <v>272</v>
       </c>
       <c r="L1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5352,7 +5780,7 @@
         <v>279</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -5391,16 +5819,16 @@
         <v>180</v>
       </c>
       <c r="D1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1" t="s">
         <v>472</v>
-      </c>
-      <c r="E1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G1" t="s">
-        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -5412,13 +5840,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X84"/>
+  <dimension ref="A1:X96"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -5455,10 +5883,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>38</v>
@@ -5473,7 +5901,7 @@
         <v>177</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -5497,7 +5925,7 @@
         <v>86</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>6</v>
@@ -5526,10 +5954,10 @@
     </row>
     <row r="2" spans="1:24">
       <c r="B2" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>164</v>
@@ -5541,19 +5969,19 @@
         <v>208</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>167</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>168</v>
@@ -5565,10 +5993,10 @@
         <v>176</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>170</v>
@@ -5577,7 +6005,7 @@
         <v>171</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>172</v>
@@ -5589,7 +6017,7 @@
         <v>174</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -5597,7 +6025,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>69</v>
@@ -6072,10 +6500,10 @@
         <v>81</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>85</v>
@@ -6083,7 +6511,7 @@
     </row>
     <row r="15" spans="1:24" ht="16" thickBot="1">
       <c r="A15" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>68</v>
@@ -6107,16 +6535,16 @@
         <v>74</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="16" thickTop="1">
@@ -6610,13 +7038,13 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>69</v>
@@ -6637,30 +7065,30 @@
         <v>Juniperus squamata</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="P28" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>69</v>
@@ -6681,30 +7109,30 @@
         <v>Juniperus squamata</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="P29" s="5" t="s">
         <v>491</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>69</v>
@@ -6725,30 +7153,30 @@
         <v>Juniperus squamata</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="P30" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>69</v>
@@ -6769,30 +7197,30 @@
         <v>Protium macgregorii</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="P31" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>69</v>
@@ -6813,24 +7241,24 @@
         <v>Protium macgregori</v>
       </c>
       <c r="I32" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="P32" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -6856,13 +7284,13 @@
         <v>11</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="P33" s="4" t="str">
         <f>IF(E33=1, A33, "")</f>
@@ -6871,7 +7299,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -6897,13 +7325,13 @@
         <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="P34" s="4" t="str">
         <f t="shared" ref="P34:P42" si="5">IF(E34=1, A34, "")</f>
@@ -6912,7 +7340,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -6938,13 +7366,13 @@
         <v>11</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="P35" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6953,7 +7381,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -6979,13 +7407,13 @@
         <v>11</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="P36" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6994,7 +7422,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -7020,13 +7448,13 @@
         <v>11</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="P37" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7035,7 +7463,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -7061,13 +7489,13 @@
         <v>11</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="P38" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7076,7 +7504,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -7102,13 +7530,13 @@
         <v>11</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="P39" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7117,7 +7545,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -7143,13 +7571,13 @@
         <v>11</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="P40" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7158,7 +7586,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -7184,13 +7612,13 @@
         <v>11</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="P41" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7199,7 +7627,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -7231,7 +7659,7 @@
         <v>23</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="P42" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7240,7 +7668,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -7278,15 +7706,15 @@
         <v>159</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -7318,24 +7746,24 @@
         <v>23</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>159</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -7367,24 +7795,24 @@
         <v>23</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>159</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -7410,13 +7838,13 @@
         <v>11</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="P46" s="4" t="str">
         <f>IF(E46=1, A46, "")</f>
@@ -7425,10 +7853,10 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -7455,13 +7883,13 @@
         <v>11</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="P47" s="4" t="str">
         <f>IF(E47=1, A47, "")</f>
@@ -7470,7 +7898,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -7496,13 +7924,13 @@
         <v>11</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="P48" s="4" t="str">
         <f>IF(E48=1, A48, "")</f>
@@ -7511,7 +7939,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -7537,13 +7965,13 @@
         <v>11</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="P49" s="4" t="str">
         <f>IF(E49=1, A49, "")</f>
@@ -7552,7 +7980,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -7578,13 +8006,13 @@
         <v>11</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="P50" s="4" t="str">
         <f>IF(E50=1, A50, "")</f>
@@ -7593,10 +8021,10 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="1" t="s">
@@ -7636,7 +8064,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -7677,15 +8105,15 @@
         <v>159</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -7718,24 +8146,24 @@
         <v>13</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>159</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -7761,13 +8189,13 @@
         <v>11</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="P54" s="4" t="str">
         <f>IF(E54=1, A54, "")</f>
@@ -7776,7 +8204,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -7802,13 +8230,13 @@
         <v>11</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P55" s="4" t="str">
         <f>IF(E55=1, A55, "")</f>
@@ -7817,10 +8245,10 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -7847,25 +8275,25 @@
         <v>11</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="P56" s="4" t="str">
-        <f t="shared" ref="P56:P58" si="9">IF(E56=1, A56, "")</f>
+        <f t="shared" ref="P56" si="9">IF(E56=1, A56, "")</f>
         <v>tang19_0</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -7892,27 +8320,27 @@
         <v>11</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>159</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -7939,30 +8367,30 @@
         <v>11</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>159</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -7988,22 +8416,22 @@
         <v>11</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="P59" s="4" t="str">
-        <f>IF(E59=1, A59, "")</f>
+        <f t="shared" ref="P59:P69" si="10">IF(E59=1, A59, "")</f>
         <v>tang20_0</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -8029,22 +8457,22 @@
         <v>11</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="P60" s="4" t="str">
-        <f>IF(E60=1, A60, "")</f>
+        <f t="shared" si="10"/>
         <v>tang21_0</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -8070,22 +8498,22 @@
         <v>11</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="P61" s="4" t="str">
-        <f>IF(E61=1, A61, "")</f>
+        <f t="shared" si="10"/>
         <v>tang22_0</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -8111,22 +8539,22 @@
         <v>11</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="P62" s="4" t="str">
-        <f>IF(E62=1, A62, "")</f>
+        <f t="shared" si="10"/>
         <v>tang23_0</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -8152,22 +8580,22 @@
         <v>11</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="P63" s="4" t="str">
-        <f>IF(E63=1, A63, "")</f>
+        <f t="shared" si="10"/>
         <v>tang24_0</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -8193,22 +8621,22 @@
         <v>11</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="P64" s="4" t="str">
-        <f>IF(E64=1, A64, "")</f>
+        <f t="shared" si="10"/>
         <v>tang25_0</v>
       </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -8234,22 +8662,22 @@
         <v>11</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="P65" s="4" t="str">
-        <f>IF(E65=1, A65, "")</f>
+        <f t="shared" si="10"/>
         <v>tang26_0</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -8275,22 +8703,22 @@
         <v>11</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="P66" s="4" t="str">
-        <f>IF(E66=1, A66, "")</f>
+        <f t="shared" si="10"/>
         <v>tang27_0</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -8316,25 +8744,25 @@
         <v>11</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="P67" s="4" t="str">
-        <f>IF(E67=1, A67, "")</f>
+        <f t="shared" si="10"/>
         <v>tang28_0</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C68" s="2">
         <v>2</v>
@@ -8350,33 +8778,33 @@
         <v>0</v>
       </c>
       <c r="G68" s="2" t="str">
-        <f t="shared" ref="G68:G84" si="10">IF(U68="", IF(R68="", IF(M68="", IF(K68="", "", K68), M68), R68), U68)</f>
+        <f t="shared" ref="G68:G95" si="11">IF(U68="", IF(R68="", IF(M68="", IF(K68="", "", K68), M68), R68), U68)</f>
         <v>(Benth.) Müll. Arg.</v>
       </c>
       <c r="H68" s="2" t="str">
-        <f t="shared" ref="H68:H84" si="11">TRIM(I68 &amp; " " &amp; J68 &amp; " " &amp; L68 &amp; " " &amp; Q68&amp; " " &amp; T68)</f>
+        <f t="shared" ref="H68:H95" si="12">TRIM(I68 &amp; " " &amp; J68 &amp; " " &amp; L68 &amp; " " &amp; Q68&amp; " " &amp; T68)</f>
         <v>Daphniphyllum himalayense</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>11</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="P68" s="4" t="str">
-        <f>IF(E68=1, A68, "")</f>
+        <f t="shared" si="10"/>
         <v>rosenthal02_0</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C69" s="2">
         <v>2</v>
@@ -8392,33 +8820,33 @@
         <v>0</v>
       </c>
       <c r="G69" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>(Wight) Rosenth.</v>
       </c>
       <c r="H69" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Daphniphyllum nilgherrense</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>11</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="P69" s="4" t="str">
-        <f>IF(E69=1, A69, "")</f>
+        <f t="shared" si="10"/>
         <v>rosenthal06_0</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C70" s="2">
         <v>2</v>
@@ -8434,38 +8862,38 @@
         <v>1</v>
       </c>
       <c r="G70" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>(Wight) Rosenth.</v>
       </c>
       <c r="H70" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Daphniphyllum nilgherrense nilgherrense</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>159</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C71" s="2">
         <v>2</v>
@@ -8481,35 +8909,35 @@
         <v>0</v>
       </c>
       <c r="G71" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>(Müll. Arg.) Rosenth.</v>
       </c>
       <c r="H71" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Daphniphyllum nilgherrense concolor</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>159</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>69</v>
@@ -8522,21 +8950,21 @@
         <v>0</v>
       </c>
       <c r="G72" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>(Hemsl.) Rosenth.</v>
       </c>
       <c r="H72" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Daphniphyllum oldhamii</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="P72" s="4" t="str">
         <f>IF(E72=1, A72, "")</f>
@@ -8545,7 +8973,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>69</v>
@@ -8558,21 +8986,21 @@
         <v>0</v>
       </c>
       <c r="G73" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Baill.</v>
       </c>
       <c r="H73" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Daphniphyllum roxburghii</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="P73" s="4" t="str">
         <f>IF(E73=1, A73, "")</f>
@@ -8581,10 +9009,10 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>69</v>
@@ -8597,11 +9025,11 @@
         <v>0</v>
       </c>
       <c r="G74" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Miq.</v>
       </c>
       <c r="H74" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Daphniphyllum macropodum</v>
       </c>
       <c r="I74" s="1" t="s">
@@ -8620,10 +9048,10 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C75" s="2">
         <v>2</v>
@@ -8639,11 +9067,11 @@
         <v>0</v>
       </c>
       <c r="G75" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>(Maxim.) Rosenth.</v>
       </c>
       <c r="H75" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Daphniphyllum macropodum humile</v>
       </c>
       <c r="I75" s="1" t="s">
@@ -8653,21 +9081,21 @@
         <v>12</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>159</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>69</v>
@@ -8680,33 +9108,33 @@
         <v>0</v>
       </c>
       <c r="G76" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Rosenth.</v>
       </c>
       <c r="H76" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Daphniphyllum bengalense</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="P76" s="4" t="str">
-        <f>IF(E76=1, A76, "")</f>
+        <f t="shared" ref="P76:P88" si="13">IF(E76=1, A76, "")</f>
         <v>rosenthal11_0</v>
       </c>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>69</v>
@@ -8719,30 +9147,30 @@
         <v>0</v>
       </c>
       <c r="G77" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Hook. f.</v>
       </c>
       <c r="H77" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Daphniphyllum kingii</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="P77" s="4" t="str">
-        <f>IF(E77=1, A77, "")</f>
+        <f t="shared" si="13"/>
         <v>rosenthal13_0</v>
       </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>69</v>
@@ -8755,33 +9183,33 @@
         <v>0</v>
       </c>
       <c r="G78" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Rosenth.</v>
       </c>
       <c r="H78" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Daphniphyllum latifolium</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="P78" s="4" t="str">
-        <f>IF(E78=1, A78, "")</f>
+        <f t="shared" si="13"/>
         <v>rosenthal15_0</v>
       </c>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>69</v>
@@ -8794,30 +9222,30 @@
         <v>0</v>
       </c>
       <c r="G79" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Kurz</v>
       </c>
       <c r="H79" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Daphniphyllum bancanum</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="P79" s="4" t="str">
-        <f>IF(E79=1, A79, "")</f>
+        <f t="shared" si="13"/>
         <v>rosenthal16_0</v>
       </c>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>69</v>
@@ -8830,172 +9258,649 @@
         <v>0</v>
       </c>
       <c r="G80" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>(Benth.) Müll. Arg.</v>
       </c>
       <c r="H80" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Daphniphyllum lancifolium</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="P80" s="4" t="str">
-        <f>IF(E80=1, A80, "")</f>
+        <f t="shared" si="13"/>
         <v>rosenthal17_0</v>
       </c>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <f t="shared" ref="E81:E84" si="12">COUNTA(J81,L81,Q81,T81)</f>
+        <f t="shared" ref="E81:E95" si="14">COUNTA(J81,L81,Q81,T81)</f>
         <v>1</v>
       </c>
       <c r="F81" s="2">
         <v>0</v>
       </c>
       <c r="G81" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Hance</v>
       </c>
       <c r="H81" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Daphniphyllum pierrei</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="P81" s="4" t="str">
-        <f>IF(E81=1, A81, "")</f>
+        <f t="shared" si="13"/>
         <v>rosenthal19_0</v>
       </c>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F82" s="2">
         <v>0</v>
       </c>
       <c r="G82" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Rosenth.</v>
       </c>
       <c r="H82" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Daphniphyllum paxianum</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="P82" s="4" t="str">
-        <f>IF(E82=1, A82, "")</f>
+        <f t="shared" si="13"/>
         <v>rosenthal20_0</v>
       </c>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F83" s="2">
         <v>0</v>
       </c>
       <c r="G83" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Rosenth.</v>
       </c>
       <c r="H83" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Daphniphyllum longeracemosum</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="P83" s="4" t="str">
-        <f>IF(E83=1, A83, "")</f>
+        <f t="shared" si="13"/>
         <v>rosenthal22_0</v>
       </c>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F84" s="2">
         <v>0</v>
       </c>
       <c r="G84" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Rosenth.</v>
       </c>
       <c r="H84" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Daphniphyllum gracile</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="P84" s="4" t="str">
-        <f>IF(E84=1, A84, "")</f>
+        <f t="shared" si="13"/>
         <v>rosenthal23_0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(Matsumura, 1931)</v>
+      </c>
+      <c r="H85" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Monema rubriceps</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="P85" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>dearlep01_0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Walker, 1855</v>
+      </c>
+      <c r="H86" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Monema flavescens</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="P86" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>dearlep02_0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Matsumura, 1931</v>
+      </c>
+      <c r="H87" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Cnidocampa rubriceps</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="P87" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>dearlep01_1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Walker, 1855</v>
+      </c>
+      <c r="H88" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Monema flavescens</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="P88" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>dearlep01_2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(Matsumura, 1931)</v>
+      </c>
+      <c r="H89" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Monema flavescens rubriceps</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="P89" s="5" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(Walker, 1855)</v>
+      </c>
+      <c r="H90" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Miresa flavescens</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="P90" s="4" t="str">
+        <f>IF(E90=1, A90, "")</f>
+        <v>pan01_1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(Walker, 1855)</v>
+      </c>
+      <c r="H91" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Cnidocampa flavescens</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="P91" s="4" t="str">
+        <f>IF(E91=1, A91, "")</f>
+        <v>pan01_2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Bryk, 1948</v>
+      </c>
+      <c r="H92" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Cnidocampa johanibergmani</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="P92" s="4" t="str">
+        <f>IF(E92=1, A92, "")</f>
+        <v>pan01_3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Hering, 1931</v>
+      </c>
+      <c r="H93" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Monema melli</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="P93" s="4" t="str">
+        <f t="shared" ref="P93:P95" si="15">IF(E93=1, A93, "")</f>
+        <v>pan01_4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+      <c r="G94" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>de Joannis, 1901</v>
+      </c>
+      <c r="H94" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Monema flavescens nigrans</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="P94" s="5" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>de Joannis, 1901</v>
+      </c>
+      <c r="H95" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Monema nigrans</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="P95" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>pan01_6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E96" s="2">
+        <f>COUNTA(J96,L96,Q96,T96)</f>
+        <v>2</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2" t="str">
+        <f>IF(U96="", IF(R96="", IF(M96="", IF(K96="", "", K96), M96), R96), U96)</f>
+        <v>Walker, 1855</v>
+      </c>
+      <c r="H96" s="2" t="str">
+        <f>TRIM(I96 &amp; " " &amp; J96 &amp; " " &amp; L96 &amp; " " &amp; Q96&amp; " " &amp; T96)</f>
+        <v>Monema flavescens flavescens</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="P96" s="5" t="s">
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -9008,13 +9913,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X142"/>
+  <dimension ref="A1:X160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G112" sqref="G112"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -9056,28 +9961,28 @@
         <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>181</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>25</v>
@@ -9092,7 +9997,7 @@
         <v>201</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>282</v>
@@ -9110,7 +10015,7 @@
         <v>266</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>267</v>
@@ -9121,46 +10026,46 @@
     </row>
     <row r="2" spans="1:24">
       <c r="D2" s="31" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>101</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>221</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>356</v>
+        <v>1001</v>
       </c>
       <c r="R2" s="11" t="s">
         <v>286</v>
@@ -9169,13 +10074,13 @@
         <v>285</v>
       </c>
       <c r="T2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="U2" s="24" t="s">
         <v>281</v>
       </c>
       <c r="V2" s="24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="W2" s="24" t="s">
         <v>268</v>
@@ -9183,7 +10088,7 @@
     </row>
     <row r="3" spans="1:24" s="9" customFormat="1">
       <c r="A3" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>36</v>
@@ -9228,7 +10133,7 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>37</v>
@@ -9264,7 +10169,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>35</v>
@@ -9300,7 +10205,7 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>55</v>
@@ -9333,7 +10238,7 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>57</v>
@@ -9366,7 +10271,7 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>59</v>
@@ -9399,7 +10304,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>61</v>
@@ -9435,7 +10340,7 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>63</v>
@@ -9624,7 +10529,7 @@
         <v>namespace(自然保育季刊 No.98 JUN. 2017)</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -9655,7 +10560,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="K15" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>85</v>
@@ -9668,7 +10573,7 @@
         <v>namespace(自然保育季刊 No.98 JUN. 2017)</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -9684,13 +10589,13 @@
     </row>
     <row r="16" spans="1:24" s="9" customFormat="1">
       <c r="A16" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="32"/>
@@ -9702,20 +10607,20 @@
         <v>70</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>67</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="N16" s="19" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Kotaki, Kurabayashi, Matsui, Kuramoto, Djong and Sumida, 2010.)</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -9728,13 +10633,13 @@
     </row>
     <row r="17" spans="1:24" s="10" customFormat="1">
       <c r="A17" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="33"/>
@@ -9747,16 +10652,16 @@
       </c>
       <c r="I17" s="23"/>
       <c r="J17" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="M17" s="10" t="s">
         <v>379</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>382</v>
       </c>
       <c r="N17" s="20" t="str">
         <f t="shared" si="0"/>
@@ -9777,7 +10682,7 @@
         <v>253</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>88</v>
@@ -9786,7 +10691,7 @@
         <v>88</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="14"/>
@@ -9796,20 +10701,20 @@
         <v>70</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>67</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="N18" s="19" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Kotaki, Kurabayashi, Matsui, Kuramoto, Djong and Sumida, 2010.)</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
@@ -9825,14 +10730,14 @@
         <v>254</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>88</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="12" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="23">
@@ -9843,16 +10748,16 @@
       </c>
       <c r="I19" s="23"/>
       <c r="J19" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="M19" s="10" t="s">
         <v>379</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>382</v>
       </c>
       <c r="N19" s="20" t="str">
         <f t="shared" si="0"/>
@@ -9895,7 +10800,7 @@
         <v>135</v>
       </c>
       <c r="X20" s="27" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:24" customFormat="1">
@@ -9912,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J21" t="s">
         <v>105</v>
@@ -9928,10 +10833,10 @@
         <v>namespace(Wu, 2015...)</v>
       </c>
       <c r="O21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="X21" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:24" customFormat="1">
@@ -9948,7 +10853,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J22" t="s">
         <v>106</v>
@@ -9967,10 +10872,10 @@
         <v>179</v>
       </c>
       <c r="X22" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" customFormat="1" ht="16">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" customFormat="1">
       <c r="A23" s="47" t="s">
         <v>254</v>
       </c>
@@ -9987,7 +10892,7 @@
         <v>107</v>
       </c>
       <c r="L23" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M23" t="s">
         <v>112</v>
@@ -10000,7 +10905,7 @@
         <v>130</v>
       </c>
       <c r="X23" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:24" customFormat="1">
@@ -10030,10 +10935,10 @@
         <v>namespace(Wu, 2015...)</v>
       </c>
       <c r="O24" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="X24" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:24" customFormat="1">
@@ -10066,7 +10971,7 @@
         <v>135</v>
       </c>
       <c r="X25" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:24" customFormat="1">
@@ -10099,7 +11004,7 @@
         <v>134</v>
       </c>
       <c r="X26" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="17" customFormat="1">
@@ -10141,7 +11046,7 @@
         <v>163</v>
       </c>
       <c r="X27" s="17" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:24" customFormat="1" ht="16" thickBot="1">
@@ -10180,18 +11085,18 @@
         <v>150</v>
       </c>
       <c r="X28" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:24" s="36" customFormat="1" ht="16" thickTop="1">
       <c r="A29" s="36" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
@@ -10203,7 +11108,7 @@
         <v>182</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M29" s="36" t="s">
         <v>65</v>
@@ -10226,13 +11131,13 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
@@ -10241,7 +11146,7 @@
         <v>183</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>65</v>
@@ -10259,19 +11164,19 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>184</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>65</v>
@@ -10289,19 +11194,19 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>191</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>65</v>
@@ -10323,13 +11228,13 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -10338,7 +11243,7 @@
         <v>193</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>65</v>
@@ -10357,13 +11262,13 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -10372,7 +11277,7 @@
         <v>195</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>65</v>
@@ -10391,19 +11296,19 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>197</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>65</v>
@@ -10425,13 +11330,13 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -10440,7 +11345,7 @@
         <v>202</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>65</v>
@@ -10456,13 +11361,13 @@
     </row>
     <row r="37" spans="1:24" s="9" customFormat="1">
       <c r="A37" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="32"/>
@@ -10474,7 +11379,7 @@
         <v>204</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>65</v>
@@ -10497,19 +11402,19 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>205</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>65</v>
@@ -10524,19 +11429,19 @@
     </row>
     <row r="39" spans="1:24">
       <c r="A39" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>65</v>
@@ -10551,22 +11456,22 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>65</v>
@@ -10578,19 +11483,19 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>65</v>
@@ -10600,24 +11505,24 @@
         <v>namespace(Tang, 2013...)</v>
       </c>
       <c r="O41" s="18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>65</v>
@@ -10627,7 +11532,7 @@
         <v>namespace(Tang, 2013...)</v>
       </c>
       <c r="O42" s="18" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P42" s="5" t="s">
         <v>31</v>
@@ -10635,13 +11540,13 @@
     </row>
     <row r="43" spans="1:24" s="9" customFormat="1">
       <c r="A43" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="32"/>
@@ -10650,23 +11555,23 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N43" s="19" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Djong, Matsui, Kuramoto, Nishioka, and Sumida, Zool. Sci. 28:922-929)</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
@@ -10679,40 +11584,40 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N44" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Djong, Matsui, Kuramoto, Nishioka, and Sumida, Zool. Sci. 28:922-929)</v>
       </c>
       <c r="O44" s="18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:24" s="9" customFormat="1">
       <c r="A45" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="32"/>
@@ -10721,20 +11626,20 @@
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
       <c r="K45" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N45" s="19" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Dubois and Ohler, 2000)</v>
       </c>
       <c r="O45" s="19" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
@@ -10745,7 +11650,7 @@
       <c r="V45" s="14"/>
       <c r="W45" s="14"/>
       <c r="X45" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:24" s="16" customFormat="1">
@@ -10791,13 +11696,13 @@
     </row>
     <row r="47" spans="1:24" s="9" customFormat="1">
       <c r="A47" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="32"/>
@@ -10806,20 +11711,20 @@
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
       <c r="J47" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N47" s="19" t="str">
         <f>CONCATENATE("namespace(", M47, ")")</f>
         <v>namespace(國立台灣大學植物標本館 (2012)，台灣植物資訊整合查詢系統，http://tai2.ntu.edu.tw。)</v>
       </c>
       <c r="O47" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
@@ -10830,34 +11735,34 @@
       <c r="V47" s="14"/>
       <c r="W47" s="14"/>
       <c r="X47" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L48" s="25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N48" s="18" t="str">
         <f>CONCATENATE("namespace(", M48, ")")</f>
         <v>namespace(國立台灣大學植物標本館 (2012)，台灣植物資訊整合查詢系統，http://tai2.ntu.edu.tw。)</v>
       </c>
       <c r="O48" s="18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P48" s="5" t="s">
         <v>31</v>
@@ -10865,18 +11770,18 @@
     </row>
     <row r="52" spans="1:23">
       <c r="A52" s="8" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" spans="1:23" s="9" customFormat="1">
       <c r="A53" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="32"/>
@@ -10885,19 +11790,19 @@
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
       <c r="J53" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N53" s="19" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P53" s="14"/>
       <c r="Q53" s="14"/>
@@ -10910,13 +11815,13 @@
     </row>
     <row r="54" spans="1:23" s="9" customFormat="1">
       <c r="A54" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="32"/>
@@ -10925,19 +11830,19 @@
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
       <c r="J54" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N54" s="19" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O54" s="19" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
@@ -10950,13 +11855,13 @@
     </row>
     <row r="55" spans="1:23">
       <c r="A55" s="8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G55" s="4">
         <v>1</v>
@@ -10965,27 +11870,27 @@
         <v>1</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N55" s="18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56" spans="1:23" s="9" customFormat="1">
       <c r="A56" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D56" s="22"/>
       <c r="E56" s="32"/>
@@ -10994,19 +11899,19 @@
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
       <c r="J56" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N56" s="19" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O56" s="19" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
@@ -11019,13 +11924,13 @@
     </row>
     <row r="57" spans="1:23">
       <c r="A57" s="8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G57" s="4">
         <v>1</v>
@@ -11034,30 +11939,30 @@
         <v>1</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N57" s="18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O57" s="18" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" spans="1:23" s="9" customFormat="1">
       <c r="A58" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="32"/>
@@ -11066,19 +11971,19 @@
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
       <c r="J58" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N58" s="19" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O58" s="19" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
@@ -11091,13 +11996,13 @@
     </row>
     <row r="59" spans="1:23">
       <c r="A59" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>445</v>
-      </c>
       <c r="C59" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G59" s="4">
         <v>1</v>
@@ -11106,30 +12011,30 @@
         <v>1</v>
       </c>
       <c r="J59" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="M59" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="L59" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>444</v>
-      </c>
       <c r="N59" s="18" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O59" s="18" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="1:23" s="9" customFormat="1">
       <c r="A60" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D60" s="22"/>
       <c r="E60" s="32"/>
@@ -11138,19 +12043,19 @@
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
       <c r="J60" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N60" s="19" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O60" s="19" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
@@ -11163,13 +12068,13 @@
     </row>
     <row r="61" spans="1:23" s="9" customFormat="1">
       <c r="A61" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D61" s="22"/>
       <c r="E61" s="32"/>
@@ -11178,19 +12083,19 @@
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
       <c r="J61" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L61" s="14" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N61" s="19" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O61" s="19" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
@@ -11203,42 +12108,42 @@
     </row>
     <row r="62" spans="1:23">
       <c r="A62" s="8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G62" s="4">
         <v>1</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L62" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="N62" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="M62" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="N62" s="18" t="s">
-        <v>442</v>
-      </c>
       <c r="O62" s="18" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="63" spans="1:23" s="9" customFormat="1">
       <c r="A63" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D63" s="22"/>
       <c r="E63" s="32"/>
@@ -11247,19 +12152,19 @@
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
       <c r="K63" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L63" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="N63" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="O63" s="19" t="s">
         <v>455</v>
-      </c>
-      <c r="O63" s="19" t="s">
-        <v>458</v>
       </c>
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
@@ -11272,36 +12177,36 @@
     </row>
     <row r="64" spans="1:23">
       <c r="A64" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="M64" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="N64" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="O64" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="K64" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="L64" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="M64" s="8" t="s">
+      <c r="P64" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="N64" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="O64" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="P64" s="5" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="65" spans="1:23">
       <c r="A65" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="66" spans="1:23" s="9" customFormat="1">
@@ -11309,10 +12214,10 @@
         <v>254</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D66" s="22"/>
       <c r="E66" s="32"/>
@@ -11321,19 +12226,19 @@
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
       <c r="J66" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L66" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N66" s="19" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O66" s="19" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
@@ -11349,10 +12254,10 @@
         <v>254</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G67" s="4">
         <v>1</v>
@@ -11361,19 +12266,19 @@
         <v>1</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N67" s="18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O67" s="18" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:23" s="9" customFormat="1">
@@ -11381,13 +12286,13 @@
         <v>254</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E68" s="32"/>
       <c r="F68" s="22"/>
@@ -11395,19 +12300,19 @@
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
       <c r="J68" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L68" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N68" s="19" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O68" s="19" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
@@ -11423,10 +12328,10 @@
         <v>254</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="32"/>
@@ -11435,19 +12340,19 @@
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
       <c r="J69" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L69" s="14" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N69" s="19" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O69" s="19" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P69" s="14"/>
       <c r="Q69" s="14"/>
@@ -11463,28 +12368,28 @@
         <v>254</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G70" s="4">
         <v>1</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L70" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="N70" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="M70" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="N70" s="18" t="s">
-        <v>442</v>
-      </c>
       <c r="O70" s="18" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" spans="1:23" s="9" customFormat="1">
@@ -11492,13 +12397,13 @@
         <v>254</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E71" s="32"/>
       <c r="F71" s="22"/>
@@ -11506,19 +12411,19 @@
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
       <c r="K71" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L71" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="N71" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="O71" s="19" t="s">
         <v>455</v>
-      </c>
-      <c r="O71" s="19" t="s">
-        <v>458</v>
       </c>
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
@@ -11534,1625 +12439,2128 @@
         <v>254</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="K72" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="L72" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="N72" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="O72" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="K72" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="L72" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="M72" s="8" t="s">
+      <c r="P72" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="N72" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="O72" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="P72" s="5" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="76" spans="1:23">
       <c r="A76" s="8" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="77" spans="1:23">
       <c r="A77" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N77" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="O77" s="18" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="78" spans="1:23">
       <c r="A78" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="M78" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N78" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="79" spans="1:23">
       <c r="A79" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N79" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="80" spans="1:23">
       <c r="A80" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N80" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M81" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N81" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M82" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N82" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="M83" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N83" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="M84" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N84" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="M85" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N85" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="M86" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N86" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="M87" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N87" s="18" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="16">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="M88" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N88" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="M89" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N89" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="M90" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N90" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M91" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N91" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="M92" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N92" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M93" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N93" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M94" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N94" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M95" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N95" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="M96" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N96" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="M97" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N97" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M98" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N98" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M99" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N99" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="M100" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N100" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="J101" s="8" t="s">
         <v>202</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="M101" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N101" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="M102" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N102" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M103" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N103" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M104" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N104" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="M105" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N105" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M106" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N106" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="M107" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N107" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M108" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N108" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M109" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N109" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="M110" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N110" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M111" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N111" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="J112" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="J112" s="8" t="s">
-        <v>761</v>
-      </c>
       <c r="K112" s="8" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M112" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N112" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N113" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M114" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N114" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="M115" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N115" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="J116" s="18" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="M116" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N116" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="K117" s="8" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="M117" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N117" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="M118" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N118" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="M119" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N119" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="J120" s="18" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="M120" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N120" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="M121" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N121" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="M122" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N122" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="M123" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N123" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M124" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N124" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="J125" s="8" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M125" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N125" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="J126" s="18" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="M126" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N126" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="M127" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N127" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="J128" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="K128" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="M128" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="N128" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="K129" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="L129" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="M129" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="N129" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="J130" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="K130" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="M130" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="N130" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C131" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="J128" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="K128" s="8" t="s">
+      <c r="J131" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="K131" s="8" t="s">
         <v>822</v>
       </c>
-      <c r="L128" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="M128" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="N128" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="B129" s="5" t="s">
+      <c r="L131" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="M131" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="N131" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C132" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="J129" s="8" t="s">
+      <c r="J132" s="8" t="s">
         <v>803</v>
       </c>
-      <c r="K129" s="8" t="s">
+      <c r="K132" s="8" t="s">
         <v>823</v>
       </c>
-      <c r="L129" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="M129" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="N129" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
-      <c r="A130" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="B130" s="5" t="s">
+      <c r="L132" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="M132" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="N132" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C133" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="J130" s="8" t="s">
+      <c r="J133" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="K130" s="8" t="s">
+      <c r="K133" s="8" t="s">
         <v>824</v>
       </c>
-      <c r="L130" s="5" t="s">
+      <c r="L133" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="M133" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="N133" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="J134" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="K134" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="L134" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="M130" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="N130" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
-      <c r="A131" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="J131" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="K131" s="8" t="s">
-        <v>825</v>
-      </c>
-      <c r="L131" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="M131" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="N131" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
-      <c r="A132" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="B132" s="5" t="s">
+      <c r="M134" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="N134" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C135" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="J132" s="8" t="s">
+      <c r="J135" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="K132" s="8" t="s">
+      <c r="K135" s="8" t="s">
         <v>826</v>
       </c>
-      <c r="L132" s="5" t="s">
+      <c r="L135" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="M135" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="N135" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="J136" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="K136" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="L136" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="M132" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="N132" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
-      <c r="A133" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="J133" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="K133" s="8" t="s">
+      <c r="M136" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="N136" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="J137" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="K137" s="8" t="s">
         <v>827</v>
       </c>
-      <c r="L133" s="5" t="s">
+      <c r="L137" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="M133" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="N133" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
-      <c r="A134" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="J134" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="K134" s="8" t="s">
-        <v>828</v>
-      </c>
-      <c r="L134" s="5" t="s">
+      <c r="M137" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="N137" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="J138" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="K138" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="L138" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="M138" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="N138" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="J139" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="K139" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="L139" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="M139" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="N139" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="J140" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="K140" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="L140" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="M134" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="N134" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
-      <c r="A135" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="J135" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="K135" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="L135" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="M135" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="N135" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
-      <c r="A136" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="J136" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="K136" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="L136" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="M136" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="N136" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
-      <c r="A137" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="J137" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="K137" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="L137" s="5" t="s">
-        <v>859</v>
-      </c>
-      <c r="M137" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="N137" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
-      <c r="A138" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="B138" s="5" t="s">
+      <c r="M140" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="N140" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B141" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C141" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="J138" s="8" t="s">
+      <c r="J141" s="8" t="s">
         <v>812</v>
       </c>
-      <c r="K138" s="8" t="s">
+      <c r="K141" s="8" t="s">
         <v>832</v>
       </c>
-      <c r="L138" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="M138" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="N138" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
-      <c r="A139" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="J139" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="K139" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="L139" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="M139" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="N139" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
-      <c r="A140" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="J140" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="K140" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="L140" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="M140" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="N140" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
-      <c r="A141" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="J141" s="8" t="s">
-        <v>815</v>
-      </c>
-      <c r="K141" s="8" t="s">
-        <v>835</v>
-      </c>
       <c r="L141" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M141" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N141" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
-      <c r="C142" s="5"/>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="J142" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="M142" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="N142" s="8" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="J143" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="L143" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="M143" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="N143" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="O143" s="18" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="J144" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="L144" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="M144" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="N144" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="O144" s="18" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22">
+      <c r="A145" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="C145" s="31" t="s">
+        <v>902</v>
+      </c>
+      <c r="J145" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="L145" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="M145" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="N145" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="O145" s="18" t="s">
+        <v>925</v>
+      </c>
+      <c r="P145" s="5" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22">
+      <c r="A146" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="C146" s="31" t="s">
+        <v>902</v>
+      </c>
+      <c r="J146" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="L146" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="M146" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="N146" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="O146" s="18" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22">
+      <c r="A147" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="J147" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="L147" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="M147" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="N147" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="O147" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22">
+      <c r="A148" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="J148" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="L148" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="M148" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="N148" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="O148" s="18" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22">
+      <c r="A149" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="J149" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="L149" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="M149" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="N149" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="O149" s="18" t="s">
+        <v>937</v>
+      </c>
+      <c r="V149" s="5" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22">
+      <c r="A150" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="J150" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="L150" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="M150" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="N150" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="O150" s="18" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22">
+      <c r="A151" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="J151" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="L151" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="M151" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="N151" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="O151" s="18" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22">
+      <c r="A152" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="J152" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="L152" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="M152" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="N152" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="O152" s="18" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22">
+      <c r="A153" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="H153" s="4">
+        <v>1</v>
+      </c>
+      <c r="J153" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="L153" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="M153" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="N153" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="O153" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="V153" s="5" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22">
+      <c r="A154" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="J154" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="L154" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="M154" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="N154" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="O154" s="18" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22">
+      <c r="A155" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="J155" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="L155" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="M155" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="N155" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="O155" s="18" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22">
+      <c r="A156" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="J156" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="L156" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="M156" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="N156" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="O156" s="8" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22">
+      <c r="A157" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="J157" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="L157" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="M157" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="N157" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="O157" s="18" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22">
+      <c r="A158" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="J158" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="L158" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="M158" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="N158" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="O158" s="18" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22">
+      <c r="A159" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="J159" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="L159" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="M159" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="N159" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="O159" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="V159" s="5" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22">
+      <c r="A160" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="J160" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="L160" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="M160" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="N160" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="O160" s="18" t="s">
+        <v>914</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -13163,10 +14571,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -13175,16 +14586,16 @@
     <col min="2" max="3" width="24.5" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.33203125" customWidth="1"/>
-    <col min="6" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" customWidth="1"/>
-    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" customWidth="1"/>
+    <col min="12" max="12" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="65.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="27" t="s">
         <v>186</v>
       </c>
@@ -13192,156 +14603,162 @@
         <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F1" t="s">
         <v>220</v>
       </c>
       <c r="G1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" t="s">
+        <v>940</v>
+      </c>
+      <c r="I1" t="s">
+        <v>943</v>
+      </c>
+      <c r="J1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" t="s">
+        <v>522</v>
+      </c>
+      <c r="L1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="F2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" t="s">
+        <v>941</v>
+      </c>
+      <c r="I2" t="s">
+        <v>942</v>
+      </c>
+      <c r="J2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K2" t="s">
+        <v>523</v>
+      </c>
+      <c r="L2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M2" t="s">
+        <v>224</v>
+      </c>
+      <c r="N2" t="s">
         <v>292</v>
       </c>
-      <c r="H1" t="s">
-        <v>288</v>
-      </c>
-      <c r="I1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L1" t="s">
-        <v>209</v>
-      </c>
-      <c r="M1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C2" t="s">
-        <v>515</v>
-      </c>
-      <c r="D2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="F2" t="s">
-        <v>290</v>
-      </c>
-      <c r="G2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H2" t="s">
-        <v>289</v>
-      </c>
-      <c r="I2" t="s">
-        <v>302</v>
-      </c>
-      <c r="J2" t="s">
-        <v>526</v>
-      </c>
-      <c r="K2" t="s">
-        <v>223</v>
-      </c>
-      <c r="L2" t="s">
-        <v>224</v>
-      </c>
-      <c r="M2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" t="s">
-        <v>516</v>
-      </c>
-      <c r="I3">
+        <v>513</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>190</v>
       </c>
-      <c r="M3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E4" t="s">
         <v>188</v>
       </c>
-      <c r="M4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" t="s">
         <v>187</v>
       </c>
-      <c r="M5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" t="s">
-        <v>518</v>
-      </c>
-      <c r="H6" t="s">
+        <v>515</v>
+      </c>
+      <c r="I6" t="s">
         <v>219</v>
       </c>
-      <c r="M6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" t="s">
-        <v>520</v>
-      </c>
-      <c r="H7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I7" t="s">
         <v>219</v>
       </c>
-      <c r="M7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="17" customFormat="1">
+      <c r="N7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="17" customFormat="1">
       <c r="A8" s="17" t="s">
         <v>250</v>
       </c>
@@ -13353,72 +14770,72 @@
         <v>263</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="L8" s="17" t="e">
+      <c r="M8" s="17" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="M8" s="17" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B10" t="s">
         <v>446</v>
-      </c>
-      <c r="B10" t="s">
-        <v>449</v>
       </c>
       <c r="C10" s="25">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="11" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" t="s">
-        <v>444</v>
-      </c>
-      <c r="H11" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>441</v>
+      </c>
+      <c r="I11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B12" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C12" s="25">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="55" t="s">
         <v>102</v>
       </c>
@@ -13426,10 +14843,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="56" t="s">
         <v>102</v>
       </c>
@@ -13438,7 +14855,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="56" t="s">
         <v>108</v>
       </c>
@@ -13447,34 +14864,34 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="56" t="s">
         <v>108</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="56" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" s="56" t="s">
         <v>109</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="56" t="s">
         <v>110</v>
       </c>
@@ -13482,11 +14899,11 @@
       <c r="D19" t="s">
         <v>130</v>
       </c>
-      <c r="H19" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="I19" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="56" t="s">
         <v>111</v>
       </c>
@@ -13495,28 +14912,28 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" s="56" t="s">
         <v>111</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" t="s">
-        <v>539</v>
-      </c>
-      <c r="H21" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>536</v>
+      </c>
+      <c r="I21" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="56" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="56" t="s">
         <v>116</v>
       </c>
@@ -13525,7 +14942,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" s="56" t="s">
         <v>117</v>
       </c>
@@ -13534,7 +14951,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" s="56" t="s">
         <v>118</v>
       </c>
@@ -13542,34 +14959,34 @@
       <c r="D25" t="s">
         <v>149</v>
       </c>
-      <c r="H25" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="I25" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="57" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" t="s">
-        <v>621</v>
-      </c>
-      <c r="K27" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>618</v>
+      </c>
+      <c r="L27" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C28" s="25">
         <v>1</v>
@@ -13578,148 +14995,221 @@
         <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" t="s">
-        <v>652</v>
-      </c>
-      <c r="I29">
+        <v>649</v>
+      </c>
+      <c r="J29">
         <v>1</v>
       </c>
-      <c r="K29" t="s">
-        <v>653</v>
-      </c>
-      <c r="M29" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="L29" t="s">
+        <v>650</v>
+      </c>
+      <c r="N29" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C30" s="25">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E30" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C31" s="25">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E31" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C32" s="25">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E32" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C33" s="25">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E33" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C34" s="25">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E34" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C35" s="25">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E35" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="C36" s="25"/>
-    </row>
-    <row r="37" spans="1:5">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>902</v>
+      </c>
+      <c r="C36" s="25">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>905</v>
+      </c>
+      <c r="E36" t="s">
+        <v>445</v>
+      </c>
+      <c r="M36" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>926</v>
+      </c>
       <c r="C37" s="25"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="D37" t="s">
+        <v>928</v>
+      </c>
+      <c r="I37" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>1000</v>
+      </c>
       <c r="C38" s="25"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="D38" t="s">
+        <v>937</v>
+      </c>
+      <c r="I38" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>967</v>
+      </c>
       <c r="C39" s="25"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="D39" t="s">
+        <v>969</v>
+      </c>
+      <c r="I39" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>982</v>
+      </c>
       <c r="C40" s="25"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="D40" t="s">
+        <v>980</v>
+      </c>
+      <c r="E40" t="s">
+        <v>983</v>
+      </c>
+      <c r="I40" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="11" t="s">
+        <v>989</v>
+      </c>
       <c r="C41" s="25"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="C42" s="25"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="D41" t="s">
+        <v>937</v>
+      </c>
+      <c r="I41" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>991</v>
+      </c>
+      <c r="C42" s="25">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>935</v>
+      </c>
+      <c r="E42" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="C43" s="25"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:13">
       <c r="C44" s="25"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:13">
       <c r="C45" s="25"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:13">
       <c r="C46" s="25"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:13">
       <c r="C47" s="25"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:13">
       <c r="C48" s="25"/>
     </row>
     <row r="49" spans="3:3">
@@ -13855,21 +15345,21 @@
         <v>180</v>
       </c>
       <c r="C1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1" t="s">
         <v>544</v>
       </c>
-      <c r="D1" t="s">
-        <v>547</v>
-      </c>
       <c r="E1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="D2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -13902,26 +15392,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B4" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>
@@ -13972,13 +15462,13 @@
         <v>222</v>
       </c>
       <c r="B1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E1" t="s">
         <v>232</v>
@@ -13999,7 +15489,7 @@
         <v>240</v>
       </c>
       <c r="K1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L1" t="s">
         <v>234</v>
@@ -14035,30 +15525,30 @@
         <v>257</v>
       </c>
       <c r="W1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Y1" s="30" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" t="s">
         <v>343</v>
-      </c>
-      <c r="C2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F2" t="s">
-        <v>345</v>
       </c>
       <c r="G2" t="s">
         <v>242</v>
@@ -14073,10 +15563,10 @@
         <v>244</v>
       </c>
       <c r="K2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M2" t="s">
         <v>226</v>
@@ -14094,7 +15584,7 @@
         <v>227</v>
       </c>
       <c r="R2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="S2" t="s">
         <v>247</v>
@@ -14103,16 +15593,16 @@
         <v>246</v>
       </c>
       <c r="U2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="V2" t="s">
         <v>258</v>
       </c>
       <c r="W2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -14125,47 +15615,47 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="S4" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="T4" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="U4" t="s">
+        <v>313</v>
+      </c>
+      <c r="V4" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="T4" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>315</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="W4" t="s">
-        <v>317</v>
       </c>
       <c r="X4" s="11">
         <v>2012</v>
       </c>
       <c r="Y4" s="30" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B6" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -14202,10 +15692,10 @@
         <v>229</v>
       </c>
       <c r="B1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>230</v>
@@ -14214,7 +15704,7 @@
         <v>231</v>
       </c>
       <c r="F1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>273</v>
@@ -14222,22 +15712,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2" t="s">
         <v>340</v>
-      </c>
-      <c r="B2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C2" t="s">
-        <v>522</v>
-      </c>
-      <c r="D2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G2" t="s">
-        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -14276,13 +15766,13 @@
         <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/ongoing/ref_based_name_history_version_control.xlsx
+++ b/ongoing/ref_based_name_history_version_control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gsmai/Documents/GitHub/national-checklist/ongoing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AD563BA2-C8E9-5349-ADBC-7F7BE6895D27}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1F9D2F4E-4D11-9549-BB7D-A60A78BA8E16}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33580" windowHeight="19500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33580" windowHeight="19240" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SciNameAuthors" sheetId="6" r:id="rId1"/>
@@ -47,6 +47,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft JhengHei UI"/>
+            <charset val="136"/>
           </rPr>
           <t>Guan Shuo Mai:</t>
         </r>
@@ -55,6 +56,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft JhengHei UI"/>
+            <charset val="136"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -76,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1008">
   <si>
     <t>latin_genus</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1463,14 +1465,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>type_locality</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>具名模式位置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>國立台灣大學植物標本館 (2012)，台灣植物資訊整合查詢系統，http://tai2.ntu.edu.tw。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1748,10 +1742,6 @@
   </si>
   <si>
     <t>Kotaki, Kurabayashi, Matsui, Kuramoto, Djong and Sumida, 2010.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>makes_synonym</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2761,10 +2751,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>0:native; 1:alien; 2:cultivated; 3:naturalized; 4:invasive</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>endemic_to</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3500,7 +3486,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="新細明體 (本文)"/>
-        <charset val="136"/>
       </rPr>
       <t>ü</t>
     </r>
@@ -4930,6 +4915,46 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>ref_compilation_namespace</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>makes_taxon_merge</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_pan_taiwan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>designated_here</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在本文獻被指定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:native; 1:alien; 2:cultivated或養殖; 3:naturalized; 4:invasive</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_collected_locality</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>具名模式採集地點</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>genus_usage_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>family_usage_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -5052,12 +5077,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft JhengHei UI"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="PMingLiU"/>
@@ -5068,12 +5087,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體 (本文)"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft JhengHei UI"/>
     </font>
     <font>
       <b/>
@@ -5083,6 +5096,19 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei UI"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei UI"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="6">
@@ -5214,7 +5240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5299,9 +5325,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
@@ -5336,9 +5359,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5387,6 +5407,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5769,10 +5825,10 @@
         <v>272</v>
       </c>
       <c r="L1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5780,7 +5836,7 @@
         <v>279</v>
       </c>
       <c r="B2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -5793,8 +5849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5813,22 +5869,22 @@
         <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>1007</v>
       </c>
       <c r="C1" t="s">
         <v>180</v>
       </c>
       <c r="D1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G1" t="s">
         <v>469</v>
-      </c>
-      <c r="E1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1" t="s">
-        <v>471</v>
-      </c>
-      <c r="G1" t="s">
-        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -5843,10 +5899,10 @@
   <dimension ref="A1:X96"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H87" sqref="H87"/>
+      <selection pane="bottomRight" activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -5883,10 +5939,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>38</v>
@@ -5901,7 +5957,7 @@
         <v>177</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -5925,7 +5981,7 @@
         <v>86</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>6</v>
@@ -5954,10 +6010,10 @@
     </row>
     <row r="2" spans="1:24">
       <c r="B2" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>164</v>
@@ -5969,7 +6025,7 @@
         <v>208</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>166</v>
@@ -5993,7 +6049,7 @@
         <v>176</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>304</v>
@@ -6017,7 +6073,7 @@
         <v>174</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -6025,7 +6081,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>69</v>
@@ -6511,7 +6567,7 @@
     </row>
     <row r="15" spans="1:24" ht="16" thickBot="1">
       <c r="A15" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>68</v>
@@ -6535,20 +6591,20 @@
         <v>74</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="16" thickTop="1">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="49" t="s">
         <v>138</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -6586,7 +6642,7 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="50" t="s">
         <v>139</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -6628,7 +6684,7 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="50" t="s">
         <v>140</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -6665,18 +6721,18 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="43" customFormat="1">
-      <c r="A19" s="53" t="s">
+    <row r="19" spans="1:19" s="41" customFormat="1">
+      <c r="A19" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="42">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="42">
         <v>0</v>
       </c>
       <c r="G19" s="2" t="str">
@@ -6687,24 +6743,24 @@
         <f t="shared" si="2"/>
         <v>Pseudofentonia variegata</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="J19" s="43" t="s">
+      <c r="J19" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="K19" s="43" t="s">
+      <c r="K19" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="O19" s="43" t="s">
+      <c r="O19" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="45" t="s">
+      <c r="P19" s="43" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="50" t="s">
         <v>142</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -6746,7 +6802,7 @@
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="50" t="s">
         <v>143</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -6788,7 +6844,7 @@
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="50" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -6836,7 +6892,7 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="50" t="s">
         <v>145</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -6874,7 +6930,7 @@
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="50" t="s">
         <v>213</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -6919,7 +6975,7 @@
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="50" t="s">
         <v>150</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -6957,7 +7013,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="16" thickBot="1">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="52" t="s">
         <v>151</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -7038,13 +7094,13 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>69</v>
@@ -7065,30 +7121,30 @@
         <v>Juniperus squamata</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="P28" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>69</v>
@@ -7109,30 +7165,30 @@
         <v>Juniperus squamata</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="P29" s="5" t="s">
         <v>488</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>69</v>
@@ -7153,30 +7209,30 @@
         <v>Juniperus squamata</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="P30" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>69</v>
@@ -7197,30 +7253,30 @@
         <v>Protium macgregorii</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="P31" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>69</v>
@@ -7241,24 +7297,24 @@
         <v>Protium macgregori</v>
       </c>
       <c r="I32" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="P32" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -7284,13 +7340,13 @@
         <v>11</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="P33" s="4" t="str">
         <f>IF(E33=1, A33, "")</f>
@@ -7299,7 +7355,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -7325,13 +7381,13 @@
         <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="P34" s="4" t="str">
         <f t="shared" ref="P34:P42" si="5">IF(E34=1, A34, "")</f>
@@ -7340,7 +7396,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -7366,13 +7422,13 @@
         <v>11</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="P35" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7381,7 +7437,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -7407,13 +7463,13 @@
         <v>11</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="P36" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7422,7 +7478,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -7448,13 +7504,13 @@
         <v>11</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="P37" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7463,7 +7519,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -7489,13 +7545,13 @@
         <v>11</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="P38" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7504,7 +7560,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -7530,13 +7586,13 @@
         <v>11</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="P39" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7545,7 +7601,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -7571,13 +7627,13 @@
         <v>11</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="P40" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7586,7 +7642,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -7612,13 +7668,13 @@
         <v>11</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="P41" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7627,7 +7683,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -7659,7 +7715,7 @@
         <v>23</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="P42" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7668,7 +7724,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -7706,15 +7762,15 @@
         <v>159</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -7746,24 +7802,24 @@
         <v>23</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>159</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -7795,24 +7851,24 @@
         <v>23</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>159</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -7838,13 +7894,13 @@
         <v>11</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="P46" s="4" t="str">
         <f>IF(E46=1, A46, "")</f>
@@ -7853,10 +7909,10 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -7883,13 +7939,13 @@
         <v>11</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="P47" s="4" t="str">
         <f>IF(E47=1, A47, "")</f>
@@ -7898,7 +7954,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -7924,13 +7980,13 @@
         <v>11</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="P48" s="4" t="str">
         <f>IF(E48=1, A48, "")</f>
@@ -7939,7 +7995,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -7965,13 +8021,13 @@
         <v>11</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P49" s="4" t="str">
         <f>IF(E49=1, A49, "")</f>
@@ -7980,7 +8036,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -8006,13 +8062,13 @@
         <v>11</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="P50" s="4" t="str">
         <f>IF(E50=1, A50, "")</f>
@@ -8021,10 +8077,10 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="1" t="s">
@@ -8064,7 +8120,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -8105,15 +8161,15 @@
         <v>159</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -8146,24 +8202,24 @@
         <v>13</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>159</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -8189,13 +8245,13 @@
         <v>11</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="P54" s="4" t="str">
         <f>IF(E54=1, A54, "")</f>
@@ -8204,7 +8260,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -8230,13 +8286,13 @@
         <v>11</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="P55" s="4" t="str">
         <f>IF(E55=1, A55, "")</f>
@@ -8245,10 +8301,10 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -8275,13 +8331,13 @@
         <v>11</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="P56" s="4" t="str">
         <f t="shared" ref="P56" si="9">IF(E56=1, A56, "")</f>
@@ -8290,10 +8346,10 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -8320,27 +8376,27 @@
         <v>11</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>159</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -8367,30 +8423,30 @@
         <v>11</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>159</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -8416,13 +8472,13 @@
         <v>11</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="P59" s="4" t="str">
         <f t="shared" ref="P59:P69" si="10">IF(E59=1, A59, "")</f>
@@ -8431,7 +8487,7 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -8457,13 +8513,13 @@
         <v>11</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="P60" s="4" t="str">
         <f t="shared" si="10"/>
@@ -8472,7 +8528,7 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -8498,13 +8554,13 @@
         <v>11</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="P61" s="4" t="str">
         <f t="shared" si="10"/>
@@ -8513,7 +8569,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -8539,13 +8595,13 @@
         <v>11</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="P62" s="4" t="str">
         <f t="shared" si="10"/>
@@ -8554,7 +8610,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -8580,13 +8636,13 @@
         <v>11</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="P63" s="4" t="str">
         <f t="shared" si="10"/>
@@ -8595,7 +8651,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -8621,13 +8677,13 @@
         <v>11</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="P64" s="4" t="str">
         <f t="shared" si="10"/>
@@ -8636,7 +8692,7 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -8662,13 +8718,13 @@
         <v>11</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="P65" s="4" t="str">
         <f t="shared" si="10"/>
@@ -8677,7 +8733,7 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -8703,13 +8759,13 @@
         <v>11</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="P66" s="4" t="str">
         <f t="shared" si="10"/>
@@ -8718,7 +8774,7 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -8744,13 +8800,13 @@
         <v>11</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="P67" s="4" t="str">
         <f t="shared" si="10"/>
@@ -8759,10 +8815,10 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C68" s="2">
         <v>2</v>
@@ -8789,10 +8845,10 @@
         <v>11</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="P68" s="4" t="str">
         <f t="shared" si="10"/>
@@ -8801,10 +8857,10 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C69" s="2">
         <v>2</v>
@@ -8831,10 +8887,10 @@
         <v>11</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="P69" s="4" t="str">
         <f t="shared" si="10"/>
@@ -8843,10 +8899,10 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C70" s="2">
         <v>2</v>
@@ -8873,27 +8929,27 @@
         <v>11</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>159</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C71" s="2">
         <v>2</v>
@@ -8920,24 +8976,24 @@
         <v>11</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>159</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>69</v>
@@ -8961,10 +9017,10 @@
         <v>11</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="P72" s="4" t="str">
         <f>IF(E72=1, A72, "")</f>
@@ -8973,7 +9029,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>69</v>
@@ -8997,10 +9053,10 @@
         <v>11</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="P73" s="4" t="str">
         <f>IF(E73=1, A73, "")</f>
@@ -9009,10 +9065,10 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>69</v>
@@ -9048,10 +9104,10 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C75" s="2">
         <v>2</v>
@@ -9081,21 +9137,21 @@
         <v>12</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>159</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>69</v>
@@ -9119,13 +9175,13 @@
         <v>11</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="P76" s="4" t="str">
         <f t="shared" ref="P76:P88" si="13">IF(E76=1, A76, "")</f>
@@ -9134,7 +9190,7 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>69</v>
@@ -9158,10 +9214,10 @@
         <v>11</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="P77" s="4" t="str">
         <f t="shared" si="13"/>
@@ -9170,7 +9226,7 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>69</v>
@@ -9194,13 +9250,13 @@
         <v>11</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="P78" s="4" t="str">
         <f t="shared" si="13"/>
@@ -9209,7 +9265,7 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>69</v>
@@ -9233,10 +9289,10 @@
         <v>11</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="P79" s="4" t="str">
         <f t="shared" si="13"/>
@@ -9245,7 +9301,7 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>69</v>
@@ -9269,10 +9325,10 @@
         <v>11</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="P80" s="4" t="str">
         <f t="shared" si="13"/>
@@ -9281,7 +9337,7 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>69</v>
@@ -9305,10 +9361,10 @@
         <v>11</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="P81" s="4" t="str">
         <f t="shared" si="13"/>
@@ -9317,7 +9373,7 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>69</v>
@@ -9341,10 +9397,10 @@
         <v>11</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="P82" s="4" t="str">
         <f t="shared" si="13"/>
@@ -9353,7 +9409,7 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>69</v>
@@ -9377,10 +9433,10 @@
         <v>11</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="P83" s="4" t="str">
         <f t="shared" si="13"/>
@@ -9389,7 +9445,7 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>69</v>
@@ -9413,13 +9469,13 @@
         <v>11</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="P84" s="4" t="str">
         <f t="shared" si="13"/>
@@ -9428,7 +9484,7 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>68</v>
@@ -9449,16 +9505,16 @@
         <v>Monema rubriceps</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="P85" s="4" t="str">
         <f t="shared" si="13"/>
@@ -9467,10 +9523,10 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>68</v>
@@ -9491,13 +9547,13 @@
         <v>Monema flavescens</v>
       </c>
       <c r="I86" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="J86" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="J86" s="1" t="s">
-        <v>899</v>
-      </c>
       <c r="K86" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="P86" s="4" t="str">
         <f t="shared" si="13"/>
@@ -9506,7 +9562,7 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>68</v>
@@ -9527,16 +9583,16 @@
         <v>Cnidocampa rubriceps</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="P87" s="4" t="str">
         <f t="shared" si="13"/>
@@ -9545,10 +9601,10 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>68</v>
@@ -9569,13 +9625,13 @@
         <v>Monema flavescens</v>
       </c>
       <c r="I88" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="J88" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="J88" s="1" t="s">
-        <v>899</v>
-      </c>
       <c r="K88" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="P88" s="4" t="str">
         <f t="shared" si="13"/>
@@ -9584,7 +9640,7 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>68</v>
@@ -9605,30 +9661,30 @@
         <v>Monema flavescens rubriceps</v>
       </c>
       <c r="I89" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="J89" s="1" t="s">
-        <v>899</v>
-      </c>
       <c r="K89" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>68</v>
@@ -9649,16 +9705,16 @@
         <v>Miresa flavescens</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="P90" s="4" t="str">
         <f>IF(E90=1, A90, "")</f>
@@ -9667,7 +9723,7 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>68</v>
@@ -9688,16 +9744,16 @@
         <v>Cnidocampa flavescens</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="P91" s="4" t="str">
         <f>IF(E91=1, A91, "")</f>
@@ -9706,7 +9762,7 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>68</v>
@@ -9727,16 +9783,16 @@
         <v>Cnidocampa johanibergmani</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="P92" s="4" t="str">
         <f>IF(E92=1, A92, "")</f>
@@ -9745,7 +9801,7 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>68</v>
@@ -9766,16 +9822,16 @@
         <v>Monema melli</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="P93" s="4" t="str">
         <f t="shared" ref="P93:P95" si="15">IF(E93=1, A93, "")</f>
@@ -9784,7 +9840,7 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>68</v>
@@ -9805,30 +9861,30 @@
         <v>Monema flavescens nigrans</v>
       </c>
       <c r="I94" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="J94" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="J94" s="1" t="s">
-        <v>899</v>
-      </c>
       <c r="L94" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>159</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="P94" s="5" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>68</v>
@@ -9849,16 +9905,16 @@
         <v>Monema nigrans</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="P95" s="4" t="str">
         <f t="shared" si="15"/>
@@ -9867,7 +9923,7 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>68</v>
@@ -9888,19 +9944,19 @@
         <v>Monema flavescens flavescens</v>
       </c>
       <c r="I96" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="J96" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="J96" s="1" t="s">
-        <v>899</v>
-      </c>
       <c r="K96" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="P96" s="5" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
   </sheetData>
@@ -9913,13 +9969,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X160"/>
+  <dimension ref="A1:U160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -9928,7 +9984,7 @@
     <col min="2" max="2" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="30" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" style="4" customWidth="1"/>
     <col min="8" max="9" width="20.83203125" style="4" customWidth="1"/>
@@ -9942,15 +9998,12 @@
     <col min="17" max="17" width="29.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29.1640625" style="5" customWidth="1"/>
     <col min="19" max="19" width="33.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="8"/>
+    <col min="20" max="20" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:21">
       <c r="A1" s="9" t="s">
         <v>39</v>
       </c>
@@ -9961,28 +10014,28 @@
         <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>397</v>
+        <v>393</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>394</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>380</v>
+        <v>999</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>181</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>25</v>
@@ -9997,7 +10050,7 @@
         <v>201</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>282</v>
@@ -10008,55 +10061,46 @@
       <c r="S1" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="T1" t="s">
-        <v>287</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="W1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="D2" s="31" t="s">
-        <v>403</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>464</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>462</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>482</v>
+    <row r="2" spans="1:21">
+      <c r="D2" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>479</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>101</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>221</v>
@@ -10065,7 +10109,7 @@
         <v>301</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="R2" s="11" t="s">
         <v>286</v>
@@ -10073,22 +10117,13 @@
       <c r="S2" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="T2" t="s">
-        <v>357</v>
-      </c>
-      <c r="U2" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="V2" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="W2" s="24" t="s">
+      <c r="T2" s="24" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="9" customFormat="1">
+    <row r="3" spans="1:21" s="9" customFormat="1">
       <c r="A3" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>36</v>
@@ -10097,7 +10132,7 @@
         <v>36</v>
       </c>
       <c r="D3" s="22"/>
-      <c r="E3" s="32"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
@@ -10113,7 +10148,7 @@
         <v>65</v>
       </c>
       <c r="N3" s="19" t="str">
-        <f t="shared" ref="N3:N45" si="0">CONCATENATE("namespace(", M3, ")")</f>
+        <f t="shared" ref="N3:N48" si="0">CONCATENATE("namespace(", M3, ")")</f>
         <v>namespace(Tang, 2013...)</v>
       </c>
       <c r="O3" s="19" t="s">
@@ -10123,17 +10158,14 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="9" t="s">
+      <c r="T3" s="14"/>
+      <c r="U3" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:21">
       <c r="A4" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>37</v>
@@ -10160,16 +10192,14 @@
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="8" t="s">
+      <c r="T4" s="25"/>
+      <c r="U4" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:21">
       <c r="A5" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>35</v>
@@ -10196,16 +10226,14 @@
       <c r="P5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="8" t="s">
+      <c r="T5" s="25"/>
+      <c r="U5" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:21">
       <c r="A6" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>55</v>
@@ -10229,16 +10257,14 @@
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="8" t="s">
+      <c r="T6" s="25"/>
+      <c r="U6" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:21">
       <c r="A7" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>57</v>
@@ -10262,16 +10288,14 @@
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="8" t="s">
+      <c r="T7" s="25"/>
+      <c r="U7" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:21">
       <c r="A8" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>59</v>
@@ -10295,16 +10319,14 @@
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="8" t="s">
+      <c r="T8" s="25"/>
+      <c r="U8" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:21">
       <c r="A9" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>61</v>
@@ -10331,16 +10353,14 @@
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="8" t="s">
+      <c r="T9" s="25"/>
+      <c r="U9" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:21">
       <c r="A10" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>63</v>
@@ -10370,14 +10390,12 @@
       <c r="P10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="8" t="s">
+      <c r="T10" s="25"/>
+      <c r="U10" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="9" customFormat="1">
+    <row r="11" spans="1:21" s="9" customFormat="1">
       <c r="A11" s="9" t="s">
         <v>254</v>
       </c>
@@ -10388,7 +10406,7 @@
         <v>88</v>
       </c>
       <c r="D11" s="22"/>
-      <c r="E11" s="32"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
@@ -10414,15 +10432,12 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="9" t="s">
+      <c r="T11" s="14"/>
+      <c r="U11" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:21">
       <c r="A12" s="8" t="s">
         <v>254</v>
       </c>
@@ -10451,11 +10466,11 @@
       <c r="O12" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="X12" s="8" t="s">
+      <c r="U12" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="10" customFormat="1">
+    <row r="13" spans="1:21" s="10" customFormat="1">
       <c r="A13" s="10" t="s">
         <v>254</v>
       </c>
@@ -10466,7 +10481,7 @@
         <v>88</v>
       </c>
       <c r="D13" s="23"/>
-      <c r="E13" s="33"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
@@ -10491,15 +10506,12 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="10" t="s">
+      <c r="T13" s="7"/>
+      <c r="U13" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="10" customFormat="1">
+    <row r="14" spans="1:21" s="10" customFormat="1">
       <c r="A14" s="10" t="s">
         <v>254</v>
       </c>
@@ -10510,7 +10522,7 @@
         <v>88</v>
       </c>
       <c r="D14" s="23"/>
-      <c r="E14" s="33"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
@@ -10529,21 +10541,18 @@
         <v>namespace(自然保育季刊 No.98 JUN. 2017)</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="10" t="s">
+      <c r="T14" s="7"/>
+      <c r="U14" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="10" customFormat="1">
+    <row r="15" spans="1:21" s="10" customFormat="1">
       <c r="A15" s="10" t="s">
         <v>254</v>
       </c>
@@ -10554,13 +10563,13 @@
         <v>88</v>
       </c>
       <c r="D15" s="23"/>
-      <c r="E15" s="33"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="K15" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>85</v>
@@ -10573,32 +10582,29 @@
         <v>namespace(自然保育季刊 No.98 JUN. 2017)</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="10" t="s">
+      <c r="T15" s="7"/>
+      <c r="U15" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="9" customFormat="1">
+    <row r="16" spans="1:21" s="9" customFormat="1">
       <c r="A16" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D16" s="22"/>
-      <c r="E16" s="32"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="22"/>
       <c r="G16" s="14"/>
       <c r="H16" s="22"/>
@@ -10607,42 +10613,39 @@
         <v>70</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>67</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N16" s="19" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Kotaki, Kurabayashi, Matsui, Kuramoto, Djong and Sumida, 2010.)</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-    </row>
-    <row r="17" spans="1:24" s="10" customFormat="1">
+      <c r="T16" s="14"/>
+    </row>
+    <row r="17" spans="1:21" s="10" customFormat="1">
       <c r="A17" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D17" s="23"/>
-      <c r="E17" s="33"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23">
         <v>1</v>
@@ -10652,16 +10655,16 @@
       </c>
       <c r="I17" s="23"/>
       <c r="J17" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="M17" s="10" t="s">
         <v>377</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="N17" s="20" t="str">
         <f t="shared" si="0"/>
@@ -10672,17 +10675,14 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-    </row>
-    <row r="18" spans="1:24" s="9" customFormat="1">
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="1:21" s="9" customFormat="1">
       <c r="A18" s="9" t="s">
         <v>253</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>88</v>
@@ -10690,8 +10690,8 @@
       <c r="D18" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="32" t="s">
-        <v>404</v>
+      <c r="E18" s="31" t="s">
+        <v>401</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="14"/>
@@ -10701,43 +10701,40 @@
         <v>70</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>67</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N18" s="19" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Kotaki, Kurabayashi, Matsui, Kuramoto, Djong and Sumida, 2010.)</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-    </row>
-    <row r="19" spans="1:24" s="10" customFormat="1" ht="16" thickBot="1">
+      <c r="T18" s="14"/>
+    </row>
+    <row r="19" spans="1:21" s="10" customFormat="1" ht="16" thickBot="1">
       <c r="A19" s="10" t="s">
         <v>254</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>88</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="23">
@@ -10748,16 +10745,16 @@
       </c>
       <c r="I19" s="23"/>
       <c r="J19" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="M19" s="10" t="s">
         <v>377</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="N19" s="20" t="str">
         <f t="shared" si="0"/>
@@ -10768,13 +10765,10 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-    </row>
-    <row r="20" spans="1:24" s="27" customFormat="1" ht="16" thickTop="1">
-      <c r="A20" s="46" t="s">
+      <c r="T19" s="7"/>
+    </row>
+    <row r="20" spans="1:21" s="27" customFormat="1" ht="16" thickTop="1">
+      <c r="A20" s="44" t="s">
         <v>254</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -10799,12 +10793,12 @@
       <c r="O20" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="X20" s="27" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" customFormat="1">
-      <c r="A21" s="47" t="s">
+      <c r="U20" s="27" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" customFormat="1">
+      <c r="A21" s="45" t="s">
         <v>254</v>
       </c>
       <c r="B21" t="s">
@@ -10817,7 +10811,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J21" t="s">
         <v>105</v>
@@ -10833,14 +10827,14 @@
         <v>namespace(Wu, 2015...)</v>
       </c>
       <c r="O21" t="s">
-        <v>531</v>
-      </c>
-      <c r="X21" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" customFormat="1">
-      <c r="A22" s="47" t="s">
+        <v>528</v>
+      </c>
+      <c r="U21" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" customFormat="1">
+      <c r="A22" s="45" t="s">
         <v>254</v>
       </c>
       <c r="B22" t="s">
@@ -10853,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J22" t="s">
         <v>106</v>
@@ -10871,12 +10865,12 @@
       <c r="O22" t="s">
         <v>179</v>
       </c>
-      <c r="X22" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" customFormat="1">
-      <c r="A23" s="47" t="s">
+      <c r="U22" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" customFormat="1" ht="16">
+      <c r="A23" s="45" t="s">
         <v>254</v>
       </c>
       <c r="B23" t="s">
@@ -10892,7 +10886,7 @@
         <v>107</v>
       </c>
       <c r="L23" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M23" t="s">
         <v>112</v>
@@ -10904,12 +10898,12 @@
       <c r="O23" t="s">
         <v>130</v>
       </c>
-      <c r="X23" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" customFormat="1">
-      <c r="A24" s="47" t="s">
+      <c r="U23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" customFormat="1">
+      <c r="A24" s="45" t="s">
         <v>254</v>
       </c>
       <c r="B24" t="s">
@@ -10935,14 +10929,14 @@
         <v>namespace(Wu, 2015...)</v>
       </c>
       <c r="O24" t="s">
-        <v>535</v>
-      </c>
-      <c r="X24" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" customFormat="1">
-      <c r="A25" s="47" t="s">
+        <v>532</v>
+      </c>
+      <c r="U24" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" customFormat="1">
+      <c r="A25" s="45" t="s">
         <v>254</v>
       </c>
       <c r="B25" t="s">
@@ -10970,12 +10964,12 @@
       <c r="O25" t="s">
         <v>135</v>
       </c>
-      <c r="X25" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" customFormat="1">
-      <c r="A26" s="47" t="s">
+      <c r="U25" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" customFormat="1">
+      <c r="A26" s="45" t="s">
         <v>254</v>
       </c>
       <c r="B26" t="s">
@@ -11003,12 +10997,12 @@
       <c r="O26" t="s">
         <v>134</v>
       </c>
-      <c r="X26" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" s="17" customFormat="1">
-      <c r="A27" s="48" t="s">
+      <c r="U26" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="17" customFormat="1">
+      <c r="A27" s="46" t="s">
         <v>254</v>
       </c>
       <c r="B27" s="17" t="s">
@@ -11017,7 +11011,7 @@
       <c r="C27" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="50">
+      <c r="G27" s="48">
         <v>1</v>
       </c>
       <c r="J27" s="17" t="s">
@@ -11045,12 +11039,12 @@
       <c r="S27" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="X27" s="17" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" customFormat="1" ht="16" thickBot="1">
-      <c r="A28" s="49" t="s">
+      <c r="U27" s="17" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" customFormat="1" ht="16" thickBot="1">
+      <c r="A28" s="47" t="s">
         <v>254</v>
       </c>
       <c r="B28" t="s">
@@ -11084,60 +11078,57 @@
       <c r="S28" t="s">
         <v>150</v>
       </c>
-      <c r="X28" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" s="36" customFormat="1" ht="16" thickTop="1">
-      <c r="A29" s="36" t="s">
-        <v>387</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>405</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>405</v>
-      </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="36" t="s">
+      <c r="U28" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="35" customFormat="1" ht="16" thickTop="1">
+      <c r="A29" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>402</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="L29" s="37" t="s">
+      <c r="L29" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="M29" s="36" t="s">
+      <c r="M29" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="N29" s="40" t="str">
+      <c r="N29" s="39" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Tang, 2013...)</v>
       </c>
-      <c r="O29" s="40" t="s">
+      <c r="O29" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="40"/>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
@@ -11158,19 +11149,17 @@
       <c r="O30" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="T30" s="25"/>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>184</v>
@@ -11188,19 +11177,17 @@
       <c r="O31" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="T31" s="25"/>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>191</v>
@@ -11222,19 +11209,17 @@
         <v>31</v>
       </c>
       <c r="Q32"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="T32" s="25"/>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -11256,19 +11241,17 @@
         <v>194</v>
       </c>
       <c r="Q33"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="T33" s="25"/>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -11290,19 +11273,17 @@
         <v>196</v>
       </c>
       <c r="Q34"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="T34" s="25"/>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>197</v>
@@ -11324,19 +11305,17 @@
         <v>31</v>
       </c>
       <c r="Q35"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="T35" s="25"/>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -11359,18 +11338,18 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="9" customFormat="1">
+    <row r="37" spans="1:21" s="9" customFormat="1">
       <c r="A37" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D37" s="22"/>
-      <c r="E37" s="32"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
@@ -11395,20 +11374,17 @@
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="T37" s="14"/>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>205</v>
@@ -11427,18 +11403,18 @@
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:21">
       <c r="A39" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>307</v>
@@ -11454,21 +11430,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:21">
       <c r="A40" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>307</v>
@@ -11481,18 +11457,18 @@
         <v>namespace(Tang, 2013...)</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:21">
       <c r="A41" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>307</v>
@@ -11505,21 +11481,21 @@
         <v>namespace(Tang, 2013...)</v>
       </c>
       <c r="O41" s="18" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>307</v>
@@ -11532,128 +11508,122 @@
         <v>namespace(Tang, 2013...)</v>
       </c>
       <c r="O42" s="18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P42" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="9" customFormat="1">
+    <row r="43" spans="1:21" s="9" customFormat="1">
       <c r="A43" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D43" s="22"/>
-      <c r="E43" s="32"/>
+      <c r="E43" s="31"/>
       <c r="F43" s="22"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="L43" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="K43" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>361</v>
-      </c>
       <c r="M43" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N43" s="19" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Djong, Matsui, Kuramoto, Nishioka, and Sumida, Zool. Sci. 28:922-929)</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
       <c r="S43" s="14"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="T43" s="14"/>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="L44" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>371</v>
-      </c>
       <c r="M44" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N44" s="18" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Djong, Matsui, Kuramoto, Nishioka, and Sumida, Zool. Sci. 28:922-929)</v>
       </c>
       <c r="O44" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" s="9" customFormat="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" s="9" customFormat="1">
       <c r="A45" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D45" s="22"/>
-      <c r="E45" s="32"/>
+      <c r="E45" s="31"/>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
       <c r="K45" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N45" s="19" t="str">
         <f t="shared" si="0"/>
         <v>namespace(Dubois and Ohler, 2000)</v>
       </c>
       <c r="O45" s="19" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
       <c r="S45" s="14"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" s="16" customFormat="1">
+      <c r="T45" s="14"/>
+      <c r="U45" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" s="16" customFormat="1">
       <c r="A46" s="16" t="s">
         <v>252</v>
       </c>
@@ -11664,7 +11634,7 @@
         <v>250</v>
       </c>
       <c r="D46" s="15"/>
-      <c r="E46" s="34"/>
+      <c r="E46" s="33"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -11679,7 +11649,7 @@
         <v>245</v>
       </c>
       <c r="N46" s="21" t="str">
-        <f>CONCATENATE("namespace(", M46, ")")</f>
+        <f t="shared" si="0"/>
         <v>namespace(ICBN-1997-09-25)</v>
       </c>
       <c r="O46" s="16" t="s">
@@ -11689,23 +11659,20 @@
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
-    </row>
-    <row r="47" spans="1:24" s="9" customFormat="1">
+      <c r="T46" s="15"/>
+    </row>
+    <row r="47" spans="1:21" s="9" customFormat="1">
       <c r="A47" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D47" s="22"/>
-      <c r="E47" s="32"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
@@ -11717,151 +11684,142 @@
         <v>307</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N47" s="19" t="str">
-        <f>CONCATENATE("namespace(", M47, ")")</f>
+        <f t="shared" si="0"/>
         <v>namespace(國立台灣大學植物標本館 (2012)，台灣植物資訊整合查詢系統，http://tai2.ntu.edu.tw。)</v>
       </c>
       <c r="O47" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
       <c r="S47" s="14"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
+      <c r="T47" s="14"/>
+      <c r="U47" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L48" s="25" t="s">
         <v>307</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N48" s="18" t="str">
-        <f>CONCATENATE("namespace(", M48, ")")</f>
+        <f t="shared" si="0"/>
         <v>namespace(國立台灣大學植物標本館 (2012)，台灣植物資訊整合查詢系統，http://tai2.ntu.edu.tw。)</v>
       </c>
       <c r="O48" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P48" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:20">
       <c r="A52" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" s="9" customFormat="1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" s="9" customFormat="1">
       <c r="A53" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D53" s="22"/>
-      <c r="E53" s="32"/>
+      <c r="E53" s="31"/>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
       <c r="J53" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="N53" s="19" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P53" s="14"/>
       <c r="Q53" s="14"/>
       <c r="R53" s="14"/>
       <c r="S53" s="14"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
-    </row>
-    <row r="54" spans="1:23" s="9" customFormat="1">
+      <c r="T53" s="14"/>
+    </row>
+    <row r="54" spans="1:20" s="9" customFormat="1">
       <c r="A54" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D54" s="22"/>
-      <c r="E54" s="32"/>
+      <c r="E54" s="31"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
       <c r="J54" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N54" s="19" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="O54" s="19" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
       <c r="R54" s="14"/>
       <c r="S54" s="14"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="T54" s="14"/>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G55" s="4">
         <v>1</v>
@@ -11870,67 +11828,64 @@
         <v>1</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N55" s="18" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" s="9" customFormat="1">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" s="9" customFormat="1">
       <c r="A56" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D56" s="22"/>
-      <c r="E56" s="32"/>
+      <c r="E56" s="31"/>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
       <c r="J56" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N56" s="19" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="O56" s="19" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
       <c r="R56" s="14"/>
       <c r="S56" s="14"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="14"/>
-      <c r="V56" s="14"/>
-      <c r="W56" s="14"/>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="T56" s="14"/>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G57" s="4">
         <v>1</v>
@@ -11939,70 +11894,67 @@
         <v>1</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N57" s="18" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="O57" s="18" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" s="9" customFormat="1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" s="9" customFormat="1">
       <c r="A58" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D58" s="22"/>
-      <c r="E58" s="32"/>
+      <c r="E58" s="31"/>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
       <c r="J58" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N58" s="19" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="O58" s="19" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
       <c r="R58" s="14"/>
       <c r="S58" s="14"/>
-      <c r="T58" s="27"/>
-      <c r="U58" s="14"/>
-      <c r="V58" s="14"/>
-      <c r="W58" s="14"/>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="T58" s="14"/>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>442</v>
-      </c>
       <c r="C59" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G59" s="4">
         <v>1</v>
@@ -12011,253 +11963,241 @@
         <v>1</v>
       </c>
       <c r="J59" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="M59" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="L59" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>441</v>
-      </c>
       <c r="N59" s="18" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="O59" s="18" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" s="9" customFormat="1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" s="9" customFormat="1">
       <c r="A60" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D60" s="22"/>
-      <c r="E60" s="32"/>
+      <c r="E60" s="31"/>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
       <c r="J60" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N60" s="19" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="O60" s="19" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
       <c r="R60" s="14"/>
       <c r="S60" s="14"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="14"/>
-      <c r="V60" s="14"/>
-      <c r="W60" s="14"/>
-    </row>
-    <row r="61" spans="1:23" s="9" customFormat="1">
+      <c r="T60" s="14"/>
+    </row>
+    <row r="61" spans="1:20" s="9" customFormat="1">
       <c r="A61" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D61" s="22"/>
-      <c r="E61" s="32"/>
+      <c r="E61" s="31"/>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
       <c r="J61" s="9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L61" s="14" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N61" s="19" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="O61" s="19" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
       <c r="R61" s="14"/>
       <c r="S61" s="14"/>
-      <c r="T61" s="27"/>
-      <c r="U61" s="14"/>
-      <c r="V61" s="14"/>
-      <c r="W61" s="14"/>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="T61" s="14"/>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="8" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G62" s="4">
         <v>1</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L62" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="N62" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="M62" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="N62" s="18" t="s">
-        <v>439</v>
-      </c>
       <c r="O62" s="18" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" s="9" customFormat="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" s="9" customFormat="1">
       <c r="A63" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D63" s="22"/>
-      <c r="E63" s="32"/>
+      <c r="E63" s="31"/>
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
       <c r="K63" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L63" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="N63" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="O63" s="19" t="s">
         <v>452</v>
-      </c>
-      <c r="O63" s="19" t="s">
-        <v>455</v>
       </c>
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
       <c r="R63" s="14"/>
       <c r="S63" s="14"/>
-      <c r="T63" s="27"/>
-      <c r="U63" s="14"/>
-      <c r="V63" s="14"/>
-      <c r="W63" s="14"/>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="T63" s="14"/>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="M64" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="N64" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="O64" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="K64" s="8" t="s">
+      <c r="P64" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="L64" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="N64" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="O64" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="P64" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
-      <c r="A65" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" s="9" customFormat="1">
+    </row>
+    <row r="66" spans="1:20" s="9" customFormat="1">
       <c r="A66" s="9" t="s">
         <v>254</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D66" s="22"/>
-      <c r="E66" s="32"/>
+      <c r="E66" s="31"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
       <c r="J66" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L66" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N66" s="19" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="O66" s="19" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
       <c r="R66" s="14"/>
       <c r="S66" s="14"/>
-      <c r="T66" s="27"/>
-      <c r="U66" s="14"/>
-      <c r="V66" s="14"/>
-      <c r="W66" s="14"/>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="T66" s="14"/>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="8" t="s">
         <v>254</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>465</v>
+        <v>434</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>462</v>
       </c>
       <c r="G67" s="4">
         <v>1</v>
@@ -12266,2300 +12206,2282 @@
         <v>1</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N67" s="18" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="O67" s="18" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" s="9" customFormat="1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" s="9" customFormat="1">
       <c r="A68" s="9" t="s">
         <v>254</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="E68" s="32"/>
+        <v>437</v>
+      </c>
+      <c r="E68" s="31"/>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
       <c r="J68" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L68" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N68" s="19" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="O68" s="19" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
       <c r="R68" s="14"/>
       <c r="S68" s="14"/>
-      <c r="T68" s="27"/>
-      <c r="U68" s="14"/>
-      <c r="V68" s="14"/>
-      <c r="W68" s="14"/>
-    </row>
-    <row r="69" spans="1:23" s="9" customFormat="1">
+      <c r="T68" s="14"/>
+    </row>
+    <row r="69" spans="1:20" s="9" customFormat="1">
       <c r="A69" s="9" t="s">
         <v>254</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D69" s="22"/>
-      <c r="E69" s="32"/>
+      <c r="E69" s="31"/>
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
       <c r="J69" s="9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L69" s="14" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N69" s="19" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="O69" s="19" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P69" s="14"/>
       <c r="Q69" s="14"/>
       <c r="R69" s="14"/>
       <c r="S69" s="14"/>
-      <c r="T69" s="27"/>
-      <c r="U69" s="14"/>
-      <c r="V69" s="14"/>
-      <c r="W69" s="14"/>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="T69" s="14"/>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="8" t="s">
         <v>254</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G70" s="4">
         <v>1</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L70" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="N70" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="M70" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="N70" s="18" t="s">
-        <v>439</v>
-      </c>
       <c r="O70" s="18" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" s="9" customFormat="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" s="9" customFormat="1">
       <c r="A71" s="9" t="s">
         <v>254</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="E71" s="32"/>
+        <v>437</v>
+      </c>
+      <c r="E71" s="31"/>
       <c r="F71" s="22"/>
       <c r="G71" s="22"/>
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
       <c r="K71" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L71" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="N71" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="O71" s="19" t="s">
         <v>452</v>
-      </c>
-      <c r="O71" s="19" t="s">
-        <v>455</v>
       </c>
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
       <c r="R71" s="14"/>
       <c r="S71" s="14"/>
-      <c r="T71" s="27"/>
-      <c r="U71" s="14"/>
-      <c r="V71" s="14"/>
-      <c r="W71" s="14"/>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="T71" s="14"/>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="8" t="s">
         <v>254</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="K72" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="L72" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="N72" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="O72" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="K72" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="L72" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="M72" s="8" t="s">
+      <c r="P72" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="N72" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="O72" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="P72" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23">
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="8" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N77" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="O77" s="18" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M78" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N78" s="18" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N79" s="18" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="J80" s="8" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="80" spans="1:23">
-      <c r="A80" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>724</v>
-      </c>
       <c r="L80" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N80" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M81" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N81" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="M82" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N82" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="M83" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N83" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M84" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N84" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="M85" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N85" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="M86" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N86" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="M87" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N87" s="18" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="16">
       <c r="A88" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="M88" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N88" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="M89" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N89" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M90" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N90" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="M91" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N91" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="M92" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N92" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="M93" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N93" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="M94" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N94" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M95" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N95" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="M96" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N96" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M97" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N97" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M98" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N98" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="M99" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N99" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="M100" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N100" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="J101" s="8" t="s">
         <v>202</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="M101" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N101" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="M102" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N102" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M103" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N103" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M104" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N104" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="M105" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N105" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="M106" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N106" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="M107" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N107" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="M108" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N108" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="M109" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N109" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="M110" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N110" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="M111" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N111" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="M112" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N112" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="J113" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="B113" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="J113" s="8" t="s">
-        <v>759</v>
-      </c>
       <c r="K113" s="8" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N113" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M114" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N114" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="M115" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N115" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="J116" s="18" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="M116" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N116" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="K117" s="8" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="M117" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N117" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M118" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N118" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="M119" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N119" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="J120" s="18" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="M120" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N120" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="M121" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N121" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="M122" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N122" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="M123" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N123" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="M124" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N124" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="J125" s="8" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M125" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N125" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="J126" s="18" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="M126" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N126" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="M127" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N127" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="K128" s="8" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="M128" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N128" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M129" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N129" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="M130" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N130" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="J131" s="8" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M131" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N131" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="M132" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N132" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="M133" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N133" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="M134" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N134" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="L135" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="M135" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N135" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="L136" s="5" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="M136" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N136" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="L137" s="5" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="M137" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N137" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="L138" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="M138" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N138" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="J139" s="8" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="L139" s="5" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="M139" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N139" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="K140" s="8" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="L140" s="5" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="M140" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N140" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="J141" s="8" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="K141" s="8" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="M141" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N141" s="8" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="J142" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="M142" s="8" t="s">
         <v>901</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="J142" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="L142" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="M142" s="8" t="s">
-        <v>905</v>
-      </c>
       <c r="N142" s="8" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="J143" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="L143" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="M143" s="8" t="s">
         <v>901</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="J143" s="8" t="s">
-        <v>917</v>
-      </c>
-      <c r="L143" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="M143" s="8" t="s">
-        <v>905</v>
-      </c>
       <c r="N143" s="8" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="O143" s="18" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="J144" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="L144" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="M144" s="8" t="s">
         <v>901</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="N144" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="O144" s="18" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
+      <c r="A145" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>898</v>
+      </c>
+      <c r="J145" s="8" t="s">
         <v>919</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="J144" s="8" t="s">
+      <c r="L145" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="M145" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="N145" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="O145" s="18" t="s">
+        <v>921</v>
+      </c>
+      <c r="P145" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="L144" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="M144" s="8" t="s">
-        <v>905</v>
-      </c>
-      <c r="N144" s="8" t="s">
-        <v>894</v>
-      </c>
-      <c r="O144" s="18" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="145" spans="1:22">
-      <c r="A145" s="8" t="s">
+    </row>
+    <row r="146" spans="1:16">
+      <c r="A146" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>898</v>
+      </c>
+      <c r="J146" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="L146" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="M146" s="8" t="s">
         <v>901</v>
       </c>
-      <c r="B145" s="11" t="s">
-        <v>922</v>
-      </c>
-      <c r="C145" s="31" t="s">
-        <v>902</v>
-      </c>
-      <c r="J145" s="8" t="s">
-        <v>923</v>
-      </c>
-      <c r="L145" s="5" t="s">
-        <v>913</v>
-      </c>
-      <c r="M145" s="8" t="s">
-        <v>905</v>
-      </c>
-      <c r="N145" s="8" t="s">
-        <v>894</v>
-      </c>
-      <c r="O145" s="18" t="s">
+      <c r="N146" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="O146" s="18" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
+      <c r="A147" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>925</v>
       </c>
-      <c r="P145" s="5" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="146" spans="1:22">
-      <c r="A146" s="8" t="s">
+      <c r="C147" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="J147" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="L147" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="M147" s="8" t="s">
         <v>901</v>
       </c>
-      <c r="B146" s="11" t="s">
-        <v>926</v>
-      </c>
-      <c r="C146" s="31" t="s">
-        <v>902</v>
-      </c>
-      <c r="J146" s="8" t="s">
-        <v>927</v>
-      </c>
-      <c r="L146" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="M146" s="8" t="s">
-        <v>905</v>
-      </c>
-      <c r="N146" s="8" t="s">
-        <v>894</v>
-      </c>
-      <c r="O146" s="18" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="147" spans="1:22">
-      <c r="A147" s="8" t="s">
-        <v>901</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>929</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="J147" s="8" t="s">
-        <v>930</v>
-      </c>
-      <c r="L147" s="5" t="s">
-        <v>904</v>
-      </c>
-      <c r="M147" s="8" t="s">
-        <v>905</v>
-      </c>
       <c r="N147" s="8" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="O147" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="148" spans="1:22">
+    <row r="148" spans="1:16">
       <c r="A148" s="8" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="J148" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="L148" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="M148" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="N148" s="18" t="s">
         <v>932</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="O148" s="18" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
+      <c r="A149" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="J148" s="8" t="s">
-        <v>930</v>
-      </c>
-      <c r="L148" s="5" t="s">
-        <v>904</v>
-      </c>
-      <c r="M148" s="8" t="s">
-        <v>935</v>
-      </c>
-      <c r="N148" s="18" t="s">
-        <v>936</v>
-      </c>
-      <c r="O148" s="18" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="149" spans="1:22">
-      <c r="A149" s="8" t="s">
-        <v>936</v>
-      </c>
       <c r="B149" s="5" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C149" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="J149" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="L149" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="M149" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="N149" s="18" t="s">
         <v>932</v>
       </c>
-      <c r="J149" s="8" t="s">
+      <c r="O149" s="18" t="s">
         <v>933</v>
       </c>
-      <c r="L149" s="5" t="s">
-        <v>904</v>
-      </c>
-      <c r="M149" s="8" t="s">
-        <v>935</v>
-      </c>
-      <c r="N149" s="18" t="s">
-        <v>936</v>
-      </c>
-      <c r="O149" s="18" t="s">
-        <v>937</v>
-      </c>
-      <c r="V149" s="5" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="150" spans="1:22">
+    </row>
+    <row r="150" spans="1:16">
       <c r="A150" s="8" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B150" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="J150" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="L150" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="M150" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="N150" s="18" t="s">
+        <v>932</v>
+      </c>
+      <c r="O150" s="18" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
+      <c r="A151" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="J151" s="8" t="s">
         <v>967</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="L151" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="M151" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="N151" s="18" t="s">
         <v>932</v>
       </c>
-      <c r="J150" s="8" t="s">
+      <c r="O151" s="18" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16">
+      <c r="A152" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="J152" s="8" t="s">
         <v>968</v>
       </c>
-      <c r="L150" s="5" t="s">
-        <v>944</v>
-      </c>
-      <c r="M150" s="8" t="s">
-        <v>935</v>
-      </c>
-      <c r="N150" s="18" t="s">
-        <v>936</v>
-      </c>
-      <c r="O150" s="18" t="s">
+      <c r="L152" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="M152" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="N152" s="18" t="s">
+        <v>932</v>
+      </c>
+      <c r="O152" s="18" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="151" spans="1:22">
-      <c r="A151" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>974</v>
-      </c>
-      <c r="C151" s="4" t="s">
+    <row r="153" spans="1:16">
+      <c r="A153" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="J151" s="8" t="s">
-        <v>971</v>
-      </c>
-      <c r="L151" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="M151" s="8" t="s">
-        <v>935</v>
-      </c>
-      <c r="N151" s="18" t="s">
-        <v>936</v>
-      </c>
-      <c r="O151" s="18" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="152" spans="1:22">
-      <c r="A152" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>975</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="J152" s="8" t="s">
+      <c r="B153" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="L152" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="M152" s="8" t="s">
-        <v>935</v>
-      </c>
-      <c r="N152" s="18" t="s">
-        <v>936</v>
-      </c>
-      <c r="O152" s="18" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="153" spans="1:22">
-      <c r="A153" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>976</v>
-      </c>
       <c r="C153" s="4" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="H153" s="4">
         <v>1</v>
       </c>
       <c r="J153" s="8" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="L153" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="M153" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="N153" s="18" t="s">
+        <v>932</v>
+      </c>
+      <c r="O153" s="18" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
+      <c r="A154" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="J154" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="L154" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="M154" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="N154" s="18" t="s">
+        <v>932</v>
+      </c>
+      <c r="O154" s="18" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
+      <c r="A155" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="J155" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="L155" s="5" t="s">
         <v>956</v>
       </c>
-      <c r="M153" s="8" t="s">
-        <v>935</v>
-      </c>
-      <c r="N153" s="18" t="s">
-        <v>936</v>
-      </c>
-      <c r="O153" s="18" t="s">
-        <v>980</v>
-      </c>
-      <c r="V153" s="5" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="154" spans="1:22">
-      <c r="A154" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="C154" s="4" t="s">
+      <c r="M155" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="N155" s="18" t="s">
         <v>932</v>
       </c>
-      <c r="J154" s="8" t="s">
+      <c r="O155" s="18" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
+      <c r="A156" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="J156" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="L156" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="M156" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="N156" s="18" t="s">
+        <v>932</v>
+      </c>
+      <c r="O156" s="8" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16">
+      <c r="A157" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="B157" s="5" t="s">
         <v>985</v>
       </c>
-      <c r="L154" s="5" t="s">
-        <v>958</v>
-      </c>
-      <c r="M154" s="8" t="s">
-        <v>935</v>
-      </c>
-      <c r="N154" s="18" t="s">
-        <v>936</v>
-      </c>
-      <c r="O154" s="18" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="155" spans="1:22">
-      <c r="A155" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="C155" s="4" t="s">
+      <c r="C157" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="J157" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="L157" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="M157" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="N157" s="18" t="s">
         <v>932</v>
       </c>
-      <c r="J155" s="8" t="s">
-        <v>986</v>
-      </c>
-      <c r="L155" s="5" t="s">
-        <v>960</v>
-      </c>
-      <c r="M155" s="8" t="s">
-        <v>935</v>
-      </c>
-      <c r="N155" s="18" t="s">
-        <v>936</v>
-      </c>
-      <c r="O155" s="18" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="156" spans="1:22">
-      <c r="A156" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="B156" s="5" t="s">
+      <c r="O157" s="18" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
+      <c r="A158" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="B158" s="5" t="s">
         <v>987</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C158" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="J156" s="8" t="s">
+      <c r="J158" s="8" t="s">
         <v>988</v>
       </c>
-      <c r="L156" s="5" t="s">
-        <v>945</v>
-      </c>
-      <c r="M156" s="8" t="s">
-        <v>935</v>
-      </c>
-      <c r="N156" s="18" t="s">
-        <v>936</v>
-      </c>
-      <c r="O156" s="8" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="157" spans="1:22">
-      <c r="A157" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="B157" s="5" t="s">
+      <c r="L158" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="M158" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="N158" s="18" t="s">
+        <v>932</v>
+      </c>
+      <c r="O158" s="18" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16">
+      <c r="A159" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="B159" s="5" t="s">
         <v>989</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C159" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="J157" s="8" t="s">
+      <c r="J159" s="8" t="s">
         <v>990</v>
       </c>
-      <c r="L157" s="5" t="s">
-        <v>904</v>
-      </c>
-      <c r="M157" s="8" t="s">
-        <v>935</v>
-      </c>
-      <c r="N157" s="18" t="s">
-        <v>936</v>
-      </c>
-      <c r="O157" s="18" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="158" spans="1:22">
-      <c r="A158" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="B158" s="5" t="s">
+      <c r="L159" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="M159" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="N159" s="18" t="s">
+        <v>932</v>
+      </c>
+      <c r="O159" s="18" t="s">
         <v>991</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="J158" s="8" t="s">
-        <v>992</v>
-      </c>
-      <c r="L158" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="M158" s="8" t="s">
-        <v>935</v>
-      </c>
-      <c r="N158" s="18" t="s">
-        <v>936</v>
-      </c>
-      <c r="O158" s="18" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="159" spans="1:22">
-      <c r="A159" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="B159" s="5" t="s">
+    </row>
+    <row r="160" spans="1:16">
+      <c r="A160" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="C159" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="J159" s="8" t="s">
+      <c r="C160" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="J160" s="8" t="s">
         <v>994</v>
       </c>
-      <c r="L159" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="M159" s="8" t="s">
-        <v>935</v>
-      </c>
-      <c r="N159" s="18" t="s">
-        <v>936</v>
-      </c>
-      <c r="O159" s="18" t="s">
-        <v>995</v>
-      </c>
-      <c r="V159" s="5" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="160" spans="1:22">
-      <c r="A160" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>997</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="J160" s="8" t="s">
-        <v>998</v>
-      </c>
       <c r="L160" s="5" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="M160" s="8" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="N160" s="18" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="O160" s="18" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -14571,13 +14493,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:R159"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -14585,17 +14507,20 @@
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="24.5" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" customWidth="1"/>
-    <col min="6" max="8" width="22.6640625" customWidth="1"/>
-    <col min="9" max="9" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" customWidth="1"/>
-    <col min="12" max="12" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="47.33203125" customWidth="1"/>
+    <col min="9" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" customWidth="1"/>
+    <col min="15" max="15" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.1640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="65.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="A1" s="27" t="s">
         <v>186</v>
       </c>
@@ -14603,390 +14528,497 @@
         <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I1" t="s">
         <v>220</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>290</v>
       </c>
-      <c r="H1" t="s">
-        <v>940</v>
-      </c>
-      <c r="I1" t="s">
-        <v>943</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>936</v>
+      </c>
+      <c r="L1" t="s">
+        <v>939</v>
+      </c>
+      <c r="M1" t="s">
         <v>210</v>
       </c>
-      <c r="K1" t="s">
-        <v>522</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>519</v>
+      </c>
+      <c r="O1" t="s">
         <v>189</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>209</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="R1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="F2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="I2" t="s">
         <v>288</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>289</v>
       </c>
-      <c r="H2" t="s">
-        <v>941</v>
-      </c>
-      <c r="I2" t="s">
-        <v>942</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>937</v>
+      </c>
+      <c r="L2" t="s">
+        <v>938</v>
+      </c>
+      <c r="M2" t="s">
         <v>300</v>
       </c>
-      <c r="K2" t="s">
-        <v>523</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
+        <v>520</v>
+      </c>
+      <c r="O2" t="s">
         <v>223</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>224</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" s="62" t="s">
+        <v>355</v>
+      </c>
+      <c r="R2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" t="s">
-        <v>513</v>
-      </c>
-      <c r="J3">
+        <v>510</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>190</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" s="61"/>
+      <c r="R3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" t="s">
-        <v>514</v>
-      </c>
-      <c r="E4" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" t="s">
         <v>188</v>
       </c>
-      <c r="N4" t="s">
+      <c r="R4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" t="s">
         <v>187</v>
       </c>
-      <c r="N5" t="s">
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="R5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" t="s">
-        <v>515</v>
-      </c>
-      <c r="I6" t="s">
+        <v>512</v>
+      </c>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="L6" t="s">
         <v>219</v>
       </c>
-      <c r="N6" t="s">
+      <c r="R6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" t="s">
-        <v>517</v>
-      </c>
-      <c r="I7" t="s">
+        <v>514</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="L7" t="s">
         <v>219</v>
       </c>
-      <c r="N7" t="s">
+      <c r="R7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="17" customFormat="1">
+    <row r="8" spans="1:18" s="17" customFormat="1">
       <c r="A8" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="I8" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="J8" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="K8" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="M8" s="17" t="e">
+      <c r="P8" s="17" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="R8" s="17" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>308</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B10" t="s">
         <v>443</v>
-      </c>
-      <c r="B10" t="s">
-        <v>446</v>
       </c>
       <c r="C10" s="25">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" t="s">
-        <v>441</v>
-      </c>
-      <c r="I11" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>438</v>
+      </c>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="L11" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q11" s="61"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B12" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C12" s="25">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="55" t="s">
+      <c r="H12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="53" t="s">
         <v>102</v>
       </c>
       <c r="C13" s="25">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="56" t="s">
+        <v>527</v>
+      </c>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="Q13" s="66"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="54" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="56" t="s">
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="Q14" s="66"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="54" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="56" t="s">
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="Q15" s="66"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="54" t="s">
         <v>108</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="56" t="s">
-        <v>533</v>
+        <v>529</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="Q16" s="61"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="54" t="s">
+        <v>530</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="56" t="s">
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="Q17" s="66"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="54" t="s">
         <v>109</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="56" t="s">
+        <v>531</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="Q18" s="61"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="54" t="s">
         <v>110</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" t="s">
         <v>130</v>
       </c>
-      <c r="I19" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="56" t="s">
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="L19" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q19" s="66"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="54" t="s">
         <v>111</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="56" t="s">
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="Q20" s="61"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="54" t="s">
         <v>111</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" t="s">
-        <v>536</v>
-      </c>
-      <c r="I21" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="L21" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="54" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="56" t="s">
+        <v>534</v>
+      </c>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="54" t="s">
         <v>116</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="56" t="s">
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="54" t="s">
         <v>117</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="56" t="s">
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="54" t="s">
         <v>118</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" t="s">
         <v>149</v>
       </c>
-      <c r="I25" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="57" t="s">
-        <v>529</v>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="L25" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="55" t="s">
+        <v>526</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" t="s">
-        <v>618</v>
-      </c>
-      <c r="L27" t="s">
+        <v>614</v>
+      </c>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="O27" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q27" s="63"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" t="s">
-        <v>624</v>
       </c>
       <c r="C28" s="25">
         <v>1</v>
@@ -14994,318 +15026,407 @@
       <c r="D28" t="s">
         <v>65</v>
       </c>
-      <c r="E28" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" t="s">
-        <v>649</v>
-      </c>
-      <c r="J29">
+        <v>645</v>
+      </c>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="M29">
         <v>1</v>
       </c>
-      <c r="L29" t="s">
-        <v>650</v>
-      </c>
-      <c r="N29" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q29" s="67"/>
+      <c r="R29" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C30" s="25">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>757</v>
-      </c>
-      <c r="E30" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>753</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C31" s="25">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>757</v>
-      </c>
-      <c r="E31" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>753</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C32" s="25">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>757</v>
-      </c>
-      <c r="E32" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>753</v>
+      </c>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C33" s="25">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>757</v>
-      </c>
-      <c r="E33" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>753</v>
+      </c>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C34" s="25">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>757</v>
-      </c>
-      <c r="E34" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>753</v>
+      </c>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C35" s="25">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>757</v>
-      </c>
-      <c r="E35" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>753</v>
+      </c>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C36" s="25">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>905</v>
-      </c>
-      <c r="E36" t="s">
-        <v>445</v>
-      </c>
-      <c r="M36" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>901</v>
+      </c>
+      <c r="H36" t="s">
+        <v>442</v>
+      </c>
+      <c r="P36" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" t="s">
-        <v>928</v>
-      </c>
-      <c r="I37" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>924</v>
+      </c>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="L37" t="s">
+        <v>927</v>
+      </c>
+      <c r="Q37" s="61"/>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" t="s">
-        <v>937</v>
-      </c>
-      <c r="I38" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>933</v>
+      </c>
+      <c r="L38" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" t="s">
-        <v>969</v>
-      </c>
-      <c r="I39" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>965</v>
+      </c>
+      <c r="L39" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" t="s">
+        <v>976</v>
+      </c>
+      <c r="H40" t="s">
+        <v>979</v>
+      </c>
+      <c r="L40" t="s">
         <v>980</v>
       </c>
-      <c r="E40" t="s">
-        <v>983</v>
-      </c>
-      <c r="I40" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="11" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" t="s">
-        <v>937</v>
-      </c>
-      <c r="I41" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>933</v>
+      </c>
+      <c r="L41" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C42" s="25">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>935</v>
-      </c>
-      <c r="E42" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>931</v>
+      </c>
+      <c r="H42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="C43" s="25"/>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="Q43" s="61"/>
+    </row>
+    <row r="44" spans="1:17">
       <c r="C44" s="25"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:17">
       <c r="C45" s="25"/>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="Q45" s="61"/>
+    </row>
+    <row r="46" spans="1:17">
       <c r="C46" s="25"/>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="Q46" s="63"/>
+    </row>
+    <row r="47" spans="1:17">
       <c r="C47" s="25"/>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="Q47" s="61"/>
+    </row>
+    <row r="48" spans="1:17">
       <c r="C48" s="25"/>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="3:17">
       <c r="C49" s="25"/>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="3:17">
       <c r="C50" s="25"/>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="3:17">
       <c r="C51" s="25"/>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="3:17">
       <c r="C52" s="25"/>
     </row>
-    <row r="53" spans="3:3">
+    <row r="53" spans="3:17">
       <c r="C53" s="25"/>
-    </row>
-    <row r="54" spans="3:3">
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="Q53" s="61"/>
+    </row>
+    <row r="54" spans="3:17">
       <c r="C54" s="25"/>
-    </row>
-    <row r="55" spans="3:3">
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="Q54" s="61"/>
+    </row>
+    <row r="55" spans="3:17">
       <c r="C55" s="25"/>
     </row>
-    <row r="56" spans="3:3">
+    <row r="56" spans="3:17">
       <c r="C56" s="25"/>
-    </row>
-    <row r="57" spans="3:3">
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="Q56" s="61"/>
+    </row>
+    <row r="57" spans="3:17">
       <c r="C57" s="25"/>
     </row>
-    <row r="58" spans="3:3">
+    <row r="58" spans="3:17">
       <c r="C58" s="25"/>
-    </row>
-    <row r="59" spans="3:3">
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="Q58" s="61"/>
+    </row>
+    <row r="59" spans="3:17">
       <c r="C59" s="25"/>
     </row>
-    <row r="60" spans="3:3">
+    <row r="60" spans="3:17">
       <c r="C60" s="25"/>
-    </row>
-    <row r="61" spans="3:3">
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="Q60" s="61"/>
+    </row>
+    <row r="61" spans="3:17">
       <c r="C61" s="25"/>
-    </row>
-    <row r="62" spans="3:3">
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="Q61" s="61"/>
+    </row>
+    <row r="62" spans="3:17">
       <c r="C62" s="25"/>
     </row>
-    <row r="63" spans="3:3">
+    <row r="63" spans="3:17">
       <c r="C63" s="25"/>
-    </row>
-    <row r="64" spans="3:3">
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="Q63" s="61"/>
+    </row>
+    <row r="64" spans="3:17">
       <c r="C64" s="25"/>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:17">
       <c r="C65" s="25"/>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:17">
       <c r="C66" s="25"/>
-    </row>
-    <row r="67" spans="3:3">
+      <c r="E66" s="58"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
+      <c r="Q66" s="61"/>
+    </row>
+    <row r="67" spans="3:17">
       <c r="C67" s="25"/>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:17">
       <c r="C68" s="25"/>
-    </row>
-    <row r="69" spans="3:3">
+      <c r="E68" s="58"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
+      <c r="Q68" s="61"/>
+    </row>
+    <row r="69" spans="3:17">
       <c r="C69" s="25"/>
-    </row>
-    <row r="70" spans="3:3">
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+      <c r="Q69" s="61"/>
+    </row>
+    <row r="70" spans="3:17">
       <c r="C70" s="25"/>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="3:17">
       <c r="C71" s="25"/>
-    </row>
-    <row r="72" spans="3:3">
+      <c r="E71" s="58"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
+      <c r="Q71" s="61"/>
+    </row>
+    <row r="72" spans="3:17">
       <c r="C72" s="25"/>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="3:17">
       <c r="C73" s="25"/>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="3:17">
       <c r="C74" s="25"/>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="3:17">
       <c r="C75" s="25"/>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="3:17">
       <c r="C76" s="25"/>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" spans="3:17">
       <c r="C77" s="25"/>
     </row>
-    <row r="78" spans="3:3">
+    <row r="78" spans="3:17">
       <c r="C78" s="25"/>
     </row>
-    <row r="79" spans="3:3">
+    <row r="79" spans="3:17">
       <c r="C79" s="25"/>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="3:17">
       <c r="C80" s="25"/>
     </row>
     <row r="81" spans="3:3">
@@ -15313,6 +15434,21 @@
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="25"/>
+    </row>
+    <row r="149" spans="6:6">
+      <c r="F149" s="56" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="153" spans="6:6">
+      <c r="F153" s="56" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="159" spans="6:6">
+      <c r="F159" s="56" t="s">
+        <v>992</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -15322,10 +15458,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A97CEA-0747-7D46-9243-C2D4F8EF4D82}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15335,9 +15471,10 @@
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -15345,21 +15482,24 @@
         <v>180</v>
       </c>
       <c r="C1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="D2" t="s">
         <v>541</v>
       </c>
-      <c r="D1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="D2" t="s">
-        <v>545</v>
-      </c>
       <c r="E2" t="s">
-        <v>543</v>
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -15373,7 +15513,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -15384,7 +15524,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>998</v>
       </c>
       <c r="B1" t="s">
         <v>222</v>
@@ -15392,26 +15532,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B4" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -15454,7 +15594,7 @@
     <col min="22" max="22" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="33.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.83203125" style="30"/>
+    <col min="25" max="25" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -15462,13 +15602,13 @@
         <v>222</v>
       </c>
       <c r="B1" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E1" t="s">
         <v>232</v>
@@ -15489,7 +15629,7 @@
         <v>240</v>
       </c>
       <c r="K1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L1" t="s">
         <v>234</v>
@@ -15525,30 +15665,30 @@
         <v>257</v>
       </c>
       <c r="W1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y1" s="30" t="s">
-        <v>317</v>
+        <v>319</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" t="s">
         <v>341</v>
-      </c>
-      <c r="C2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F2" t="s">
-        <v>343</v>
       </c>
       <c r="G2" t="s">
         <v>242</v>
@@ -15563,10 +15703,10 @@
         <v>244</v>
       </c>
       <c r="K2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M2" t="s">
         <v>226</v>
@@ -15584,7 +15724,7 @@
         <v>227</v>
       </c>
       <c r="R2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="S2" t="s">
         <v>247</v>
@@ -15593,16 +15733,16 @@
         <v>246</v>
       </c>
       <c r="U2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V2" t="s">
         <v>258</v>
       </c>
       <c r="W2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -15615,47 +15755,47 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>322</v>
-      </c>
-      <c r="S4" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="U4" t="s">
+        <v>311</v>
+      </c>
+      <c r="V4" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="T4" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>313</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="W4" t="s">
-        <v>315</v>
       </c>
       <c r="X4" s="11">
         <v>2012</v>
       </c>
-      <c r="Y4" s="30" t="s">
-        <v>318</v>
+      <c r="Y4" s="29" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>367</v>
+        <v>594</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="B6" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -15692,10 +15832,10 @@
         <v>229</v>
       </c>
       <c r="B1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>230</v>
@@ -15704,7 +15844,7 @@
         <v>231</v>
       </c>
       <c r="F1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>273</v>
@@ -15712,22 +15852,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G2" t="s">
         <v>338</v>
-      </c>
-      <c r="B2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G2" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -15742,7 +15882,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -15760,19 +15900,19 @@
         <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>1006</v>
       </c>
       <c r="C1" t="s">
         <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/ongoing/ref_based_name_history_version_control.xlsx
+++ b/ongoing/ref_based_name_history_version_control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gsmai/Documents/GitHub/national-checklist/ongoing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1F9D2F4E-4D11-9549-BB7D-A60A78BA8E16}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CD1B47-18A1-FF4A-8D58-D7DCED37A856}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33580" windowHeight="19240" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33580" windowHeight="19240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SciNameAuthors" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft JhengHei UI"/>
-            <charset val="136"/>
           </rPr>
           <t>Guan Shuo Mai:</t>
         </r>
@@ -56,7 +55,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft JhengHei UI"/>
-            <charset val="136"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -78,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="1010">
   <si>
     <t>latin_genus</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -3486,6 +3484,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="新細明體 (本文)"/>
+        <charset val="136"/>
       </rPr>
       <t>ü</t>
     </r>
@@ -4955,6 +4954,14 @@
     <t>family_usage_id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>hybrid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果作者認為是雜交種，把作者觀點原文貼進來（限有效使用）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -5087,6 +5094,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體 (本文)"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5098,17 +5106,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft JhengHei UI"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft JhengHei UI"/>
-      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei UI"/>
     </font>
   </fonts>
   <fills count="6">
@@ -5849,7 +5855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5899,10 +5905,10 @@
   <dimension ref="A1:X96"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H104" sqref="H104"/>
+      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -9969,13 +9975,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U160"/>
+  <dimension ref="A1:V160"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
+      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -10003,7 +10009,7 @@
     <col min="22" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="9" t="s">
         <v>39</v>
       </c>
@@ -10067,8 +10073,11 @@
       <c r="U1" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="8" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="D2" s="30" t="s">
         <v>400</v>
       </c>
@@ -10120,8 +10129,11 @@
       <c r="T2" s="24" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" s="9" customFormat="1">
+      <c r="V2" s="8" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="9" customFormat="1">
       <c r="A3" s="9" t="s">
         <v>384</v>
       </c>
@@ -10163,7 +10175,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" s="8" t="s">
         <v>384</v>
       </c>
@@ -10197,7 +10209,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="A5" s="8" t="s">
         <v>384</v>
       </c>
@@ -10231,7 +10243,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="A6" s="8" t="s">
         <v>384</v>
       </c>
@@ -10262,7 +10274,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="A7" s="8" t="s">
         <v>384</v>
       </c>
@@ -10293,7 +10305,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:22">
       <c r="A8" s="8" t="s">
         <v>384</v>
       </c>
@@ -10324,7 +10336,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:22">
       <c r="A9" s="8" t="s">
         <v>384</v>
       </c>
@@ -10358,7 +10370,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:22">
       <c r="A10" s="8" t="s">
         <v>384</v>
       </c>
@@ -10395,7 +10407,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="9" customFormat="1">
+    <row r="11" spans="1:22" s="9" customFormat="1">
       <c r="A11" s="9" t="s">
         <v>254</v>
       </c>
@@ -10437,7 +10449,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:22">
       <c r="A12" s="8" t="s">
         <v>254</v>
       </c>
@@ -10470,7 +10482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="10" customFormat="1">
+    <row r="13" spans="1:22" s="10" customFormat="1">
       <c r="A13" s="10" t="s">
         <v>254</v>
       </c>
@@ -10511,7 +10523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="10" customFormat="1">
+    <row r="14" spans="1:22" s="10" customFormat="1">
       <c r="A14" s="10" t="s">
         <v>254</v>
       </c>
@@ -10552,7 +10564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="10" customFormat="1">
+    <row r="15" spans="1:22" s="10" customFormat="1">
       <c r="A15" s="10" t="s">
         <v>254</v>
       </c>
@@ -10593,7 +10605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="9" customFormat="1">
+    <row r="16" spans="1:22" s="9" customFormat="1">
       <c r="A16" s="9" t="s">
         <v>387</v>
       </c>
@@ -10869,7 +10881,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="23" spans="1:21" customFormat="1" ht="16">
+    <row r="23" spans="1:21" customFormat="1">
       <c r="A23" s="45" t="s">
         <v>254</v>
       </c>
@@ -12655,7 +12667,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="16">
+    <row r="88" spans="1:14">
       <c r="A88" s="8" t="s">
         <v>384</v>
       </c>
